--- a/time_sheet.xlsx
+++ b/time_sheet.xlsx
@@ -362,9 +362,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="dd\-mmm\-yy;;"/>
-    <numFmt numFmtId="166" formatCode="ddd\-dd\-mmm"/>
-    <numFmt numFmtId="167" formatCode="0#"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yy;;"/>
+    <numFmt numFmtId="165" formatCode="ddd\-dd\-mmm"/>
+    <numFmt numFmtId="166" formatCode="0#"/>
   </numFmts>
   <fonts count="40" x14ac:knownFonts="1">
     <font>
@@ -607,13 +607,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -634,6 +627,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -1016,10 +1016,10 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1031,7 +1031,7 @@
     <xf numFmtId="1" fontId="22" fillId="0" borderId="6" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="6" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="6" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1042,7 +1042,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1062,13 +1062,13 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="11" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="11" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="12" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="12" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="13" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="12" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1132,16 +1132,6 @@
     <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="15" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1163,7 +1153,7 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="6" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1173,7 +1163,7 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="14" borderId="6" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="22" fillId="14" borderId="6" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1187,6 +1177,16 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="6" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="5" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="19" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="15" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="40% - Accent1 2" xfId="3"/>
@@ -1211,209 +1211,7 @@
     <cellStyle name="Project Headers" xfId="12"/>
     <cellStyle name="Title 2" xfId="7"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF669966"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF669966"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF669966"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF98BA98"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF98BA98"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF98BA98"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <fill>
         <patternFill>
@@ -2091,39 +1889,39 @@
   </dxfs>
   <tableStyles count="6" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Project Timeline" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="54"/>
-      <tableStyleElement type="headerRow" dxfId="53"/>
-      <tableStyleElement type="firstRowStripe" dxfId="52"/>
-      <tableStyleElement type="secondRowStripe" dxfId="51"/>
+      <tableStyleElement type="wholeTable" dxfId="42"/>
+      <tableStyleElement type="headerRow" dxfId="41"/>
+      <tableStyleElement type="firstRowStripe" dxfId="40"/>
+      <tableStyleElement type="secondRowStripe" dxfId="39"/>
     </tableStyle>
     <tableStyle name="Project Timeline 2" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="50"/>
-      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
     </tableStyle>
     <tableStyle name="Project Timeline 3" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="48"/>
-      <tableStyleElement type="headerRow" dxfId="47"/>
+      <tableStyleElement type="wholeTable" dxfId="36"/>
+      <tableStyleElement type="headerRow" dxfId="35"/>
     </tableStyle>
     <tableStyle name="Project Timeline 4" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="46"/>
-      <tableStyleElement type="headerRow" dxfId="45"/>
-      <tableStyleElement type="firstRowStripe" dxfId="44"/>
-      <tableStyleElement type="secondRowStripe" dxfId="43"/>
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="firstRowStripe" dxfId="32"/>
+      <tableStyleElement type="secondRowStripe" dxfId="31"/>
     </tableStyle>
     <tableStyle name="TableStyleLight7 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="42"/>
-      <tableStyleElement type="headerRow" dxfId="41"/>
-      <tableStyleElement type="totalRow" dxfId="40"/>
-      <tableStyleElement type="firstColumn" dxfId="39"/>
-      <tableStyleElement type="lastColumn" dxfId="38"/>
-      <tableStyleElement type="firstRowStripe" dxfId="37"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="36"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="totalRow" dxfId="28"/>
+      <tableStyleElement type="firstColumn" dxfId="27"/>
+      <tableStyleElement type="lastColumn" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="24"/>
     </tableStyle>
     <tableStyle name="TableStyleLight9 2" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="totalRow" dxfId="33"/>
-      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2462,9 +2260,9 @@
   </sheetPr>
   <dimension ref="A1:NK52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B16" sqref="B16"/>
+      <selection pane="topRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2480,16 +2278,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:375" s="55" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
       <c r="I1" s="59"/>
       <c r="J1" s="58" t="s">
         <v>22</v>
@@ -3955,7 +3753,7 @@
     <row r="2" spans="1:375" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
       <c r="B2" s="53"/>
-      <c r="C2" s="64"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
@@ -3963,526 +3761,526 @@
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
-      <c r="K2" s="60">
+      <c r="K2" s="76">
         <f>IF(ShowFY,IF(MONTH(K1)&lt;4,YEAR(K1)-1&amp;"/"&amp;RIGHT(YEAR(K1),2),YEAR(K1)&amp;"/"&amp;RIGHT(YEAR(K1)+1,2)),YEAR(K1))</f>
         <v>2015</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76">
         <f>IF(ShowFY,IF(MONTH(R1)&lt;4,YEAR(R1)-1&amp;"/"&amp;RIGHT(YEAR(R1),2),YEAR(R1)&amp;"/"&amp;RIGHT(YEAR(R1)+1,2)),YEAR(R1))</f>
         <v>2015</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60">
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76">
         <f>IF(ShowFY,IF(MONTH(Y1)&lt;4,YEAR(Y1)-1&amp;"/"&amp;RIGHT(YEAR(Y1),2),YEAR(Y1)&amp;"/"&amp;RIGHT(YEAR(Y1)+1,2)),YEAR(Y1))</f>
         <v>2015</v>
       </c>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60">
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76">
         <f>IF(ShowFY,IF(MONTH(AF1)&lt;4,YEAR(AF1)-1&amp;"/"&amp;RIGHT(YEAR(AF1),2),YEAR(AF1)&amp;"/"&amp;RIGHT(YEAR(AF1)+1,2)),YEAR(AF1))</f>
         <v>2015</v>
       </c>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60">
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76">
         <f>IF(ShowFY,IF(MONTH(AM1)&lt;4,YEAR(AM1)-1&amp;"/"&amp;RIGHT(YEAR(AM1),2),YEAR(AM1)&amp;"/"&amp;RIGHT(YEAR(AM1)+1,2)),YEAR(AM1))</f>
         <v>2015</v>
       </c>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60">
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="76">
         <f>IF(ShowFY,IF(MONTH(AT1)&lt;4,YEAR(AT1)-1&amp;"/"&amp;RIGHT(YEAR(AT1),2),YEAR(AT1)&amp;"/"&amp;RIGHT(YEAR(AT1)+1,2)),YEAR(AT1))</f>
         <v>2015</v>
       </c>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60">
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="76"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="76">
         <f>IF(ShowFY,IF(MONTH(BA1)&lt;4,YEAR(BA1)-1&amp;"/"&amp;RIGHT(YEAR(BA1),2),YEAR(BA1)&amp;"/"&amp;RIGHT(YEAR(BA1)+1,2)),YEAR(BA1))</f>
         <v>2015</v>
       </c>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60">
+      <c r="BB2" s="76"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="76"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="76"/>
+      <c r="BH2" s="76">
         <f>IF(ShowFY,IF(MONTH(BH1)&lt;4,YEAR(BH1)-1&amp;"/"&amp;RIGHT(YEAR(BH1),2),YEAR(BH1)&amp;"/"&amp;RIGHT(YEAR(BH1)+1,2)),YEAR(BH1))</f>
         <v>2015</v>
       </c>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60">
+      <c r="BI2" s="76"/>
+      <c r="BJ2" s="76"/>
+      <c r="BK2" s="76"/>
+      <c r="BL2" s="76"/>
+      <c r="BM2" s="76"/>
+      <c r="BN2" s="76"/>
+      <c r="BO2" s="76">
         <f>IF(ShowFY,IF(MONTH(BO1)&lt;4,YEAR(BO1)-1&amp;"/"&amp;RIGHT(YEAR(BO1),2),YEAR(BO1)&amp;"/"&amp;RIGHT(YEAR(BO1)+1,2)),YEAR(BO1))</f>
         <v>2015</v>
       </c>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="60"/>
-      <c r="BT2" s="60"/>
-      <c r="BU2" s="60"/>
-      <c r="BV2" s="60">
+      <c r="BP2" s="76"/>
+      <c r="BQ2" s="76"/>
+      <c r="BR2" s="76"/>
+      <c r="BS2" s="76"/>
+      <c r="BT2" s="76"/>
+      <c r="BU2" s="76"/>
+      <c r="BV2" s="76">
         <f>IF(ShowFY,IF(MONTH(BV1)&lt;4,YEAR(BV1)-1&amp;"/"&amp;RIGHT(YEAR(BV1),2),YEAR(BV1)&amp;"/"&amp;RIGHT(YEAR(BV1)+1,2)),YEAR(BV1))</f>
         <v>2015</v>
       </c>
-      <c r="BW2" s="60"/>
-      <c r="BX2" s="60"/>
-      <c r="BY2" s="60"/>
-      <c r="BZ2" s="60"/>
-      <c r="CA2" s="60"/>
-      <c r="CB2" s="60"/>
-      <c r="CC2" s="60">
+      <c r="BW2" s="76"/>
+      <c r="BX2" s="76"/>
+      <c r="BY2" s="76"/>
+      <c r="BZ2" s="76"/>
+      <c r="CA2" s="76"/>
+      <c r="CB2" s="76"/>
+      <c r="CC2" s="76">
         <f>IF(ShowFY,IF(MONTH(CC1)&lt;4,YEAR(CC1)-1&amp;"/"&amp;RIGHT(YEAR(CC1),2),YEAR(CC1)&amp;"/"&amp;RIGHT(YEAR(CC1)+1,2)),YEAR(CC1))</f>
         <v>2015</v>
       </c>
-      <c r="CD2" s="60"/>
-      <c r="CE2" s="60"/>
-      <c r="CF2" s="60"/>
-      <c r="CG2" s="60"/>
-      <c r="CH2" s="60"/>
-      <c r="CI2" s="60"/>
-      <c r="CJ2" s="60">
+      <c r="CD2" s="76"/>
+      <c r="CE2" s="76"/>
+      <c r="CF2" s="76"/>
+      <c r="CG2" s="76"/>
+      <c r="CH2" s="76"/>
+      <c r="CI2" s="76"/>
+      <c r="CJ2" s="76">
         <f>IF(ShowFY,IF(MONTH(CJ1)&lt;4,YEAR(CJ1)-1&amp;"/"&amp;RIGHT(YEAR(CJ1),2),YEAR(CJ1)&amp;"/"&amp;RIGHT(YEAR(CJ1)+1,2)),YEAR(CJ1))</f>
         <v>2015</v>
       </c>
-      <c r="CK2" s="60"/>
-      <c r="CL2" s="60"/>
-      <c r="CM2" s="60"/>
-      <c r="CN2" s="60"/>
-      <c r="CO2" s="60"/>
-      <c r="CP2" s="60"/>
-      <c r="CQ2" s="60">
+      <c r="CK2" s="76"/>
+      <c r="CL2" s="76"/>
+      <c r="CM2" s="76"/>
+      <c r="CN2" s="76"/>
+      <c r="CO2" s="76"/>
+      <c r="CP2" s="76"/>
+      <c r="CQ2" s="76">
         <f>IF(ShowFY,IF(MONTH(CQ1)&lt;4,YEAR(CQ1)-1&amp;"/"&amp;RIGHT(YEAR(CQ1),2),YEAR(CQ1)&amp;"/"&amp;RIGHT(YEAR(CQ1)+1,2)),YEAR(CQ1))</f>
         <v>2015</v>
       </c>
-      <c r="CR2" s="60"/>
-      <c r="CS2" s="60"/>
-      <c r="CT2" s="60"/>
-      <c r="CU2" s="60"/>
-      <c r="CV2" s="60"/>
-      <c r="CW2" s="60"/>
-      <c r="CX2" s="60">
+      <c r="CR2" s="76"/>
+      <c r="CS2" s="76"/>
+      <c r="CT2" s="76"/>
+      <c r="CU2" s="76"/>
+      <c r="CV2" s="76"/>
+      <c r="CW2" s="76"/>
+      <c r="CX2" s="76">
         <f>IF(ShowFY,IF(MONTH(CX1)&lt;4,YEAR(CX1)-1&amp;"/"&amp;RIGHT(YEAR(CX1),2),YEAR(CX1)&amp;"/"&amp;RIGHT(YEAR(CX1)+1,2)),YEAR(CX1))</f>
         <v>2015</v>
       </c>
-      <c r="CY2" s="60"/>
-      <c r="CZ2" s="60"/>
-      <c r="DA2" s="60"/>
-      <c r="DB2" s="60"/>
-      <c r="DC2" s="60"/>
-      <c r="DD2" s="60"/>
-      <c r="DE2" s="60">
+      <c r="CY2" s="76"/>
+      <c r="CZ2" s="76"/>
+      <c r="DA2" s="76"/>
+      <c r="DB2" s="76"/>
+      <c r="DC2" s="76"/>
+      <c r="DD2" s="76"/>
+      <c r="DE2" s="76">
         <f>IF(ShowFY,IF(MONTH(DE1)&lt;4,YEAR(DE1)-1&amp;"/"&amp;RIGHT(YEAR(DE1),2),YEAR(DE1)&amp;"/"&amp;RIGHT(YEAR(DE1)+1,2)),YEAR(DE1))</f>
         <v>2015</v>
       </c>
-      <c r="DF2" s="60"/>
-      <c r="DG2" s="60"/>
-      <c r="DH2" s="60"/>
-      <c r="DI2" s="60"/>
-      <c r="DJ2" s="60"/>
-      <c r="DK2" s="60"/>
-      <c r="DL2" s="60">
+      <c r="DF2" s="76"/>
+      <c r="DG2" s="76"/>
+      <c r="DH2" s="76"/>
+      <c r="DI2" s="76"/>
+      <c r="DJ2" s="76"/>
+      <c r="DK2" s="76"/>
+      <c r="DL2" s="76">
         <f>IF(ShowFY,IF(MONTH(DL1)&lt;4,YEAR(DL1)-1&amp;"/"&amp;RIGHT(YEAR(DL1),2),YEAR(DL1)&amp;"/"&amp;RIGHT(YEAR(DL1)+1,2)),YEAR(DL1))</f>
         <v>2015</v>
       </c>
-      <c r="DM2" s="60"/>
-      <c r="DN2" s="60"/>
-      <c r="DO2" s="60"/>
-      <c r="DP2" s="60"/>
-      <c r="DQ2" s="60"/>
-      <c r="DR2" s="60"/>
-      <c r="DS2" s="60">
+      <c r="DM2" s="76"/>
+      <c r="DN2" s="76"/>
+      <c r="DO2" s="76"/>
+      <c r="DP2" s="76"/>
+      <c r="DQ2" s="76"/>
+      <c r="DR2" s="76"/>
+      <c r="DS2" s="76">
         <f>IF(ShowFY,IF(MONTH(DS1)&lt;4,YEAR(DS1)-1&amp;"/"&amp;RIGHT(YEAR(DS1),2),YEAR(DS1)&amp;"/"&amp;RIGHT(YEAR(DS1)+1,2)),YEAR(DS1))</f>
         <v>2015</v>
       </c>
-      <c r="DT2" s="60"/>
-      <c r="DU2" s="60"/>
-      <c r="DV2" s="60"/>
-      <c r="DW2" s="60"/>
-      <c r="DX2" s="60"/>
-      <c r="DY2" s="60"/>
-      <c r="DZ2" s="60">
+      <c r="DT2" s="76"/>
+      <c r="DU2" s="76"/>
+      <c r="DV2" s="76"/>
+      <c r="DW2" s="76"/>
+      <c r="DX2" s="76"/>
+      <c r="DY2" s="76"/>
+      <c r="DZ2" s="76">
         <f>IF(ShowFY,IF(MONTH(DZ1)&lt;4,YEAR(DZ1)-1&amp;"/"&amp;RIGHT(YEAR(DZ1),2),YEAR(DZ1)&amp;"/"&amp;RIGHT(YEAR(DZ1)+1,2)),YEAR(DZ1))</f>
         <v>2015</v>
       </c>
-      <c r="EA2" s="60"/>
-      <c r="EB2" s="60"/>
-      <c r="EC2" s="60"/>
-      <c r="ED2" s="60"/>
-      <c r="EE2" s="60"/>
-      <c r="EF2" s="60"/>
-      <c r="EG2" s="60">
+      <c r="EA2" s="76"/>
+      <c r="EB2" s="76"/>
+      <c r="EC2" s="76"/>
+      <c r="ED2" s="76"/>
+      <c r="EE2" s="76"/>
+      <c r="EF2" s="76"/>
+      <c r="EG2" s="76">
         <f>IF(ShowFY,IF(MONTH(EG1)&lt;4,YEAR(EG1)-1&amp;"/"&amp;RIGHT(YEAR(EG1),2),YEAR(EG1)&amp;"/"&amp;RIGHT(YEAR(EG1)+1,2)),YEAR(EG1))</f>
         <v>2015</v>
       </c>
-      <c r="EH2" s="60"/>
-      <c r="EI2" s="60"/>
-      <c r="EJ2" s="60"/>
-      <c r="EK2" s="60"/>
-      <c r="EL2" s="60"/>
-      <c r="EM2" s="60"/>
-      <c r="EN2" s="60">
+      <c r="EH2" s="76"/>
+      <c r="EI2" s="76"/>
+      <c r="EJ2" s="76"/>
+      <c r="EK2" s="76"/>
+      <c r="EL2" s="76"/>
+      <c r="EM2" s="76"/>
+      <c r="EN2" s="76">
         <f>IF(ShowFY,IF(MONTH(EN1)&lt;4,YEAR(EN1)-1&amp;"/"&amp;RIGHT(YEAR(EN1),2),YEAR(EN1)&amp;"/"&amp;RIGHT(YEAR(EN1)+1,2)),YEAR(EN1))</f>
         <v>2015</v>
       </c>
-      <c r="EO2" s="60"/>
-      <c r="EP2" s="60"/>
-      <c r="EQ2" s="60"/>
-      <c r="ER2" s="60"/>
-      <c r="ES2" s="60"/>
-      <c r="ET2" s="60"/>
-      <c r="EU2" s="60">
+      <c r="EO2" s="76"/>
+      <c r="EP2" s="76"/>
+      <c r="EQ2" s="76"/>
+      <c r="ER2" s="76"/>
+      <c r="ES2" s="76"/>
+      <c r="ET2" s="76"/>
+      <c r="EU2" s="76">
         <f>IF(ShowFY,IF(MONTH(EU1)&lt;4,YEAR(EU1)-1&amp;"/"&amp;RIGHT(YEAR(EU1),2),YEAR(EU1)&amp;"/"&amp;RIGHT(YEAR(EU1)+1,2)),YEAR(EU1))</f>
         <v>2015</v>
       </c>
-      <c r="EV2" s="60"/>
-      <c r="EW2" s="60"/>
-      <c r="EX2" s="60"/>
-      <c r="EY2" s="60"/>
-      <c r="EZ2" s="60"/>
-      <c r="FA2" s="60"/>
-      <c r="FB2" s="60">
+      <c r="EV2" s="76"/>
+      <c r="EW2" s="76"/>
+      <c r="EX2" s="76"/>
+      <c r="EY2" s="76"/>
+      <c r="EZ2" s="76"/>
+      <c r="FA2" s="76"/>
+      <c r="FB2" s="76">
         <f>IF(ShowFY,IF(MONTH(FB1)&lt;4,YEAR(FB1)-1&amp;"/"&amp;RIGHT(YEAR(FB1),2),YEAR(FB1)&amp;"/"&amp;RIGHT(YEAR(FB1)+1,2)),YEAR(FB1))</f>
         <v>2015</v>
       </c>
-      <c r="FC2" s="60"/>
-      <c r="FD2" s="60"/>
-      <c r="FE2" s="60"/>
-      <c r="FF2" s="60"/>
-      <c r="FG2" s="60"/>
-      <c r="FH2" s="60"/>
-      <c r="FI2" s="60">
+      <c r="FC2" s="76"/>
+      <c r="FD2" s="76"/>
+      <c r="FE2" s="76"/>
+      <c r="FF2" s="76"/>
+      <c r="FG2" s="76"/>
+      <c r="FH2" s="76"/>
+      <c r="FI2" s="76">
         <f>IF(ShowFY,IF(MONTH(FI1)&lt;4,YEAR(FI1)-1&amp;"/"&amp;RIGHT(YEAR(FI1),2),YEAR(FI1)&amp;"/"&amp;RIGHT(YEAR(FI1)+1,2)),YEAR(FI1))</f>
         <v>2015</v>
       </c>
-      <c r="FJ2" s="60"/>
-      <c r="FK2" s="60"/>
-      <c r="FL2" s="60"/>
-      <c r="FM2" s="60"/>
-      <c r="FN2" s="60"/>
-      <c r="FO2" s="60"/>
-      <c r="FP2" s="60">
+      <c r="FJ2" s="76"/>
+      <c r="FK2" s="76"/>
+      <c r="FL2" s="76"/>
+      <c r="FM2" s="76"/>
+      <c r="FN2" s="76"/>
+      <c r="FO2" s="76"/>
+      <c r="FP2" s="76">
         <f>IF(ShowFY,IF(MONTH(FP1)&lt;4,YEAR(FP1)-1&amp;"/"&amp;RIGHT(YEAR(FP1),2),YEAR(FP1)&amp;"/"&amp;RIGHT(YEAR(FP1)+1,2)),YEAR(FP1))</f>
         <v>2015</v>
       </c>
-      <c r="FQ2" s="60"/>
-      <c r="FR2" s="60"/>
-      <c r="FS2" s="60"/>
-      <c r="FT2" s="60"/>
-      <c r="FU2" s="60"/>
-      <c r="FV2" s="60"/>
-      <c r="FW2" s="60">
+      <c r="FQ2" s="76"/>
+      <c r="FR2" s="76"/>
+      <c r="FS2" s="76"/>
+      <c r="FT2" s="76"/>
+      <c r="FU2" s="76"/>
+      <c r="FV2" s="76"/>
+      <c r="FW2" s="76">
         <f>IF(ShowFY,IF(MONTH(FW1)&lt;4,YEAR(FW1)-1&amp;"/"&amp;RIGHT(YEAR(FW1),2),YEAR(FW1)&amp;"/"&amp;RIGHT(YEAR(FW1)+1,2)),YEAR(FW1))</f>
         <v>2015</v>
       </c>
-      <c r="FX2" s="60"/>
-      <c r="FY2" s="60"/>
-      <c r="FZ2" s="60"/>
-      <c r="GA2" s="60"/>
-      <c r="GB2" s="60"/>
-      <c r="GC2" s="60"/>
-      <c r="GD2" s="60">
+      <c r="FX2" s="76"/>
+      <c r="FY2" s="76"/>
+      <c r="FZ2" s="76"/>
+      <c r="GA2" s="76"/>
+      <c r="GB2" s="76"/>
+      <c r="GC2" s="76"/>
+      <c r="GD2" s="76">
         <f>IF(ShowFY,IF(MONTH(GD1)&lt;4,YEAR(GD1)-1&amp;"/"&amp;RIGHT(YEAR(GD1),2),YEAR(GD1)&amp;"/"&amp;RIGHT(YEAR(GD1)+1,2)),YEAR(GD1))</f>
         <v>2015</v>
       </c>
-      <c r="GE2" s="60"/>
-      <c r="GF2" s="60"/>
-      <c r="GG2" s="60"/>
-      <c r="GH2" s="60"/>
-      <c r="GI2" s="60"/>
-      <c r="GJ2" s="60"/>
-      <c r="GK2" s="60">
+      <c r="GE2" s="76"/>
+      <c r="GF2" s="76"/>
+      <c r="GG2" s="76"/>
+      <c r="GH2" s="76"/>
+      <c r="GI2" s="76"/>
+      <c r="GJ2" s="76"/>
+      <c r="GK2" s="76">
         <f>IF(ShowFY,IF(MONTH(GK1)&lt;4,YEAR(GK1)-1&amp;"/"&amp;RIGHT(YEAR(GK1),2),YEAR(GK1)&amp;"/"&amp;RIGHT(YEAR(GK1)+1,2)),YEAR(GK1))</f>
         <v>2016</v>
       </c>
-      <c r="GL2" s="60"/>
-      <c r="GM2" s="60"/>
-      <c r="GN2" s="60"/>
-      <c r="GO2" s="60"/>
-      <c r="GP2" s="60"/>
-      <c r="GQ2" s="60"/>
-      <c r="GR2" s="60">
+      <c r="GL2" s="76"/>
+      <c r="GM2" s="76"/>
+      <c r="GN2" s="76"/>
+      <c r="GO2" s="76"/>
+      <c r="GP2" s="76"/>
+      <c r="GQ2" s="76"/>
+      <c r="GR2" s="76">
         <f>IF(ShowFY,IF(MONTH(GR1)&lt;4,YEAR(GR1)-1&amp;"/"&amp;RIGHT(YEAR(GR1),2),YEAR(GR1)&amp;"/"&amp;RIGHT(YEAR(GR1)+1,2)),YEAR(GR1))</f>
         <v>2016</v>
       </c>
-      <c r="GS2" s="60"/>
-      <c r="GT2" s="60"/>
-      <c r="GU2" s="60"/>
-      <c r="GV2" s="60"/>
-      <c r="GW2" s="60"/>
-      <c r="GX2" s="60"/>
-      <c r="GY2" s="60">
+      <c r="GS2" s="76"/>
+      <c r="GT2" s="76"/>
+      <c r="GU2" s="76"/>
+      <c r="GV2" s="76"/>
+      <c r="GW2" s="76"/>
+      <c r="GX2" s="76"/>
+      <c r="GY2" s="76">
         <f>IF(ShowFY,IF(MONTH(GY1)&lt;4,YEAR(GY1)-1&amp;"/"&amp;RIGHT(YEAR(GY1),2),YEAR(GY1)&amp;"/"&amp;RIGHT(YEAR(GY1)+1,2)),YEAR(GY1))</f>
         <v>2016</v>
       </c>
-      <c r="GZ2" s="60"/>
-      <c r="HA2" s="60"/>
-      <c r="HB2" s="60"/>
-      <c r="HC2" s="60"/>
-      <c r="HD2" s="60"/>
-      <c r="HE2" s="60"/>
-      <c r="HF2" s="60">
+      <c r="GZ2" s="76"/>
+      <c r="HA2" s="76"/>
+      <c r="HB2" s="76"/>
+      <c r="HC2" s="76"/>
+      <c r="HD2" s="76"/>
+      <c r="HE2" s="76"/>
+      <c r="HF2" s="76">
         <f>IF(ShowFY,IF(MONTH(HF1)&lt;4,YEAR(HF1)-1&amp;"/"&amp;RIGHT(YEAR(HF1),2),YEAR(HF1)&amp;"/"&amp;RIGHT(YEAR(HF1)+1,2)),YEAR(HF1))</f>
         <v>2016</v>
       </c>
-      <c r="HG2" s="60"/>
-      <c r="HH2" s="60"/>
-      <c r="HI2" s="60"/>
-      <c r="HJ2" s="60"/>
-      <c r="HK2" s="60"/>
-      <c r="HL2" s="60"/>
-      <c r="HM2" s="60">
+      <c r="HG2" s="76"/>
+      <c r="HH2" s="76"/>
+      <c r="HI2" s="76"/>
+      <c r="HJ2" s="76"/>
+      <c r="HK2" s="76"/>
+      <c r="HL2" s="76"/>
+      <c r="HM2" s="76">
         <f>IF(ShowFY,IF(MONTH(HM1)&lt;4,YEAR(HM1)-1&amp;"/"&amp;RIGHT(YEAR(HM1),2),YEAR(HM1)&amp;"/"&amp;RIGHT(YEAR(HM1)+1,2)),YEAR(HM1))</f>
         <v>2016</v>
       </c>
-      <c r="HN2" s="60"/>
-      <c r="HO2" s="60"/>
-      <c r="HP2" s="60"/>
-      <c r="HQ2" s="60"/>
-      <c r="HR2" s="60"/>
-      <c r="HS2" s="60"/>
-      <c r="HT2" s="60">
+      <c r="HN2" s="76"/>
+      <c r="HO2" s="76"/>
+      <c r="HP2" s="76"/>
+      <c r="HQ2" s="76"/>
+      <c r="HR2" s="76"/>
+      <c r="HS2" s="76"/>
+      <c r="HT2" s="76">
         <f>IF(ShowFY,IF(MONTH(HT1)&lt;4,YEAR(HT1)-1&amp;"/"&amp;RIGHT(YEAR(HT1),2),YEAR(HT1)&amp;"/"&amp;RIGHT(YEAR(HT1)+1,2)),YEAR(HT1))</f>
         <v>2016</v>
       </c>
-      <c r="HU2" s="60"/>
-      <c r="HV2" s="60"/>
-      <c r="HW2" s="60"/>
-      <c r="HX2" s="60"/>
-      <c r="HY2" s="60"/>
-      <c r="HZ2" s="60"/>
-      <c r="IA2" s="60">
+      <c r="HU2" s="76"/>
+      <c r="HV2" s="76"/>
+      <c r="HW2" s="76"/>
+      <c r="HX2" s="76"/>
+      <c r="HY2" s="76"/>
+      <c r="HZ2" s="76"/>
+      <c r="IA2" s="76">
         <f>IF(ShowFY,IF(MONTH(IA1)&lt;4,YEAR(IA1)-1&amp;"/"&amp;RIGHT(YEAR(IA1),2),YEAR(IA1)&amp;"/"&amp;RIGHT(YEAR(IA1)+1,2)),YEAR(IA1))</f>
         <v>2016</v>
       </c>
-      <c r="IB2" s="60"/>
-      <c r="IC2" s="60"/>
-      <c r="ID2" s="60"/>
-      <c r="IE2" s="60"/>
-      <c r="IF2" s="60"/>
-      <c r="IG2" s="60"/>
-      <c r="IH2" s="60">
+      <c r="IB2" s="76"/>
+      <c r="IC2" s="76"/>
+      <c r="ID2" s="76"/>
+      <c r="IE2" s="76"/>
+      <c r="IF2" s="76"/>
+      <c r="IG2" s="76"/>
+      <c r="IH2" s="76">
         <f>IF(ShowFY,IF(MONTH(IH1)&lt;4,YEAR(IH1)-1&amp;"/"&amp;RIGHT(YEAR(IH1),2),YEAR(IH1)&amp;"/"&amp;RIGHT(YEAR(IH1)+1,2)),YEAR(IH1))</f>
         <v>2016</v>
       </c>
-      <c r="II2" s="60"/>
-      <c r="IJ2" s="60"/>
-      <c r="IK2" s="60"/>
-      <c r="IL2" s="60"/>
-      <c r="IM2" s="60"/>
-      <c r="IN2" s="60"/>
-      <c r="IO2" s="60">
+      <c r="II2" s="76"/>
+      <c r="IJ2" s="76"/>
+      <c r="IK2" s="76"/>
+      <c r="IL2" s="76"/>
+      <c r="IM2" s="76"/>
+      <c r="IN2" s="76"/>
+      <c r="IO2" s="76">
         <f>IF(ShowFY,IF(MONTH(IO1)&lt;4,YEAR(IO1)-1&amp;"/"&amp;RIGHT(YEAR(IO1),2),YEAR(IO1)&amp;"/"&amp;RIGHT(YEAR(IO1)+1,2)),YEAR(IO1))</f>
         <v>2016</v>
       </c>
-      <c r="IP2" s="60"/>
-      <c r="IQ2" s="60"/>
-      <c r="IR2" s="60"/>
-      <c r="IS2" s="60"/>
-      <c r="IT2" s="60"/>
-      <c r="IU2" s="60"/>
-      <c r="IV2" s="60">
+      <c r="IP2" s="76"/>
+      <c r="IQ2" s="76"/>
+      <c r="IR2" s="76"/>
+      <c r="IS2" s="76"/>
+      <c r="IT2" s="76"/>
+      <c r="IU2" s="76"/>
+      <c r="IV2" s="76">
         <f>IF(ShowFY,IF(MONTH(IV1)&lt;4,YEAR(IV1)-1&amp;"/"&amp;RIGHT(YEAR(IV1),2),YEAR(IV1)&amp;"/"&amp;RIGHT(YEAR(IV1)+1,2)),YEAR(IV1))</f>
         <v>2016</v>
       </c>
-      <c r="IW2" s="60"/>
-      <c r="IX2" s="60"/>
-      <c r="IY2" s="60"/>
-      <c r="IZ2" s="60"/>
-      <c r="JA2" s="60"/>
-      <c r="JB2" s="60"/>
-      <c r="JC2" s="60">
+      <c r="IW2" s="76"/>
+      <c r="IX2" s="76"/>
+      <c r="IY2" s="76"/>
+      <c r="IZ2" s="76"/>
+      <c r="JA2" s="76"/>
+      <c r="JB2" s="76"/>
+      <c r="JC2" s="76">
         <f>IF(ShowFY,IF(MONTH(JC1)&lt;4,YEAR(JC1)-1&amp;"/"&amp;RIGHT(YEAR(JC1),2),YEAR(JC1)&amp;"/"&amp;RIGHT(YEAR(JC1)+1,2)),YEAR(JC1))</f>
         <v>2016</v>
       </c>
-      <c r="JD2" s="60"/>
-      <c r="JE2" s="60"/>
-      <c r="JF2" s="60"/>
-      <c r="JG2" s="60"/>
-      <c r="JH2" s="60"/>
-      <c r="JI2" s="60"/>
-      <c r="JJ2" s="60">
+      <c r="JD2" s="76"/>
+      <c r="JE2" s="76"/>
+      <c r="JF2" s="76"/>
+      <c r="JG2" s="76"/>
+      <c r="JH2" s="76"/>
+      <c r="JI2" s="76"/>
+      <c r="JJ2" s="76">
         <f>IF(ShowFY,IF(MONTH(JJ1)&lt;4,YEAR(JJ1)-1&amp;"/"&amp;RIGHT(YEAR(JJ1),2),YEAR(JJ1)&amp;"/"&amp;RIGHT(YEAR(JJ1)+1,2)),YEAR(JJ1))</f>
         <v>2016</v>
       </c>
-      <c r="JK2" s="60"/>
-      <c r="JL2" s="60"/>
-      <c r="JM2" s="60"/>
-      <c r="JN2" s="60"/>
-      <c r="JO2" s="60"/>
-      <c r="JP2" s="60"/>
-      <c r="JQ2" s="60">
+      <c r="JK2" s="76"/>
+      <c r="JL2" s="76"/>
+      <c r="JM2" s="76"/>
+      <c r="JN2" s="76"/>
+      <c r="JO2" s="76"/>
+      <c r="JP2" s="76"/>
+      <c r="JQ2" s="76">
         <f>IF(ShowFY,IF(MONTH(JQ1)&lt;4,YEAR(JQ1)-1&amp;"/"&amp;RIGHT(YEAR(JQ1),2),YEAR(JQ1)&amp;"/"&amp;RIGHT(YEAR(JQ1)+1,2)),YEAR(JQ1))</f>
         <v>2016</v>
       </c>
-      <c r="JR2" s="60"/>
-      <c r="JS2" s="60"/>
-      <c r="JT2" s="60"/>
-      <c r="JU2" s="60"/>
-      <c r="JV2" s="60"/>
-      <c r="JW2" s="60"/>
-      <c r="JX2" s="60">
+      <c r="JR2" s="76"/>
+      <c r="JS2" s="76"/>
+      <c r="JT2" s="76"/>
+      <c r="JU2" s="76"/>
+      <c r="JV2" s="76"/>
+      <c r="JW2" s="76"/>
+      <c r="JX2" s="76">
         <f>IF(ShowFY,IF(MONTH(JX1)&lt;4,YEAR(JX1)-1&amp;"/"&amp;RIGHT(YEAR(JX1),2),YEAR(JX1)&amp;"/"&amp;RIGHT(YEAR(JX1)+1,2)),YEAR(JX1))</f>
         <v>2016</v>
       </c>
-      <c r="JY2" s="60"/>
-      <c r="JZ2" s="60"/>
-      <c r="KA2" s="60"/>
-      <c r="KB2" s="60"/>
-      <c r="KC2" s="60"/>
-      <c r="KD2" s="60"/>
-      <c r="KE2" s="60">
+      <c r="JY2" s="76"/>
+      <c r="JZ2" s="76"/>
+      <c r="KA2" s="76"/>
+      <c r="KB2" s="76"/>
+      <c r="KC2" s="76"/>
+      <c r="KD2" s="76"/>
+      <c r="KE2" s="76">
         <f>IF(ShowFY,IF(MONTH(KE1)&lt;4,YEAR(KE1)-1&amp;"/"&amp;RIGHT(YEAR(KE1),2),YEAR(KE1)&amp;"/"&amp;RIGHT(YEAR(KE1)+1,2)),YEAR(KE1))</f>
         <v>2016</v>
       </c>
-      <c r="KF2" s="60"/>
-      <c r="KG2" s="60"/>
-      <c r="KH2" s="60"/>
-      <c r="KI2" s="60"/>
-      <c r="KJ2" s="60"/>
-      <c r="KK2" s="60"/>
-      <c r="KL2" s="60">
+      <c r="KF2" s="76"/>
+      <c r="KG2" s="76"/>
+      <c r="KH2" s="76"/>
+      <c r="KI2" s="76"/>
+      <c r="KJ2" s="76"/>
+      <c r="KK2" s="76"/>
+      <c r="KL2" s="76">
         <f>IF(ShowFY,IF(MONTH(KL1)&lt;4,YEAR(KL1)-1&amp;"/"&amp;RIGHT(YEAR(KL1),2),YEAR(KL1)&amp;"/"&amp;RIGHT(YEAR(KL1)+1,2)),YEAR(KL1))</f>
         <v>2016</v>
       </c>
-      <c r="KM2" s="60"/>
-      <c r="KN2" s="60"/>
-      <c r="KO2" s="60"/>
-      <c r="KP2" s="60"/>
-      <c r="KQ2" s="60"/>
-      <c r="KR2" s="60"/>
-      <c r="KS2" s="60">
+      <c r="KM2" s="76"/>
+      <c r="KN2" s="76"/>
+      <c r="KO2" s="76"/>
+      <c r="KP2" s="76"/>
+      <c r="KQ2" s="76"/>
+      <c r="KR2" s="76"/>
+      <c r="KS2" s="76">
         <f>IF(ShowFY,IF(MONTH(KS1)&lt;4,YEAR(KS1)-1&amp;"/"&amp;RIGHT(YEAR(KS1),2),YEAR(KS1)&amp;"/"&amp;RIGHT(YEAR(KS1)+1,2)),YEAR(KS1))</f>
         <v>2016</v>
       </c>
-      <c r="KT2" s="60"/>
-      <c r="KU2" s="60"/>
-      <c r="KV2" s="60"/>
-      <c r="KW2" s="60"/>
-      <c r="KX2" s="60"/>
-      <c r="KY2" s="60"/>
-      <c r="KZ2" s="60">
+      <c r="KT2" s="76"/>
+      <c r="KU2" s="76"/>
+      <c r="KV2" s="76"/>
+      <c r="KW2" s="76"/>
+      <c r="KX2" s="76"/>
+      <c r="KY2" s="76"/>
+      <c r="KZ2" s="76">
         <f>IF(ShowFY,IF(MONTH(KZ1)&lt;4,YEAR(KZ1)-1&amp;"/"&amp;RIGHT(YEAR(KZ1),2),YEAR(KZ1)&amp;"/"&amp;RIGHT(YEAR(KZ1)+1,2)),YEAR(KZ1))</f>
         <v>2016</v>
       </c>
-      <c r="LA2" s="60"/>
-      <c r="LB2" s="60"/>
-      <c r="LC2" s="60"/>
-      <c r="LD2" s="60"/>
-      <c r="LE2" s="60"/>
-      <c r="LF2" s="60"/>
-      <c r="LG2" s="60">
+      <c r="LA2" s="76"/>
+      <c r="LB2" s="76"/>
+      <c r="LC2" s="76"/>
+      <c r="LD2" s="76"/>
+      <c r="LE2" s="76"/>
+      <c r="LF2" s="76"/>
+      <c r="LG2" s="76">
         <f>IF(ShowFY,IF(MONTH(LG1)&lt;4,YEAR(LG1)-1&amp;"/"&amp;RIGHT(YEAR(LG1),2),YEAR(LG1)&amp;"/"&amp;RIGHT(YEAR(LG1)+1,2)),YEAR(LG1))</f>
         <v>2016</v>
       </c>
-      <c r="LH2" s="60"/>
-      <c r="LI2" s="60"/>
-      <c r="LJ2" s="60"/>
-      <c r="LK2" s="60"/>
-      <c r="LL2" s="60"/>
-      <c r="LM2" s="60"/>
-      <c r="LN2" s="60">
+      <c r="LH2" s="76"/>
+      <c r="LI2" s="76"/>
+      <c r="LJ2" s="76"/>
+      <c r="LK2" s="76"/>
+      <c r="LL2" s="76"/>
+      <c r="LM2" s="76"/>
+      <c r="LN2" s="76">
         <f>IF(ShowFY,IF(MONTH(LN1)&lt;4,YEAR(LN1)-1&amp;"/"&amp;RIGHT(YEAR(LN1),2),YEAR(LN1)&amp;"/"&amp;RIGHT(YEAR(LN1)+1,2)),YEAR(LN1))</f>
         <v>2016</v>
       </c>
-      <c r="LO2" s="60"/>
-      <c r="LP2" s="60"/>
-      <c r="LQ2" s="60"/>
-      <c r="LR2" s="60"/>
-      <c r="LS2" s="60"/>
-      <c r="LT2" s="60"/>
-      <c r="LU2" s="60">
+      <c r="LO2" s="76"/>
+      <c r="LP2" s="76"/>
+      <c r="LQ2" s="76"/>
+      <c r="LR2" s="76"/>
+      <c r="LS2" s="76"/>
+      <c r="LT2" s="76"/>
+      <c r="LU2" s="76">
         <f>IF(ShowFY,IF(MONTH(LU1)&lt;4,YEAR(LU1)-1&amp;"/"&amp;RIGHT(YEAR(LU1),2),YEAR(LU1)&amp;"/"&amp;RIGHT(YEAR(LU1)+1,2)),YEAR(LU1))</f>
         <v>2016</v>
       </c>
-      <c r="LV2" s="60"/>
-      <c r="LW2" s="60"/>
-      <c r="LX2" s="60"/>
-      <c r="LY2" s="60"/>
-      <c r="LZ2" s="60"/>
-      <c r="MA2" s="60"/>
-      <c r="MB2" s="60">
+      <c r="LV2" s="76"/>
+      <c r="LW2" s="76"/>
+      <c r="LX2" s="76"/>
+      <c r="LY2" s="76"/>
+      <c r="LZ2" s="76"/>
+      <c r="MA2" s="76"/>
+      <c r="MB2" s="76">
         <f>IF(ShowFY,IF(MONTH(MB1)&lt;4,YEAR(MB1)-1&amp;"/"&amp;RIGHT(YEAR(MB1),2),YEAR(MB1)&amp;"/"&amp;RIGHT(YEAR(MB1)+1,2)),YEAR(MB1))</f>
         <v>2016</v>
       </c>
-      <c r="MC2" s="60"/>
-      <c r="MD2" s="60"/>
-      <c r="ME2" s="60"/>
-      <c r="MF2" s="60"/>
-      <c r="MG2" s="60"/>
-      <c r="MH2" s="60"/>
-      <c r="MI2" s="60">
+      <c r="MC2" s="76"/>
+      <c r="MD2" s="76"/>
+      <c r="ME2" s="76"/>
+      <c r="MF2" s="76"/>
+      <c r="MG2" s="76"/>
+      <c r="MH2" s="76"/>
+      <c r="MI2" s="76">
         <f>IF(ShowFY,IF(MONTH(MI1)&lt;4,YEAR(MI1)-1&amp;"/"&amp;RIGHT(YEAR(MI1),2),YEAR(MI1)&amp;"/"&amp;RIGHT(YEAR(MI1)+1,2)),YEAR(MI1))</f>
         <v>2016</v>
       </c>
-      <c r="MJ2" s="60"/>
-      <c r="MK2" s="60"/>
-      <c r="ML2" s="60"/>
-      <c r="MM2" s="60"/>
-      <c r="MN2" s="60"/>
-      <c r="MO2" s="60"/>
-      <c r="MP2" s="60">
+      <c r="MJ2" s="76"/>
+      <c r="MK2" s="76"/>
+      <c r="ML2" s="76"/>
+      <c r="MM2" s="76"/>
+      <c r="MN2" s="76"/>
+      <c r="MO2" s="76"/>
+      <c r="MP2" s="76">
         <f>IF(ShowFY,IF(MONTH(MP1)&lt;4,YEAR(MP1)-1&amp;"/"&amp;RIGHT(YEAR(MP1),2),YEAR(MP1)&amp;"/"&amp;RIGHT(YEAR(MP1)+1,2)),YEAR(MP1))</f>
         <v>2016</v>
       </c>
-      <c r="MQ2" s="60"/>
-      <c r="MR2" s="60"/>
-      <c r="MS2" s="60"/>
-      <c r="MT2" s="60"/>
-      <c r="MU2" s="60"/>
-      <c r="MV2" s="60"/>
-      <c r="MW2" s="60">
+      <c r="MQ2" s="76"/>
+      <c r="MR2" s="76"/>
+      <c r="MS2" s="76"/>
+      <c r="MT2" s="76"/>
+      <c r="MU2" s="76"/>
+      <c r="MV2" s="76"/>
+      <c r="MW2" s="76">
         <f>IF(ShowFY,IF(MONTH(MW1)&lt;4,YEAR(MW1)-1&amp;"/"&amp;RIGHT(YEAR(MW1),2),YEAR(MW1)&amp;"/"&amp;RIGHT(YEAR(MW1)+1,2)),YEAR(MW1))</f>
         <v>2016</v>
       </c>
-      <c r="MX2" s="60"/>
-      <c r="MY2" s="60"/>
-      <c r="MZ2" s="60"/>
-      <c r="NA2" s="60"/>
-      <c r="NB2" s="60"/>
-      <c r="NC2" s="60"/>
-      <c r="ND2" s="60">
+      <c r="MX2" s="76"/>
+      <c r="MY2" s="76"/>
+      <c r="MZ2" s="76"/>
+      <c r="NA2" s="76"/>
+      <c r="NB2" s="76"/>
+      <c r="NC2" s="76"/>
+      <c r="ND2" s="76">
         <f>IF(ShowFY,IF(MONTH(ND1)&lt;4,YEAR(ND1)-1&amp;"/"&amp;RIGHT(YEAR(ND1),2),YEAR(ND1)&amp;"/"&amp;RIGHT(YEAR(ND1)+1,2)),YEAR(ND1))</f>
         <v>2016</v>
       </c>
-      <c r="NE2" s="60"/>
-      <c r="NF2" s="60"/>
-      <c r="NG2" s="60"/>
-      <c r="NH2" s="60"/>
-      <c r="NI2" s="60"/>
-      <c r="NJ2" s="62"/>
+      <c r="NE2" s="76"/>
+      <c r="NF2" s="76"/>
+      <c r="NG2" s="76"/>
+      <c r="NH2" s="76"/>
+      <c r="NI2" s="76"/>
+      <c r="NJ2" s="77"/>
     </row>
     <row r="3" spans="1:375" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
@@ -4491,7 +4289,7 @@
       <c r="B3" s="51">
         <v>42186</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="50"/>
@@ -4499,370 +4297,370 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="49"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="60"/>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="60"/>
-      <c r="BJ3" s="60"/>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="60"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="60"/>
-      <c r="BO3" s="60"/>
-      <c r="BP3" s="60"/>
-      <c r="BQ3" s="60"/>
-      <c r="BR3" s="60"/>
-      <c r="BS3" s="60"/>
-      <c r="BT3" s="60"/>
-      <c r="BU3" s="60"/>
-      <c r="BV3" s="60"/>
-      <c r="BW3" s="60"/>
-      <c r="BX3" s="60"/>
-      <c r="BY3" s="60"/>
-      <c r="BZ3" s="60"/>
-      <c r="CA3" s="60"/>
-      <c r="CB3" s="60"/>
-      <c r="CC3" s="60"/>
-      <c r="CD3" s="60"/>
-      <c r="CE3" s="60"/>
-      <c r="CF3" s="60"/>
-      <c r="CG3" s="60"/>
-      <c r="CH3" s="60"/>
-      <c r="CI3" s="60"/>
-      <c r="CJ3" s="60"/>
-      <c r="CK3" s="60"/>
-      <c r="CL3" s="60"/>
-      <c r="CM3" s="60"/>
-      <c r="CN3" s="60"/>
-      <c r="CO3" s="60"/>
-      <c r="CP3" s="60"/>
-      <c r="CQ3" s="60"/>
-      <c r="CR3" s="60"/>
-      <c r="CS3" s="60"/>
-      <c r="CT3" s="60"/>
-      <c r="CU3" s="60"/>
-      <c r="CV3" s="60"/>
-      <c r="CW3" s="60"/>
-      <c r="CX3" s="60"/>
-      <c r="CY3" s="60"/>
-      <c r="CZ3" s="60"/>
-      <c r="DA3" s="60"/>
-      <c r="DB3" s="60"/>
-      <c r="DC3" s="60"/>
-      <c r="DD3" s="60"/>
-      <c r="DE3" s="60"/>
-      <c r="DF3" s="60"/>
-      <c r="DG3" s="60"/>
-      <c r="DH3" s="60"/>
-      <c r="DI3" s="60"/>
-      <c r="DJ3" s="60"/>
-      <c r="DK3" s="60"/>
-      <c r="DL3" s="60"/>
-      <c r="DM3" s="60"/>
-      <c r="DN3" s="60"/>
-      <c r="DO3" s="60"/>
-      <c r="DP3" s="60"/>
-      <c r="DQ3" s="60"/>
-      <c r="DR3" s="60"/>
-      <c r="DS3" s="60"/>
-      <c r="DT3" s="60"/>
-      <c r="DU3" s="60"/>
-      <c r="DV3" s="60"/>
-      <c r="DW3" s="60"/>
-      <c r="DX3" s="60"/>
-      <c r="DY3" s="60"/>
-      <c r="DZ3" s="60"/>
-      <c r="EA3" s="60"/>
-      <c r="EB3" s="60"/>
-      <c r="EC3" s="60"/>
-      <c r="ED3" s="60"/>
-      <c r="EE3" s="60"/>
-      <c r="EF3" s="60"/>
-      <c r="EG3" s="60"/>
-      <c r="EH3" s="60"/>
-      <c r="EI3" s="60"/>
-      <c r="EJ3" s="60"/>
-      <c r="EK3" s="60"/>
-      <c r="EL3" s="60"/>
-      <c r="EM3" s="60"/>
-      <c r="EN3" s="60"/>
-      <c r="EO3" s="60"/>
-      <c r="EP3" s="60"/>
-      <c r="EQ3" s="60"/>
-      <c r="ER3" s="60"/>
-      <c r="ES3" s="60"/>
-      <c r="ET3" s="60"/>
-      <c r="EU3" s="60"/>
-      <c r="EV3" s="60"/>
-      <c r="EW3" s="60"/>
-      <c r="EX3" s="60"/>
-      <c r="EY3" s="60"/>
-      <c r="EZ3" s="60"/>
-      <c r="FA3" s="60"/>
-      <c r="FB3" s="60"/>
-      <c r="FC3" s="60"/>
-      <c r="FD3" s="60"/>
-      <c r="FE3" s="60"/>
-      <c r="FF3" s="60"/>
-      <c r="FG3" s="60"/>
-      <c r="FH3" s="60"/>
-      <c r="FI3" s="60"/>
-      <c r="FJ3" s="60"/>
-      <c r="FK3" s="60"/>
-      <c r="FL3" s="60"/>
-      <c r="FM3" s="60"/>
-      <c r="FN3" s="60"/>
-      <c r="FO3" s="60"/>
-      <c r="FP3" s="60"/>
-      <c r="FQ3" s="60"/>
-      <c r="FR3" s="60"/>
-      <c r="FS3" s="60"/>
-      <c r="FT3" s="60"/>
-      <c r="FU3" s="60"/>
-      <c r="FV3" s="60"/>
-      <c r="FW3" s="60"/>
-      <c r="FX3" s="60"/>
-      <c r="FY3" s="60"/>
-      <c r="FZ3" s="60"/>
-      <c r="GA3" s="60"/>
-      <c r="GB3" s="60"/>
-      <c r="GC3" s="60"/>
-      <c r="GD3" s="60"/>
-      <c r="GE3" s="60"/>
-      <c r="GF3" s="60"/>
-      <c r="GG3" s="60"/>
-      <c r="GH3" s="60"/>
-      <c r="GI3" s="60"/>
-      <c r="GJ3" s="60"/>
-      <c r="GK3" s="60"/>
-      <c r="GL3" s="60"/>
-      <c r="GM3" s="60"/>
-      <c r="GN3" s="60"/>
-      <c r="GO3" s="60"/>
-      <c r="GP3" s="60"/>
-      <c r="GQ3" s="60"/>
-      <c r="GR3" s="60"/>
-      <c r="GS3" s="60"/>
-      <c r="GT3" s="60"/>
-      <c r="GU3" s="60"/>
-      <c r="GV3" s="60"/>
-      <c r="GW3" s="60"/>
-      <c r="GX3" s="60"/>
-      <c r="GY3" s="60"/>
-      <c r="GZ3" s="60"/>
-      <c r="HA3" s="60"/>
-      <c r="HB3" s="60"/>
-      <c r="HC3" s="60"/>
-      <c r="HD3" s="60"/>
-      <c r="HE3" s="60"/>
-      <c r="HF3" s="60"/>
-      <c r="HG3" s="60"/>
-      <c r="HH3" s="60"/>
-      <c r="HI3" s="60"/>
-      <c r="HJ3" s="60"/>
-      <c r="HK3" s="60"/>
-      <c r="HL3" s="60"/>
-      <c r="HM3" s="60"/>
-      <c r="HN3" s="60"/>
-      <c r="HO3" s="60"/>
-      <c r="HP3" s="60"/>
-      <c r="HQ3" s="60"/>
-      <c r="HR3" s="60"/>
-      <c r="HS3" s="60"/>
-      <c r="HT3" s="60"/>
-      <c r="HU3" s="60"/>
-      <c r="HV3" s="60"/>
-      <c r="HW3" s="60"/>
-      <c r="HX3" s="60"/>
-      <c r="HY3" s="60"/>
-      <c r="HZ3" s="60"/>
-      <c r="IA3" s="60"/>
-      <c r="IB3" s="60"/>
-      <c r="IC3" s="60"/>
-      <c r="ID3" s="60"/>
-      <c r="IE3" s="60"/>
-      <c r="IF3" s="60"/>
-      <c r="IG3" s="60"/>
-      <c r="IH3" s="60"/>
-      <c r="II3" s="60"/>
-      <c r="IJ3" s="60"/>
-      <c r="IK3" s="60"/>
-      <c r="IL3" s="60"/>
-      <c r="IM3" s="60"/>
-      <c r="IN3" s="60"/>
-      <c r="IO3" s="60"/>
-      <c r="IP3" s="60"/>
-      <c r="IQ3" s="60"/>
-      <c r="IR3" s="60"/>
-      <c r="IS3" s="60"/>
-      <c r="IT3" s="60"/>
-      <c r="IU3" s="60"/>
-      <c r="IV3" s="60"/>
-      <c r="IW3" s="60"/>
-      <c r="IX3" s="60"/>
-      <c r="IY3" s="60"/>
-      <c r="IZ3" s="60"/>
-      <c r="JA3" s="60"/>
-      <c r="JB3" s="60"/>
-      <c r="JC3" s="60"/>
-      <c r="JD3" s="60"/>
-      <c r="JE3" s="60"/>
-      <c r="JF3" s="60"/>
-      <c r="JG3" s="60"/>
-      <c r="JH3" s="60"/>
-      <c r="JI3" s="60"/>
-      <c r="JJ3" s="60"/>
-      <c r="JK3" s="60"/>
-      <c r="JL3" s="60"/>
-      <c r="JM3" s="60"/>
-      <c r="JN3" s="60"/>
-      <c r="JO3" s="60"/>
-      <c r="JP3" s="60"/>
-      <c r="JQ3" s="60"/>
-      <c r="JR3" s="60"/>
-      <c r="JS3" s="60"/>
-      <c r="JT3" s="60"/>
-      <c r="JU3" s="60"/>
-      <c r="JV3" s="60"/>
-      <c r="JW3" s="60"/>
-      <c r="JX3" s="60"/>
-      <c r="JY3" s="60"/>
-      <c r="JZ3" s="60"/>
-      <c r="KA3" s="60"/>
-      <c r="KB3" s="60"/>
-      <c r="KC3" s="60"/>
-      <c r="KD3" s="60"/>
-      <c r="KE3" s="60"/>
-      <c r="KF3" s="60"/>
-      <c r="KG3" s="60"/>
-      <c r="KH3" s="60"/>
-      <c r="KI3" s="60"/>
-      <c r="KJ3" s="60"/>
-      <c r="KK3" s="60"/>
-      <c r="KL3" s="60"/>
-      <c r="KM3" s="60"/>
-      <c r="KN3" s="60"/>
-      <c r="KO3" s="60"/>
-      <c r="KP3" s="60"/>
-      <c r="KQ3" s="60"/>
-      <c r="KR3" s="60"/>
-      <c r="KS3" s="60"/>
-      <c r="KT3" s="60"/>
-      <c r="KU3" s="60"/>
-      <c r="KV3" s="60"/>
-      <c r="KW3" s="60"/>
-      <c r="KX3" s="60"/>
-      <c r="KY3" s="60"/>
-      <c r="KZ3" s="60"/>
-      <c r="LA3" s="60"/>
-      <c r="LB3" s="60"/>
-      <c r="LC3" s="60"/>
-      <c r="LD3" s="60"/>
-      <c r="LE3" s="60"/>
-      <c r="LF3" s="60"/>
-      <c r="LG3" s="60"/>
-      <c r="LH3" s="60"/>
-      <c r="LI3" s="60"/>
-      <c r="LJ3" s="60"/>
-      <c r="LK3" s="60"/>
-      <c r="LL3" s="60"/>
-      <c r="LM3" s="60"/>
-      <c r="LN3" s="60"/>
-      <c r="LO3" s="60"/>
-      <c r="LP3" s="60"/>
-      <c r="LQ3" s="60"/>
-      <c r="LR3" s="60"/>
-      <c r="LS3" s="60"/>
-      <c r="LT3" s="60"/>
-      <c r="LU3" s="60"/>
-      <c r="LV3" s="60"/>
-      <c r="LW3" s="60"/>
-      <c r="LX3" s="60"/>
-      <c r="LY3" s="60"/>
-      <c r="LZ3" s="60"/>
-      <c r="MA3" s="60"/>
-      <c r="MB3" s="60"/>
-      <c r="MC3" s="60"/>
-      <c r="MD3" s="60"/>
-      <c r="ME3" s="60"/>
-      <c r="MF3" s="60"/>
-      <c r="MG3" s="60"/>
-      <c r="MH3" s="60"/>
-      <c r="MI3" s="60"/>
-      <c r="MJ3" s="60"/>
-      <c r="MK3" s="60"/>
-      <c r="ML3" s="60"/>
-      <c r="MM3" s="60"/>
-      <c r="MN3" s="60"/>
-      <c r="MO3" s="60"/>
-      <c r="MP3" s="60"/>
-      <c r="MQ3" s="60"/>
-      <c r="MR3" s="60"/>
-      <c r="MS3" s="60"/>
-      <c r="MT3" s="60"/>
-      <c r="MU3" s="60"/>
-      <c r="MV3" s="60"/>
-      <c r="MW3" s="60"/>
-      <c r="MX3" s="60"/>
-      <c r="MY3" s="60"/>
-      <c r="MZ3" s="60"/>
-      <c r="NA3" s="60"/>
-      <c r="NB3" s="60"/>
-      <c r="NC3" s="60"/>
-      <c r="ND3" s="60"/>
-      <c r="NE3" s="60"/>
-      <c r="NF3" s="60"/>
-      <c r="NG3" s="60"/>
-      <c r="NH3" s="60"/>
-      <c r="NI3" s="60"/>
-      <c r="NJ3" s="62"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="76"/>
+      <c r="AZ3" s="76"/>
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="76"/>
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="76"/>
+      <c r="BG3" s="76"/>
+      <c r="BH3" s="76"/>
+      <c r="BI3" s="76"/>
+      <c r="BJ3" s="76"/>
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="76"/>
+      <c r="BM3" s="76"/>
+      <c r="BN3" s="76"/>
+      <c r="BO3" s="76"/>
+      <c r="BP3" s="76"/>
+      <c r="BQ3" s="76"/>
+      <c r="BR3" s="76"/>
+      <c r="BS3" s="76"/>
+      <c r="BT3" s="76"/>
+      <c r="BU3" s="76"/>
+      <c r="BV3" s="76"/>
+      <c r="BW3" s="76"/>
+      <c r="BX3" s="76"/>
+      <c r="BY3" s="76"/>
+      <c r="BZ3" s="76"/>
+      <c r="CA3" s="76"/>
+      <c r="CB3" s="76"/>
+      <c r="CC3" s="76"/>
+      <c r="CD3" s="76"/>
+      <c r="CE3" s="76"/>
+      <c r="CF3" s="76"/>
+      <c r="CG3" s="76"/>
+      <c r="CH3" s="76"/>
+      <c r="CI3" s="76"/>
+      <c r="CJ3" s="76"/>
+      <c r="CK3" s="76"/>
+      <c r="CL3" s="76"/>
+      <c r="CM3" s="76"/>
+      <c r="CN3" s="76"/>
+      <c r="CO3" s="76"/>
+      <c r="CP3" s="76"/>
+      <c r="CQ3" s="76"/>
+      <c r="CR3" s="76"/>
+      <c r="CS3" s="76"/>
+      <c r="CT3" s="76"/>
+      <c r="CU3" s="76"/>
+      <c r="CV3" s="76"/>
+      <c r="CW3" s="76"/>
+      <c r="CX3" s="76"/>
+      <c r="CY3" s="76"/>
+      <c r="CZ3" s="76"/>
+      <c r="DA3" s="76"/>
+      <c r="DB3" s="76"/>
+      <c r="DC3" s="76"/>
+      <c r="DD3" s="76"/>
+      <c r="DE3" s="76"/>
+      <c r="DF3" s="76"/>
+      <c r="DG3" s="76"/>
+      <c r="DH3" s="76"/>
+      <c r="DI3" s="76"/>
+      <c r="DJ3" s="76"/>
+      <c r="DK3" s="76"/>
+      <c r="DL3" s="76"/>
+      <c r="DM3" s="76"/>
+      <c r="DN3" s="76"/>
+      <c r="DO3" s="76"/>
+      <c r="DP3" s="76"/>
+      <c r="DQ3" s="76"/>
+      <c r="DR3" s="76"/>
+      <c r="DS3" s="76"/>
+      <c r="DT3" s="76"/>
+      <c r="DU3" s="76"/>
+      <c r="DV3" s="76"/>
+      <c r="DW3" s="76"/>
+      <c r="DX3" s="76"/>
+      <c r="DY3" s="76"/>
+      <c r="DZ3" s="76"/>
+      <c r="EA3" s="76"/>
+      <c r="EB3" s="76"/>
+      <c r="EC3" s="76"/>
+      <c r="ED3" s="76"/>
+      <c r="EE3" s="76"/>
+      <c r="EF3" s="76"/>
+      <c r="EG3" s="76"/>
+      <c r="EH3" s="76"/>
+      <c r="EI3" s="76"/>
+      <c r="EJ3" s="76"/>
+      <c r="EK3" s="76"/>
+      <c r="EL3" s="76"/>
+      <c r="EM3" s="76"/>
+      <c r="EN3" s="76"/>
+      <c r="EO3" s="76"/>
+      <c r="EP3" s="76"/>
+      <c r="EQ3" s="76"/>
+      <c r="ER3" s="76"/>
+      <c r="ES3" s="76"/>
+      <c r="ET3" s="76"/>
+      <c r="EU3" s="76"/>
+      <c r="EV3" s="76"/>
+      <c r="EW3" s="76"/>
+      <c r="EX3" s="76"/>
+      <c r="EY3" s="76"/>
+      <c r="EZ3" s="76"/>
+      <c r="FA3" s="76"/>
+      <c r="FB3" s="76"/>
+      <c r="FC3" s="76"/>
+      <c r="FD3" s="76"/>
+      <c r="FE3" s="76"/>
+      <c r="FF3" s="76"/>
+      <c r="FG3" s="76"/>
+      <c r="FH3" s="76"/>
+      <c r="FI3" s="76"/>
+      <c r="FJ3" s="76"/>
+      <c r="FK3" s="76"/>
+      <c r="FL3" s="76"/>
+      <c r="FM3" s="76"/>
+      <c r="FN3" s="76"/>
+      <c r="FO3" s="76"/>
+      <c r="FP3" s="76"/>
+      <c r="FQ3" s="76"/>
+      <c r="FR3" s="76"/>
+      <c r="FS3" s="76"/>
+      <c r="FT3" s="76"/>
+      <c r="FU3" s="76"/>
+      <c r="FV3" s="76"/>
+      <c r="FW3" s="76"/>
+      <c r="FX3" s="76"/>
+      <c r="FY3" s="76"/>
+      <c r="FZ3" s="76"/>
+      <c r="GA3" s="76"/>
+      <c r="GB3" s="76"/>
+      <c r="GC3" s="76"/>
+      <c r="GD3" s="76"/>
+      <c r="GE3" s="76"/>
+      <c r="GF3" s="76"/>
+      <c r="GG3" s="76"/>
+      <c r="GH3" s="76"/>
+      <c r="GI3" s="76"/>
+      <c r="GJ3" s="76"/>
+      <c r="GK3" s="76"/>
+      <c r="GL3" s="76"/>
+      <c r="GM3" s="76"/>
+      <c r="GN3" s="76"/>
+      <c r="GO3" s="76"/>
+      <c r="GP3" s="76"/>
+      <c r="GQ3" s="76"/>
+      <c r="GR3" s="76"/>
+      <c r="GS3" s="76"/>
+      <c r="GT3" s="76"/>
+      <c r="GU3" s="76"/>
+      <c r="GV3" s="76"/>
+      <c r="GW3" s="76"/>
+      <c r="GX3" s="76"/>
+      <c r="GY3" s="76"/>
+      <c r="GZ3" s="76"/>
+      <c r="HA3" s="76"/>
+      <c r="HB3" s="76"/>
+      <c r="HC3" s="76"/>
+      <c r="HD3" s="76"/>
+      <c r="HE3" s="76"/>
+      <c r="HF3" s="76"/>
+      <c r="HG3" s="76"/>
+      <c r="HH3" s="76"/>
+      <c r="HI3" s="76"/>
+      <c r="HJ3" s="76"/>
+      <c r="HK3" s="76"/>
+      <c r="HL3" s="76"/>
+      <c r="HM3" s="76"/>
+      <c r="HN3" s="76"/>
+      <c r="HO3" s="76"/>
+      <c r="HP3" s="76"/>
+      <c r="HQ3" s="76"/>
+      <c r="HR3" s="76"/>
+      <c r="HS3" s="76"/>
+      <c r="HT3" s="76"/>
+      <c r="HU3" s="76"/>
+      <c r="HV3" s="76"/>
+      <c r="HW3" s="76"/>
+      <c r="HX3" s="76"/>
+      <c r="HY3" s="76"/>
+      <c r="HZ3" s="76"/>
+      <c r="IA3" s="76"/>
+      <c r="IB3" s="76"/>
+      <c r="IC3" s="76"/>
+      <c r="ID3" s="76"/>
+      <c r="IE3" s="76"/>
+      <c r="IF3" s="76"/>
+      <c r="IG3" s="76"/>
+      <c r="IH3" s="76"/>
+      <c r="II3" s="76"/>
+      <c r="IJ3" s="76"/>
+      <c r="IK3" s="76"/>
+      <c r="IL3" s="76"/>
+      <c r="IM3" s="76"/>
+      <c r="IN3" s="76"/>
+      <c r="IO3" s="76"/>
+      <c r="IP3" s="76"/>
+      <c r="IQ3" s="76"/>
+      <c r="IR3" s="76"/>
+      <c r="IS3" s="76"/>
+      <c r="IT3" s="76"/>
+      <c r="IU3" s="76"/>
+      <c r="IV3" s="76"/>
+      <c r="IW3" s="76"/>
+      <c r="IX3" s="76"/>
+      <c r="IY3" s="76"/>
+      <c r="IZ3" s="76"/>
+      <c r="JA3" s="76"/>
+      <c r="JB3" s="76"/>
+      <c r="JC3" s="76"/>
+      <c r="JD3" s="76"/>
+      <c r="JE3" s="76"/>
+      <c r="JF3" s="76"/>
+      <c r="JG3" s="76"/>
+      <c r="JH3" s="76"/>
+      <c r="JI3" s="76"/>
+      <c r="JJ3" s="76"/>
+      <c r="JK3" s="76"/>
+      <c r="JL3" s="76"/>
+      <c r="JM3" s="76"/>
+      <c r="JN3" s="76"/>
+      <c r="JO3" s="76"/>
+      <c r="JP3" s="76"/>
+      <c r="JQ3" s="76"/>
+      <c r="JR3" s="76"/>
+      <c r="JS3" s="76"/>
+      <c r="JT3" s="76"/>
+      <c r="JU3" s="76"/>
+      <c r="JV3" s="76"/>
+      <c r="JW3" s="76"/>
+      <c r="JX3" s="76"/>
+      <c r="JY3" s="76"/>
+      <c r="JZ3" s="76"/>
+      <c r="KA3" s="76"/>
+      <c r="KB3" s="76"/>
+      <c r="KC3" s="76"/>
+      <c r="KD3" s="76"/>
+      <c r="KE3" s="76"/>
+      <c r="KF3" s="76"/>
+      <c r="KG3" s="76"/>
+      <c r="KH3" s="76"/>
+      <c r="KI3" s="76"/>
+      <c r="KJ3" s="76"/>
+      <c r="KK3" s="76"/>
+      <c r="KL3" s="76"/>
+      <c r="KM3" s="76"/>
+      <c r="KN3" s="76"/>
+      <c r="KO3" s="76"/>
+      <c r="KP3" s="76"/>
+      <c r="KQ3" s="76"/>
+      <c r="KR3" s="76"/>
+      <c r="KS3" s="76"/>
+      <c r="KT3" s="76"/>
+      <c r="KU3" s="76"/>
+      <c r="KV3" s="76"/>
+      <c r="KW3" s="76"/>
+      <c r="KX3" s="76"/>
+      <c r="KY3" s="76"/>
+      <c r="KZ3" s="76"/>
+      <c r="LA3" s="76"/>
+      <c r="LB3" s="76"/>
+      <c r="LC3" s="76"/>
+      <c r="LD3" s="76"/>
+      <c r="LE3" s="76"/>
+      <c r="LF3" s="76"/>
+      <c r="LG3" s="76"/>
+      <c r="LH3" s="76"/>
+      <c r="LI3" s="76"/>
+      <c r="LJ3" s="76"/>
+      <c r="LK3" s="76"/>
+      <c r="LL3" s="76"/>
+      <c r="LM3" s="76"/>
+      <c r="LN3" s="76"/>
+      <c r="LO3" s="76"/>
+      <c r="LP3" s="76"/>
+      <c r="LQ3" s="76"/>
+      <c r="LR3" s="76"/>
+      <c r="LS3" s="76"/>
+      <c r="LT3" s="76"/>
+      <c r="LU3" s="76"/>
+      <c r="LV3" s="76"/>
+      <c r="LW3" s="76"/>
+      <c r="LX3" s="76"/>
+      <c r="LY3" s="76"/>
+      <c r="LZ3" s="76"/>
+      <c r="MA3" s="76"/>
+      <c r="MB3" s="76"/>
+      <c r="MC3" s="76"/>
+      <c r="MD3" s="76"/>
+      <c r="ME3" s="76"/>
+      <c r="MF3" s="76"/>
+      <c r="MG3" s="76"/>
+      <c r="MH3" s="76"/>
+      <c r="MI3" s="76"/>
+      <c r="MJ3" s="76"/>
+      <c r="MK3" s="76"/>
+      <c r="ML3" s="76"/>
+      <c r="MM3" s="76"/>
+      <c r="MN3" s="76"/>
+      <c r="MO3" s="76"/>
+      <c r="MP3" s="76"/>
+      <c r="MQ3" s="76"/>
+      <c r="MR3" s="76"/>
+      <c r="MS3" s="76"/>
+      <c r="MT3" s="76"/>
+      <c r="MU3" s="76"/>
+      <c r="MV3" s="76"/>
+      <c r="MW3" s="76"/>
+      <c r="MX3" s="76"/>
+      <c r="MY3" s="76"/>
+      <c r="MZ3" s="76"/>
+      <c r="NA3" s="76"/>
+      <c r="NB3" s="76"/>
+      <c r="NC3" s="76"/>
+      <c r="ND3" s="76"/>
+      <c r="NE3" s="76"/>
+      <c r="NF3" s="76"/>
+      <c r="NG3" s="76"/>
+      <c r="NH3" s="76"/>
+      <c r="NI3" s="76"/>
+      <c r="NJ3" s="77"/>
     </row>
     <row r="4" spans="1:375" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
@@ -4880,370 +4678,370 @@
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
       <c r="J4" s="45"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
-      <c r="BF4" s="60"/>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="60"/>
-      <c r="BI4" s="60"/>
-      <c r="BJ4" s="60"/>
-      <c r="BK4" s="60"/>
-      <c r="BL4" s="60"/>
-      <c r="BM4" s="60"/>
-      <c r="BN4" s="60"/>
-      <c r="BO4" s="60"/>
-      <c r="BP4" s="60"/>
-      <c r="BQ4" s="60"/>
-      <c r="BR4" s="60"/>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="60"/>
-      <c r="BU4" s="60"/>
-      <c r="BV4" s="60"/>
-      <c r="BW4" s="60"/>
-      <c r="BX4" s="60"/>
-      <c r="BY4" s="60"/>
-      <c r="BZ4" s="60"/>
-      <c r="CA4" s="60"/>
-      <c r="CB4" s="60"/>
-      <c r="CC4" s="60"/>
-      <c r="CD4" s="60"/>
-      <c r="CE4" s="60"/>
-      <c r="CF4" s="60"/>
-      <c r="CG4" s="60"/>
-      <c r="CH4" s="60"/>
-      <c r="CI4" s="60"/>
-      <c r="CJ4" s="60"/>
-      <c r="CK4" s="60"/>
-      <c r="CL4" s="60"/>
-      <c r="CM4" s="60"/>
-      <c r="CN4" s="60"/>
-      <c r="CO4" s="60"/>
-      <c r="CP4" s="60"/>
-      <c r="CQ4" s="60"/>
-      <c r="CR4" s="60"/>
-      <c r="CS4" s="60"/>
-      <c r="CT4" s="60"/>
-      <c r="CU4" s="60"/>
-      <c r="CV4" s="60"/>
-      <c r="CW4" s="60"/>
-      <c r="CX4" s="60"/>
-      <c r="CY4" s="60"/>
-      <c r="CZ4" s="60"/>
-      <c r="DA4" s="60"/>
-      <c r="DB4" s="60"/>
-      <c r="DC4" s="60"/>
-      <c r="DD4" s="60"/>
-      <c r="DE4" s="60"/>
-      <c r="DF4" s="60"/>
-      <c r="DG4" s="60"/>
-      <c r="DH4" s="60"/>
-      <c r="DI4" s="60"/>
-      <c r="DJ4" s="60"/>
-      <c r="DK4" s="60"/>
-      <c r="DL4" s="60"/>
-      <c r="DM4" s="60"/>
-      <c r="DN4" s="60"/>
-      <c r="DO4" s="60"/>
-      <c r="DP4" s="60"/>
-      <c r="DQ4" s="60"/>
-      <c r="DR4" s="60"/>
-      <c r="DS4" s="60"/>
-      <c r="DT4" s="60"/>
-      <c r="DU4" s="60"/>
-      <c r="DV4" s="60"/>
-      <c r="DW4" s="60"/>
-      <c r="DX4" s="60"/>
-      <c r="DY4" s="60"/>
-      <c r="DZ4" s="60"/>
-      <c r="EA4" s="60"/>
-      <c r="EB4" s="60"/>
-      <c r="EC4" s="60"/>
-      <c r="ED4" s="60"/>
-      <c r="EE4" s="60"/>
-      <c r="EF4" s="60"/>
-      <c r="EG4" s="60"/>
-      <c r="EH4" s="60"/>
-      <c r="EI4" s="60"/>
-      <c r="EJ4" s="60"/>
-      <c r="EK4" s="60"/>
-      <c r="EL4" s="60"/>
-      <c r="EM4" s="60"/>
-      <c r="EN4" s="60"/>
-      <c r="EO4" s="60"/>
-      <c r="EP4" s="60"/>
-      <c r="EQ4" s="60"/>
-      <c r="ER4" s="60"/>
-      <c r="ES4" s="60"/>
-      <c r="ET4" s="60"/>
-      <c r="EU4" s="60"/>
-      <c r="EV4" s="60"/>
-      <c r="EW4" s="60"/>
-      <c r="EX4" s="60"/>
-      <c r="EY4" s="60"/>
-      <c r="EZ4" s="60"/>
-      <c r="FA4" s="60"/>
-      <c r="FB4" s="60"/>
-      <c r="FC4" s="60"/>
-      <c r="FD4" s="60"/>
-      <c r="FE4" s="60"/>
-      <c r="FF4" s="60"/>
-      <c r="FG4" s="60"/>
-      <c r="FH4" s="60"/>
-      <c r="FI4" s="60"/>
-      <c r="FJ4" s="60"/>
-      <c r="FK4" s="60"/>
-      <c r="FL4" s="60"/>
-      <c r="FM4" s="60"/>
-      <c r="FN4" s="60"/>
-      <c r="FO4" s="60"/>
-      <c r="FP4" s="60"/>
-      <c r="FQ4" s="60"/>
-      <c r="FR4" s="60"/>
-      <c r="FS4" s="60"/>
-      <c r="FT4" s="60"/>
-      <c r="FU4" s="60"/>
-      <c r="FV4" s="60"/>
-      <c r="FW4" s="60"/>
-      <c r="FX4" s="60"/>
-      <c r="FY4" s="60"/>
-      <c r="FZ4" s="60"/>
-      <c r="GA4" s="60"/>
-      <c r="GB4" s="60"/>
-      <c r="GC4" s="60"/>
-      <c r="GD4" s="60"/>
-      <c r="GE4" s="60"/>
-      <c r="GF4" s="60"/>
-      <c r="GG4" s="60"/>
-      <c r="GH4" s="60"/>
-      <c r="GI4" s="60"/>
-      <c r="GJ4" s="60"/>
-      <c r="GK4" s="60"/>
-      <c r="GL4" s="60"/>
-      <c r="GM4" s="60"/>
-      <c r="GN4" s="60"/>
-      <c r="GO4" s="60"/>
-      <c r="GP4" s="60"/>
-      <c r="GQ4" s="60"/>
-      <c r="GR4" s="60"/>
-      <c r="GS4" s="60"/>
-      <c r="GT4" s="60"/>
-      <c r="GU4" s="60"/>
-      <c r="GV4" s="60"/>
-      <c r="GW4" s="60"/>
-      <c r="GX4" s="60"/>
-      <c r="GY4" s="60"/>
-      <c r="GZ4" s="60"/>
-      <c r="HA4" s="60"/>
-      <c r="HB4" s="60"/>
-      <c r="HC4" s="60"/>
-      <c r="HD4" s="60"/>
-      <c r="HE4" s="60"/>
-      <c r="HF4" s="60"/>
-      <c r="HG4" s="60"/>
-      <c r="HH4" s="60"/>
-      <c r="HI4" s="60"/>
-      <c r="HJ4" s="60"/>
-      <c r="HK4" s="60"/>
-      <c r="HL4" s="60"/>
-      <c r="HM4" s="60"/>
-      <c r="HN4" s="60"/>
-      <c r="HO4" s="60"/>
-      <c r="HP4" s="60"/>
-      <c r="HQ4" s="60"/>
-      <c r="HR4" s="60"/>
-      <c r="HS4" s="60"/>
-      <c r="HT4" s="60"/>
-      <c r="HU4" s="60"/>
-      <c r="HV4" s="60"/>
-      <c r="HW4" s="60"/>
-      <c r="HX4" s="60"/>
-      <c r="HY4" s="60"/>
-      <c r="HZ4" s="60"/>
-      <c r="IA4" s="60"/>
-      <c r="IB4" s="60"/>
-      <c r="IC4" s="60"/>
-      <c r="ID4" s="60"/>
-      <c r="IE4" s="60"/>
-      <c r="IF4" s="60"/>
-      <c r="IG4" s="60"/>
-      <c r="IH4" s="60"/>
-      <c r="II4" s="60"/>
-      <c r="IJ4" s="60"/>
-      <c r="IK4" s="60"/>
-      <c r="IL4" s="60"/>
-      <c r="IM4" s="60"/>
-      <c r="IN4" s="60"/>
-      <c r="IO4" s="60"/>
-      <c r="IP4" s="60"/>
-      <c r="IQ4" s="60"/>
-      <c r="IR4" s="60"/>
-      <c r="IS4" s="60"/>
-      <c r="IT4" s="60"/>
-      <c r="IU4" s="60"/>
-      <c r="IV4" s="60"/>
-      <c r="IW4" s="60"/>
-      <c r="IX4" s="60"/>
-      <c r="IY4" s="60"/>
-      <c r="IZ4" s="60"/>
-      <c r="JA4" s="60"/>
-      <c r="JB4" s="60"/>
-      <c r="JC4" s="60"/>
-      <c r="JD4" s="60"/>
-      <c r="JE4" s="60"/>
-      <c r="JF4" s="60"/>
-      <c r="JG4" s="60"/>
-      <c r="JH4" s="60"/>
-      <c r="JI4" s="60"/>
-      <c r="JJ4" s="60"/>
-      <c r="JK4" s="60"/>
-      <c r="JL4" s="60"/>
-      <c r="JM4" s="60"/>
-      <c r="JN4" s="60"/>
-      <c r="JO4" s="60"/>
-      <c r="JP4" s="60"/>
-      <c r="JQ4" s="60"/>
-      <c r="JR4" s="60"/>
-      <c r="JS4" s="60"/>
-      <c r="JT4" s="60"/>
-      <c r="JU4" s="60"/>
-      <c r="JV4" s="60"/>
-      <c r="JW4" s="60"/>
-      <c r="JX4" s="60"/>
-      <c r="JY4" s="60"/>
-      <c r="JZ4" s="60"/>
-      <c r="KA4" s="60"/>
-      <c r="KB4" s="60"/>
-      <c r="KC4" s="60"/>
-      <c r="KD4" s="60"/>
-      <c r="KE4" s="60"/>
-      <c r="KF4" s="60"/>
-      <c r="KG4" s="60"/>
-      <c r="KH4" s="60"/>
-      <c r="KI4" s="60"/>
-      <c r="KJ4" s="60"/>
-      <c r="KK4" s="60"/>
-      <c r="KL4" s="60"/>
-      <c r="KM4" s="60"/>
-      <c r="KN4" s="60"/>
-      <c r="KO4" s="60"/>
-      <c r="KP4" s="60"/>
-      <c r="KQ4" s="60"/>
-      <c r="KR4" s="60"/>
-      <c r="KS4" s="60"/>
-      <c r="KT4" s="60"/>
-      <c r="KU4" s="60"/>
-      <c r="KV4" s="60"/>
-      <c r="KW4" s="60"/>
-      <c r="KX4" s="60"/>
-      <c r="KY4" s="60"/>
-      <c r="KZ4" s="60"/>
-      <c r="LA4" s="60"/>
-      <c r="LB4" s="60"/>
-      <c r="LC4" s="60"/>
-      <c r="LD4" s="60"/>
-      <c r="LE4" s="60"/>
-      <c r="LF4" s="60"/>
-      <c r="LG4" s="60"/>
-      <c r="LH4" s="60"/>
-      <c r="LI4" s="60"/>
-      <c r="LJ4" s="60"/>
-      <c r="LK4" s="60"/>
-      <c r="LL4" s="60"/>
-      <c r="LM4" s="60"/>
-      <c r="LN4" s="60"/>
-      <c r="LO4" s="60"/>
-      <c r="LP4" s="60"/>
-      <c r="LQ4" s="60"/>
-      <c r="LR4" s="60"/>
-      <c r="LS4" s="60"/>
-      <c r="LT4" s="60"/>
-      <c r="LU4" s="60"/>
-      <c r="LV4" s="60"/>
-      <c r="LW4" s="60"/>
-      <c r="LX4" s="60"/>
-      <c r="LY4" s="60"/>
-      <c r="LZ4" s="60"/>
-      <c r="MA4" s="60"/>
-      <c r="MB4" s="60"/>
-      <c r="MC4" s="60"/>
-      <c r="MD4" s="60"/>
-      <c r="ME4" s="60"/>
-      <c r="MF4" s="60"/>
-      <c r="MG4" s="60"/>
-      <c r="MH4" s="60"/>
-      <c r="MI4" s="60"/>
-      <c r="MJ4" s="60"/>
-      <c r="MK4" s="60"/>
-      <c r="ML4" s="60"/>
-      <c r="MM4" s="60"/>
-      <c r="MN4" s="60"/>
-      <c r="MO4" s="60"/>
-      <c r="MP4" s="60"/>
-      <c r="MQ4" s="60"/>
-      <c r="MR4" s="60"/>
-      <c r="MS4" s="60"/>
-      <c r="MT4" s="60"/>
-      <c r="MU4" s="60"/>
-      <c r="MV4" s="60"/>
-      <c r="MW4" s="60"/>
-      <c r="MX4" s="60"/>
-      <c r="MY4" s="60"/>
-      <c r="MZ4" s="60"/>
-      <c r="NA4" s="60"/>
-      <c r="NB4" s="60"/>
-      <c r="NC4" s="60"/>
-      <c r="ND4" s="60"/>
-      <c r="NE4" s="60"/>
-      <c r="NF4" s="60"/>
-      <c r="NG4" s="60"/>
-      <c r="NH4" s="60"/>
-      <c r="NI4" s="60"/>
-      <c r="NJ4" s="62"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="76"/>
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="76"/>
+      <c r="BO4" s="76"/>
+      <c r="BP4" s="76"/>
+      <c r="BQ4" s="76"/>
+      <c r="BR4" s="76"/>
+      <c r="BS4" s="76"/>
+      <c r="BT4" s="76"/>
+      <c r="BU4" s="76"/>
+      <c r="BV4" s="76"/>
+      <c r="BW4" s="76"/>
+      <c r="BX4" s="76"/>
+      <c r="BY4" s="76"/>
+      <c r="BZ4" s="76"/>
+      <c r="CA4" s="76"/>
+      <c r="CB4" s="76"/>
+      <c r="CC4" s="76"/>
+      <c r="CD4" s="76"/>
+      <c r="CE4" s="76"/>
+      <c r="CF4" s="76"/>
+      <c r="CG4" s="76"/>
+      <c r="CH4" s="76"/>
+      <c r="CI4" s="76"/>
+      <c r="CJ4" s="76"/>
+      <c r="CK4" s="76"/>
+      <c r="CL4" s="76"/>
+      <c r="CM4" s="76"/>
+      <c r="CN4" s="76"/>
+      <c r="CO4" s="76"/>
+      <c r="CP4" s="76"/>
+      <c r="CQ4" s="76"/>
+      <c r="CR4" s="76"/>
+      <c r="CS4" s="76"/>
+      <c r="CT4" s="76"/>
+      <c r="CU4" s="76"/>
+      <c r="CV4" s="76"/>
+      <c r="CW4" s="76"/>
+      <c r="CX4" s="76"/>
+      <c r="CY4" s="76"/>
+      <c r="CZ4" s="76"/>
+      <c r="DA4" s="76"/>
+      <c r="DB4" s="76"/>
+      <c r="DC4" s="76"/>
+      <c r="DD4" s="76"/>
+      <c r="DE4" s="76"/>
+      <c r="DF4" s="76"/>
+      <c r="DG4" s="76"/>
+      <c r="DH4" s="76"/>
+      <c r="DI4" s="76"/>
+      <c r="DJ4" s="76"/>
+      <c r="DK4" s="76"/>
+      <c r="DL4" s="76"/>
+      <c r="DM4" s="76"/>
+      <c r="DN4" s="76"/>
+      <c r="DO4" s="76"/>
+      <c r="DP4" s="76"/>
+      <c r="DQ4" s="76"/>
+      <c r="DR4" s="76"/>
+      <c r="DS4" s="76"/>
+      <c r="DT4" s="76"/>
+      <c r="DU4" s="76"/>
+      <c r="DV4" s="76"/>
+      <c r="DW4" s="76"/>
+      <c r="DX4" s="76"/>
+      <c r="DY4" s="76"/>
+      <c r="DZ4" s="76"/>
+      <c r="EA4" s="76"/>
+      <c r="EB4" s="76"/>
+      <c r="EC4" s="76"/>
+      <c r="ED4" s="76"/>
+      <c r="EE4" s="76"/>
+      <c r="EF4" s="76"/>
+      <c r="EG4" s="76"/>
+      <c r="EH4" s="76"/>
+      <c r="EI4" s="76"/>
+      <c r="EJ4" s="76"/>
+      <c r="EK4" s="76"/>
+      <c r="EL4" s="76"/>
+      <c r="EM4" s="76"/>
+      <c r="EN4" s="76"/>
+      <c r="EO4" s="76"/>
+      <c r="EP4" s="76"/>
+      <c r="EQ4" s="76"/>
+      <c r="ER4" s="76"/>
+      <c r="ES4" s="76"/>
+      <c r="ET4" s="76"/>
+      <c r="EU4" s="76"/>
+      <c r="EV4" s="76"/>
+      <c r="EW4" s="76"/>
+      <c r="EX4" s="76"/>
+      <c r="EY4" s="76"/>
+      <c r="EZ4" s="76"/>
+      <c r="FA4" s="76"/>
+      <c r="FB4" s="76"/>
+      <c r="FC4" s="76"/>
+      <c r="FD4" s="76"/>
+      <c r="FE4" s="76"/>
+      <c r="FF4" s="76"/>
+      <c r="FG4" s="76"/>
+      <c r="FH4" s="76"/>
+      <c r="FI4" s="76"/>
+      <c r="FJ4" s="76"/>
+      <c r="FK4" s="76"/>
+      <c r="FL4" s="76"/>
+      <c r="FM4" s="76"/>
+      <c r="FN4" s="76"/>
+      <c r="FO4" s="76"/>
+      <c r="FP4" s="76"/>
+      <c r="FQ4" s="76"/>
+      <c r="FR4" s="76"/>
+      <c r="FS4" s="76"/>
+      <c r="FT4" s="76"/>
+      <c r="FU4" s="76"/>
+      <c r="FV4" s="76"/>
+      <c r="FW4" s="76"/>
+      <c r="FX4" s="76"/>
+      <c r="FY4" s="76"/>
+      <c r="FZ4" s="76"/>
+      <c r="GA4" s="76"/>
+      <c r="GB4" s="76"/>
+      <c r="GC4" s="76"/>
+      <c r="GD4" s="76"/>
+      <c r="GE4" s="76"/>
+      <c r="GF4" s="76"/>
+      <c r="GG4" s="76"/>
+      <c r="GH4" s="76"/>
+      <c r="GI4" s="76"/>
+      <c r="GJ4" s="76"/>
+      <c r="GK4" s="76"/>
+      <c r="GL4" s="76"/>
+      <c r="GM4" s="76"/>
+      <c r="GN4" s="76"/>
+      <c r="GO4" s="76"/>
+      <c r="GP4" s="76"/>
+      <c r="GQ4" s="76"/>
+      <c r="GR4" s="76"/>
+      <c r="GS4" s="76"/>
+      <c r="GT4" s="76"/>
+      <c r="GU4" s="76"/>
+      <c r="GV4" s="76"/>
+      <c r="GW4" s="76"/>
+      <c r="GX4" s="76"/>
+      <c r="GY4" s="76"/>
+      <c r="GZ4" s="76"/>
+      <c r="HA4" s="76"/>
+      <c r="HB4" s="76"/>
+      <c r="HC4" s="76"/>
+      <c r="HD4" s="76"/>
+      <c r="HE4" s="76"/>
+      <c r="HF4" s="76"/>
+      <c r="HG4" s="76"/>
+      <c r="HH4" s="76"/>
+      <c r="HI4" s="76"/>
+      <c r="HJ4" s="76"/>
+      <c r="HK4" s="76"/>
+      <c r="HL4" s="76"/>
+      <c r="HM4" s="76"/>
+      <c r="HN4" s="76"/>
+      <c r="HO4" s="76"/>
+      <c r="HP4" s="76"/>
+      <c r="HQ4" s="76"/>
+      <c r="HR4" s="76"/>
+      <c r="HS4" s="76"/>
+      <c r="HT4" s="76"/>
+      <c r="HU4" s="76"/>
+      <c r="HV4" s="76"/>
+      <c r="HW4" s="76"/>
+      <c r="HX4" s="76"/>
+      <c r="HY4" s="76"/>
+      <c r="HZ4" s="76"/>
+      <c r="IA4" s="76"/>
+      <c r="IB4" s="76"/>
+      <c r="IC4" s="76"/>
+      <c r="ID4" s="76"/>
+      <c r="IE4" s="76"/>
+      <c r="IF4" s="76"/>
+      <c r="IG4" s="76"/>
+      <c r="IH4" s="76"/>
+      <c r="II4" s="76"/>
+      <c r="IJ4" s="76"/>
+      <c r="IK4" s="76"/>
+      <c r="IL4" s="76"/>
+      <c r="IM4" s="76"/>
+      <c r="IN4" s="76"/>
+      <c r="IO4" s="76"/>
+      <c r="IP4" s="76"/>
+      <c r="IQ4" s="76"/>
+      <c r="IR4" s="76"/>
+      <c r="IS4" s="76"/>
+      <c r="IT4" s="76"/>
+      <c r="IU4" s="76"/>
+      <c r="IV4" s="76"/>
+      <c r="IW4" s="76"/>
+      <c r="IX4" s="76"/>
+      <c r="IY4" s="76"/>
+      <c r="IZ4" s="76"/>
+      <c r="JA4" s="76"/>
+      <c r="JB4" s="76"/>
+      <c r="JC4" s="76"/>
+      <c r="JD4" s="76"/>
+      <c r="JE4" s="76"/>
+      <c r="JF4" s="76"/>
+      <c r="JG4" s="76"/>
+      <c r="JH4" s="76"/>
+      <c r="JI4" s="76"/>
+      <c r="JJ4" s="76"/>
+      <c r="JK4" s="76"/>
+      <c r="JL4" s="76"/>
+      <c r="JM4" s="76"/>
+      <c r="JN4" s="76"/>
+      <c r="JO4" s="76"/>
+      <c r="JP4" s="76"/>
+      <c r="JQ4" s="76"/>
+      <c r="JR4" s="76"/>
+      <c r="JS4" s="76"/>
+      <c r="JT4" s="76"/>
+      <c r="JU4" s="76"/>
+      <c r="JV4" s="76"/>
+      <c r="JW4" s="76"/>
+      <c r="JX4" s="76"/>
+      <c r="JY4" s="76"/>
+      <c r="JZ4" s="76"/>
+      <c r="KA4" s="76"/>
+      <c r="KB4" s="76"/>
+      <c r="KC4" s="76"/>
+      <c r="KD4" s="76"/>
+      <c r="KE4" s="76"/>
+      <c r="KF4" s="76"/>
+      <c r="KG4" s="76"/>
+      <c r="KH4" s="76"/>
+      <c r="KI4" s="76"/>
+      <c r="KJ4" s="76"/>
+      <c r="KK4" s="76"/>
+      <c r="KL4" s="76"/>
+      <c r="KM4" s="76"/>
+      <c r="KN4" s="76"/>
+      <c r="KO4" s="76"/>
+      <c r="KP4" s="76"/>
+      <c r="KQ4" s="76"/>
+      <c r="KR4" s="76"/>
+      <c r="KS4" s="76"/>
+      <c r="KT4" s="76"/>
+      <c r="KU4" s="76"/>
+      <c r="KV4" s="76"/>
+      <c r="KW4" s="76"/>
+      <c r="KX4" s="76"/>
+      <c r="KY4" s="76"/>
+      <c r="KZ4" s="76"/>
+      <c r="LA4" s="76"/>
+      <c r="LB4" s="76"/>
+      <c r="LC4" s="76"/>
+      <c r="LD4" s="76"/>
+      <c r="LE4" s="76"/>
+      <c r="LF4" s="76"/>
+      <c r="LG4" s="76"/>
+      <c r="LH4" s="76"/>
+      <c r="LI4" s="76"/>
+      <c r="LJ4" s="76"/>
+      <c r="LK4" s="76"/>
+      <c r="LL4" s="76"/>
+      <c r="LM4" s="76"/>
+      <c r="LN4" s="76"/>
+      <c r="LO4" s="76"/>
+      <c r="LP4" s="76"/>
+      <c r="LQ4" s="76"/>
+      <c r="LR4" s="76"/>
+      <c r="LS4" s="76"/>
+      <c r="LT4" s="76"/>
+      <c r="LU4" s="76"/>
+      <c r="LV4" s="76"/>
+      <c r="LW4" s="76"/>
+      <c r="LX4" s="76"/>
+      <c r="LY4" s="76"/>
+      <c r="LZ4" s="76"/>
+      <c r="MA4" s="76"/>
+      <c r="MB4" s="76"/>
+      <c r="MC4" s="76"/>
+      <c r="MD4" s="76"/>
+      <c r="ME4" s="76"/>
+      <c r="MF4" s="76"/>
+      <c r="MG4" s="76"/>
+      <c r="MH4" s="76"/>
+      <c r="MI4" s="76"/>
+      <c r="MJ4" s="76"/>
+      <c r="MK4" s="76"/>
+      <c r="ML4" s="76"/>
+      <c r="MM4" s="76"/>
+      <c r="MN4" s="76"/>
+      <c r="MO4" s="76"/>
+      <c r="MP4" s="76"/>
+      <c r="MQ4" s="76"/>
+      <c r="MR4" s="76"/>
+      <c r="MS4" s="76"/>
+      <c r="MT4" s="76"/>
+      <c r="MU4" s="76"/>
+      <c r="MV4" s="76"/>
+      <c r="MW4" s="76"/>
+      <c r="MX4" s="76"/>
+      <c r="MY4" s="76"/>
+      <c r="MZ4" s="76"/>
+      <c r="NA4" s="76"/>
+      <c r="NB4" s="76"/>
+      <c r="NC4" s="76"/>
+      <c r="ND4" s="76"/>
+      <c r="NE4" s="76"/>
+      <c r="NF4" s="76"/>
+      <c r="NG4" s="76"/>
+      <c r="NH4" s="76"/>
+      <c r="NI4" s="76"/>
+      <c r="NJ4" s="77"/>
     </row>
     <row r="5" spans="1:375" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
@@ -6753,15 +6551,15 @@
         <v>10</v>
       </c>
       <c r="H6" s="32">
-        <f ca="1">IF(ISBLANK(A6),"",IF(OR(ISBLANK(D6),ISBLANK(E6)),0,IF(Today&lt;D6,0,NETWORKDAYS(D6,IF(ISBLANK(F6),Today-1,F6)))))</f>
+        <f t="shared" ref="H6:H18" ca="1" si="12">IF(ISBLANK(A6),"",IF(OR(ISBLANK(D6),ISBLANK(E6)),0,IF(Today&lt;D6,0,NETWORKDAYS(D6,IF(ISBLANK(F6),Today-1,F6)))))</f>
         <v>0</v>
       </c>
       <c r="I6" s="32">
-        <f ca="1">IF(ISBLANK(A6),"",IF(OR(ISBLANK(D6),ISBLANK(E6)),0,IF(OR(Today&gt;E6,NOT(ISBLANK(F6))),0,IF(Today&lt;D6,NETWORKDAYS(D6,E6),NETWORKDAYS(Today,E6)))))</f>
+        <f t="shared" ref="I6:I18" ca="1" si="13">IF(ISBLANK(A6),"",IF(OR(ISBLANK(D6),ISBLANK(E6)),0,IF(OR(Today&gt;E6,NOT(ISBLANK(F6))),0,IF(Today&lt;D6,NETWORKDAYS(D6,E6),NETWORKDAYS(Today,E6)))))</f>
         <v>10</v>
       </c>
       <c r="J6" s="31">
-        <f>IF(ISBLANK(A6),"",IF(NOT(ISBLANK(F6)),IF(F6&gt;E6,F6-E6,0),0))</f>
+        <f t="shared" ref="J6:J18" si="14">IF(ISBLANK(A6),"",IF(NOT(ISBLANK(F6)),IF(F6&gt;E6,F6-E6,0),0))</f>
         <v>0</v>
       </c>
       <c r="K6" s="30"/>
@@ -7148,19 +6946,19 @@
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="22">
-        <f t="shared" ref="G7:G8" si="12">IF(ISBLANK(A7),"",IF(OR(ISBLANK(D7),ISBLANK(E7)),0,NETWORKDAYS(D7,E7)))</f>
+        <f t="shared" ref="G7:G8" si="15">IF(ISBLANK(A7),"",IF(OR(ISBLANK(D7),ISBLANK(E7)),0,NETWORKDAYS(D7,E7)))</f>
         <v>5</v>
       </c>
       <c r="H7" s="23">
-        <f ca="1">IF(ISBLANK(A7),"",IF(OR(ISBLANK(D7),ISBLANK(E7)),0,IF(Today&lt;D7,0,NETWORKDAYS(D7,IF(ISBLANK(F7),Today-1,F7)))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="I7" s="23">
-        <f ca="1">IF(ISBLANK(A7),"",IF(OR(ISBLANK(D7),ISBLANK(E7)),0,IF(OR(Today&gt;E7,NOT(ISBLANK(F7))),0,IF(Today&lt;D7,NETWORKDAYS(D7,E7),NETWORKDAYS(Today,E7)))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>5</v>
       </c>
       <c r="J7" s="22">
-        <f>IF(ISBLANK(A7),"",IF(NOT(ISBLANK(F7)),IF(F7&gt;E7,F7-E7,0),0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K7" s="21"/>
@@ -7547,19 +7345,19 @@
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="H8" s="23">
-        <f ca="1">IF(ISBLANK(A8),"",IF(OR(ISBLANK(D8),ISBLANK(E8)),0,IF(Today&lt;D8,0,NETWORKDAYS(D8,IF(ISBLANK(F8),Today-1,F8)))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="I8" s="23">
-        <f ca="1">IF(ISBLANK(A8),"",IF(OR(ISBLANK(D8),ISBLANK(E8)),0,IF(OR(Today&gt;E8,NOT(ISBLANK(F8))),0,IF(Today&lt;D8,NETWORKDAYS(D8,E8),NETWORKDAYS(Today,E8)))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>5</v>
       </c>
       <c r="J8" s="22">
-        <f>IF(ISBLANK(A8),"",IF(NOT(ISBLANK(F8)),IF(F8&gt;E8,F8-E8,0),0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K8" s="21"/>
@@ -7946,19 +7744,19 @@
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="22">
-        <f t="shared" ref="G9" si="13">IF(ISBLANK(A9),"",IF(OR(ISBLANK(D9),ISBLANK(E9)),0,NETWORKDAYS(D9,E9)))</f>
+        <f t="shared" ref="G9" si="16">IF(ISBLANK(A9),"",IF(OR(ISBLANK(D9),ISBLANK(E9)),0,NETWORKDAYS(D9,E9)))</f>
         <v>5</v>
       </c>
       <c r="H9" s="23">
-        <f ca="1">IF(ISBLANK(A9),"",IF(OR(ISBLANK(D9),ISBLANK(E9)),0,IF(Today&lt;D9,0,NETWORKDAYS(D9,IF(ISBLANK(F9),Today-1,F9)))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="I9" s="23">
-        <f ca="1">IF(ISBLANK(A9),"",IF(OR(ISBLANK(D9),ISBLANK(E9)),0,IF(OR(Today&gt;E9,NOT(ISBLANK(F9))),0,IF(Today&lt;D9,NETWORKDAYS(D9,E9),NETWORKDAYS(Today,E9)))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>5</v>
       </c>
       <c r="J9" s="22">
-        <f>IF(ISBLANK(A9),"",IF(NOT(ISBLANK(F9)),IF(F9&gt;E9,F9-E9,0),0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K9" s="21"/>
@@ -8343,19 +8141,19 @@
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="22">
-        <f>IF(ISBLANK(A10),"",IF(OR(ISBLANK(D10),ISBLANK(E10)),0,NETWORKDAYS(D10,E10)))</f>
+        <f t="shared" ref="G10:G18" si="17">IF(ISBLANK(A10),"",IF(OR(ISBLANK(D10),ISBLANK(E10)),0,NETWORKDAYS(D10,E10)))</f>
         <v>15</v>
       </c>
       <c r="H10" s="23">
-        <f ca="1">IF(ISBLANK(A10),"",IF(OR(ISBLANK(D10),ISBLANK(E10)),0,IF(Today&lt;D10,0,NETWORKDAYS(D10,IF(ISBLANK(F10),Today-1,F10)))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="I10" s="23">
-        <f ca="1">IF(ISBLANK(A10),"",IF(OR(ISBLANK(D10),ISBLANK(E10)),0,IF(OR(Today&gt;E10,NOT(ISBLANK(F10))),0,IF(Today&lt;D10,NETWORKDAYS(D10,E10),NETWORKDAYS(Today,E10)))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>15</v>
       </c>
       <c r="J10" s="22">
-        <f>IF(ISBLANK(A10),"",IF(NOT(ISBLANK(F10)),IF(F10&gt;E10,F10-E10,0),0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K10" s="21"/>
@@ -8742,19 +8540,19 @@
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="22">
-        <f>IF(ISBLANK(A11),"",IF(OR(ISBLANK(D11),ISBLANK(E11)),0,NETWORKDAYS(D11,E11)))</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="H11" s="23">
-        <f ca="1">IF(ISBLANK(A11),"",IF(OR(ISBLANK(D11),ISBLANK(E11)),0,IF(Today&lt;D11,0,NETWORKDAYS(D11,IF(ISBLANK(F11),Today-1,F11)))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="I11" s="23">
-        <f ca="1">IF(ISBLANK(A11),"",IF(OR(ISBLANK(D11),ISBLANK(E11)),0,IF(OR(Today&gt;E11,NOT(ISBLANK(F11))),0,IF(Today&lt;D11,NETWORKDAYS(D11,E11),NETWORKDAYS(Today,E11)))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>10</v>
       </c>
       <c r="J11" s="22">
-        <f>IF(ISBLANK(A11),"",IF(NOT(ISBLANK(F11)),IF(F11&gt;E11,F11-E11,0),0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K11" s="21"/>
@@ -9141,19 +8939,19 @@
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="22">
-        <f>IF(ISBLANK(A12),"",IF(OR(ISBLANK(D12),ISBLANK(E12)),0,NETWORKDAYS(D12,E12)))</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="H12" s="23">
-        <f ca="1">IF(ISBLANK(A12),"",IF(OR(ISBLANK(D12),ISBLANK(E12)),0,IF(Today&lt;D12,0,NETWORKDAYS(D12,IF(ISBLANK(F12),Today-1,F12)))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="I12" s="23">
-        <f ca="1">IF(ISBLANK(A12),"",IF(OR(ISBLANK(D12),ISBLANK(E12)),0,IF(OR(Today&gt;E12,NOT(ISBLANK(F12))),0,IF(Today&lt;D12,NETWORKDAYS(D12,E12),NETWORKDAYS(Today,E12)))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>5</v>
       </c>
       <c r="J12" s="22">
-        <f>IF(ISBLANK(A12),"",IF(NOT(ISBLANK(F12)),IF(F12&gt;E12,F12-E12,0),0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K12" s="21"/>
@@ -9526,10 +9324,10 @@
       <c r="A13" s="26">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="60" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="24">
@@ -9540,19 +9338,19 @@
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="22">
-        <f>IF(ISBLANK(A13),"",IF(OR(ISBLANK(D13),ISBLANK(E13)),0,NETWORKDAYS(D13,E13)))</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="H13" s="23">
-        <f ca="1">IF(ISBLANK(A13),"",IF(OR(ISBLANK(D13),ISBLANK(E13)),0,IF(Today&lt;D13,0,NETWORKDAYS(D13,IF(ISBLANK(F13),Today-1,F13)))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="I13" s="23">
-        <f ca="1">IF(ISBLANK(A13),"",IF(OR(ISBLANK(D13),ISBLANK(E13)),0,IF(OR(Today&gt;E13,NOT(ISBLANK(F13))),0,IF(Today&lt;D13,NETWORKDAYS(D13,E13),NETWORKDAYS(Today,E13)))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>5</v>
       </c>
       <c r="J13" s="22">
-        <f>IF(ISBLANK(A13),"",IF(NOT(ISBLANK(F13)),IF(F13&gt;E13,F13-E13,0),0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K13" s="21"/>
@@ -9925,10 +9723,10 @@
       <c r="A14" s="26">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="60" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="24">
@@ -9939,19 +9737,19 @@
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="22">
-        <f>IF(ISBLANK(A14),"",IF(OR(ISBLANK(D14),ISBLANK(E14)),0,NETWORKDAYS(D14,E14)))</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="H14" s="23">
-        <f ca="1">IF(ISBLANK(A14),"",IF(OR(ISBLANK(D14),ISBLANK(E14)),0,IF(Today&lt;D14,0,NETWORKDAYS(D14,IF(ISBLANK(F14),Today-1,F14)))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="I14" s="23">
-        <f ca="1">IF(ISBLANK(A14),"",IF(OR(ISBLANK(D14),ISBLANK(E14)),0,IF(OR(Today&gt;E14,NOT(ISBLANK(F14))),0,IF(Today&lt;D14,NETWORKDAYS(D14,E14),NETWORKDAYS(Today,E14)))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>10</v>
       </c>
       <c r="J14" s="22">
-        <f>IF(ISBLANK(A14),"",IF(NOT(ISBLANK(F14)),IF(F14&gt;E14,F14-E14,0),0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K14" s="21"/>
@@ -10324,10 +10122,10 @@
       <c r="A15" s="26">
         <v>2.4</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="60" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="24">
@@ -10338,19 +10136,19 @@
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="22">
-        <f>IF(ISBLANK(A15),"",IF(OR(ISBLANK(D15),ISBLANK(E15)),0,NETWORKDAYS(D15,E15)))</f>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="H15" s="23">
-        <f ca="1">IF(ISBLANK(A15),"",IF(OR(ISBLANK(D15),ISBLANK(E15)),0,IF(Today&lt;D15,0,NETWORKDAYS(D15,IF(ISBLANK(F15),Today-1,F15)))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="I15" s="23">
-        <f ca="1">IF(ISBLANK(A15),"",IF(OR(ISBLANK(D15),ISBLANK(E15)),0,IF(OR(Today&gt;E15,NOT(ISBLANK(F15))),0,IF(Today&lt;D15,NETWORKDAYS(D15,E15),NETWORKDAYS(Today,E15)))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>22</v>
       </c>
       <c r="J15" s="22">
-        <f>IF(ISBLANK(A15),"",IF(NOT(ISBLANK(F15)),IF(F15&gt;E15,F15-E15,0),0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K15" s="21"/>
@@ -10737,19 +10535,19 @@
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="22">
-        <f>IF(ISBLANK(A16),"",IF(OR(ISBLANK(D16),ISBLANK(E16)),0,NETWORKDAYS(D16,E16)))</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="H16" s="23">
-        <f ca="1">IF(ISBLANK(A16),"",IF(OR(ISBLANK(D16),ISBLANK(E16)),0,IF(Today&lt;D16,0,NETWORKDAYS(D16,IF(ISBLANK(F16),Today-1,F16)))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="I16" s="23">
-        <f ca="1">IF(ISBLANK(A16),"",IF(OR(ISBLANK(D16),ISBLANK(E16)),0,IF(OR(Today&gt;E16,NOT(ISBLANK(F16))),0,IF(Today&lt;D16,NETWORKDAYS(D16,E16),NETWORKDAYS(Today,E16)))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>5</v>
       </c>
       <c r="J16" s="22">
-        <f>IF(ISBLANK(A16),"",IF(NOT(ISBLANK(F16)),IF(F16&gt;E16,F16-E16,0),0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K16" s="21"/>
@@ -11134,19 +10932,19 @@
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="22">
-        <f>IF(ISBLANK(A17),"",IF(OR(ISBLANK(D17),ISBLANK(E17)),0,NETWORKDAYS(D17,E17)))</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="H17" s="23">
-        <f ca="1">IF(ISBLANK(A17),"",IF(OR(ISBLANK(D17),ISBLANK(E17)),0,IF(Today&lt;D17,0,NETWORKDAYS(D17,IF(ISBLANK(F17),Today-1,F17)))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="I17" s="23">
-        <f ca="1">IF(ISBLANK(A17),"",IF(OR(ISBLANK(D17),ISBLANK(E17)),0,IF(OR(Today&gt;E17,NOT(ISBLANK(F17))),0,IF(Today&lt;D17,NETWORKDAYS(D17,E17),NETWORKDAYS(Today,E17)))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>20</v>
       </c>
       <c r="J17" s="22">
-        <f>IF(ISBLANK(A17),"",IF(NOT(ISBLANK(F17)),IF(F17&gt;E17,F17-E17,0),0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K17" s="21"/>
@@ -11531,19 +11329,19 @@
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="22">
-        <f>IF(ISBLANK(A18),"",IF(OR(ISBLANK(D18),ISBLANK(E18)),0,NETWORKDAYS(D18,E18)))</f>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="H18" s="23">
-        <f ca="1">IF(ISBLANK(A18),"",IF(OR(ISBLANK(D18),ISBLANK(E18)),0,IF(Today&lt;D18,0,NETWORKDAYS(D18,IF(ISBLANK(F18),Today-1,F18)))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="I18" s="23">
-        <f ca="1">IF(ISBLANK(A18),"",IF(OR(ISBLANK(D18),ISBLANK(E18)),0,IF(OR(Today&gt;E18,NOT(ISBLANK(F18))),0,IF(Today&lt;D18,NETWORKDAYS(D18,E18),NETWORKDAYS(Today,E18)))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>21</v>
       </c>
       <c r="J18" s="22">
-        <f>IF(ISBLANK(A18),"",IF(NOT(ISBLANK(F18)),IF(F18&gt;E18,F18-E18,0),0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K18" s="21"/>
@@ -12292,10 +12090,10 @@
       <c r="NK19" s="18"/>
     </row>
     <row r="20" spans="1:375" x14ac:dyDescent="0.2">
-      <c r="A20" s="66">
+      <c r="A20" s="63">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="64" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="25"/>
@@ -12307,19 +12105,19 @@
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="22">
-        <f>IF(ISBLANK(A20),"",IF(OR(ISBLANK(D20),ISBLANK(E20)),0,NETWORKDAYS(D20,E20)))</f>
+        <f t="shared" ref="G20:G25" si="18">IF(ISBLANK(A20),"",IF(OR(ISBLANK(D20),ISBLANK(E20)),0,NETWORKDAYS(D20,E20)))</f>
         <v>22</v>
       </c>
       <c r="H20" s="23">
-        <f ca="1">IF(ISBLANK(A20),"",IF(OR(ISBLANK(D20),ISBLANK(E20)),0,IF(Today&lt;D20,0,NETWORKDAYS(D20,IF(ISBLANK(F20),Today-1,F20)))))</f>
+        <f t="shared" ref="H20:H25" ca="1" si="19">IF(ISBLANK(A20),"",IF(OR(ISBLANK(D20),ISBLANK(E20)),0,IF(Today&lt;D20,0,NETWORKDAYS(D20,IF(ISBLANK(F20),Today-1,F20)))))</f>
         <v>0</v>
       </c>
       <c r="I20" s="23">
-        <f ca="1">IF(ISBLANK(A20),"",IF(OR(ISBLANK(D20),ISBLANK(E20)),0,IF(OR(Today&gt;E20,NOT(ISBLANK(F20))),0,IF(Today&lt;D20,NETWORKDAYS(D20,E20),NETWORKDAYS(Today,E20)))))</f>
+        <f t="shared" ref="I20:I25" ca="1" si="20">IF(ISBLANK(A20),"",IF(OR(ISBLANK(D20),ISBLANK(E20)),0,IF(OR(Today&gt;E20,NOT(ISBLANK(F20))),0,IF(Today&lt;D20,NETWORKDAYS(D20,E20),NETWORKDAYS(Today,E20)))))</f>
         <v>22</v>
       </c>
       <c r="J20" s="22">
-        <f>IF(ISBLANK(A20),"",IF(NOT(ISBLANK(F20)),IF(F20&gt;E20,F20-E20,0),0))</f>
+        <f t="shared" ref="J20:J25" si="21">IF(ISBLANK(A20),"",IF(NOT(ISBLANK(F20)),IF(F20&gt;E20,F20-E20,0),0))</f>
         <v>0</v>
       </c>
       <c r="K20" s="21"/>
@@ -12689,13 +12487,13 @@
       <c r="NK20" s="18"/>
     </row>
     <row r="21" spans="1:375" x14ac:dyDescent="0.2">
-      <c r="A21" s="66">
+      <c r="A21" s="63">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="24">
         <v>42220</v>
       </c>
@@ -12704,19 +12502,19 @@
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="22">
-        <f>IF(ISBLANK(A21),"",IF(OR(ISBLANK(D21),ISBLANK(E21)),0,NETWORKDAYS(D21,E21)))</f>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="H21" s="23">
-        <f ca="1">IF(ISBLANK(A21),"",IF(OR(ISBLANK(D21),ISBLANK(E21)),0,IF(Today&lt;D21,0,NETWORKDAYS(D21,IF(ISBLANK(F21),Today-1,F21)))))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="I21" s="23">
-        <f ca="1">IF(ISBLANK(A21),"",IF(OR(ISBLANK(D21),ISBLANK(E21)),0,IF(OR(Today&gt;E21,NOT(ISBLANK(F21))),0,IF(Today&lt;D21,NETWORKDAYS(D21,E21),NETWORKDAYS(Today,E21)))))</f>
+        <f t="shared" ca="1" si="20"/>
         <v>22</v>
       </c>
       <c r="J21" s="22">
-        <f>IF(ISBLANK(A21),"",IF(NOT(ISBLANK(F21)),IF(F21&gt;E21,F21-E21,0),0))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K21" s="21"/>
@@ -13086,13 +12884,13 @@
       <c r="NK21" s="18"/>
     </row>
     <row r="22" spans="1:375" x14ac:dyDescent="0.2">
-      <c r="A22" s="66">
+      <c r="A22" s="63">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="24">
         <v>42220</v>
       </c>
@@ -13101,19 +12899,19 @@
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="22">
-        <f>IF(ISBLANK(A22),"",IF(OR(ISBLANK(D22),ISBLANK(E22)),0,NETWORKDAYS(D22,E22)))</f>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="H22" s="23">
-        <f ca="1">IF(ISBLANK(A22),"",IF(OR(ISBLANK(D22),ISBLANK(E22)),0,IF(Today&lt;D22,0,NETWORKDAYS(D22,IF(ISBLANK(F22),Today-1,F22)))))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="I22" s="23">
-        <f ca="1">IF(ISBLANK(A22),"",IF(OR(ISBLANK(D22),ISBLANK(E22)),0,IF(OR(Today&gt;E22,NOT(ISBLANK(F22))),0,IF(Today&lt;D22,NETWORKDAYS(D22,E22),NETWORKDAYS(Today,E22)))))</f>
+        <f t="shared" ca="1" si="20"/>
         <v>22</v>
       </c>
       <c r="J22" s="22">
-        <f>IF(ISBLANK(A22),"",IF(NOT(ISBLANK(F22)),IF(F22&gt;E22,F22-E22,0),0))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K22" s="21"/>
@@ -13486,10 +13284,10 @@
       <c r="A23" s="26">
         <v>2.4</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="24">
         <v>42220</v>
       </c>
@@ -13498,19 +13296,19 @@
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="22">
-        <f>IF(ISBLANK(A23),"",IF(OR(ISBLANK(D23),ISBLANK(E23)),0,NETWORKDAYS(D23,E23)))</f>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="H23" s="23">
-        <f ca="1">IF(ISBLANK(A23),"",IF(OR(ISBLANK(D23),ISBLANK(E23)),0,IF(Today&lt;D23,0,NETWORKDAYS(D23,IF(ISBLANK(F23),Today-1,F23)))))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="I23" s="23">
-        <f ca="1">IF(ISBLANK(A23),"",IF(OR(ISBLANK(D23),ISBLANK(E23)),0,IF(OR(Today&gt;E23,NOT(ISBLANK(F23))),0,IF(Today&lt;D23,NETWORKDAYS(D23,E23),NETWORKDAYS(Today,E23)))))</f>
+        <f t="shared" ca="1" si="20"/>
         <v>22</v>
       </c>
       <c r="J23" s="22">
-        <f>IF(ISBLANK(A23),"",IF(NOT(ISBLANK(F23)),IF(F23&gt;E23,F23-E23,0),0))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K23" s="21"/>
@@ -13895,19 +13693,19 @@
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="22">
-        <f>IF(ISBLANK(A24),"",IF(OR(ISBLANK(D24),ISBLANK(E24)),0,NETWORKDAYS(D24,E24)))</f>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="H24" s="23">
-        <f ca="1">IF(ISBLANK(A24),"",IF(OR(ISBLANK(D24),ISBLANK(E24)),0,IF(Today&lt;D24,0,NETWORKDAYS(D24,IF(ISBLANK(F24),Today-1,F24)))))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="I24" s="23">
-        <f ca="1">IF(ISBLANK(A24),"",IF(OR(ISBLANK(D24),ISBLANK(E24)),0,IF(OR(Today&gt;E24,NOT(ISBLANK(F24))),0,IF(Today&lt;D24,NETWORKDAYS(D24,E24),NETWORKDAYS(Today,E24)))))</f>
+        <f t="shared" ca="1" si="20"/>
         <v>22</v>
       </c>
       <c r="J24" s="22">
-        <f>IF(ISBLANK(A24),"",IF(NOT(ISBLANK(F24)),IF(F24&gt;E24,F24-E24,0),0))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K24" s="21"/>
@@ -14276,397 +14074,397 @@
       <c r="NJ24" s="19"/>
       <c r="NK24" s="18"/>
     </row>
-    <row r="25" spans="1:375" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73" t="str">
-        <f>IF(ISBLANK(A25),"",IF(OR(ISBLANK(D25),ISBLANK(E25)),0,NETWORKDAYS(D25,E25)))</f>
+    <row r="25" spans="1:375" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="67"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H25" s="74" t="str">
-        <f>IF(ISBLANK(A25),"",IF(OR(ISBLANK(D25),ISBLANK(E25)),0,IF(Today&lt;D25,0,NETWORKDAYS(D25,IF(ISBLANK(F25),Today-1,F25)))))</f>
+      <c r="H25" s="71" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I25" s="74" t="str">
-        <f>IF(ISBLANK(A25),"",IF(OR(ISBLANK(D25),ISBLANK(E25)),0,IF(OR(Today&gt;E25,NOT(ISBLANK(F25))),0,IF(Today&lt;D25,NETWORKDAYS(D25,E25),NETWORKDAYS(Today,E25)))))</f>
+      <c r="I25" s="71" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J25" s="73" t="str">
-        <f>IF(ISBLANK(A25),"",IF(NOT(ISBLANK(F25)),IF(F25&gt;E25,F25-E25,0),0))</f>
+      <c r="J25" s="70" t="str">
+        <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K25" s="75"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="76"/>
-      <c r="W25" s="76"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="76"/>
-      <c r="AD25" s="76"/>
-      <c r="AE25" s="76"/>
-      <c r="AF25" s="76"/>
-      <c r="AG25" s="76"/>
-      <c r="AH25" s="76"/>
-      <c r="AI25" s="76"/>
-      <c r="AJ25" s="76"/>
-      <c r="AK25" s="76"/>
-      <c r="AL25" s="76"/>
-      <c r="AM25" s="76"/>
-      <c r="AN25" s="76"/>
-      <c r="AO25" s="76"/>
-      <c r="AP25" s="76"/>
-      <c r="AQ25" s="76"/>
-      <c r="AR25" s="76"/>
-      <c r="AS25" s="76"/>
-      <c r="AT25" s="76"/>
-      <c r="AU25" s="76"/>
-      <c r="AV25" s="76"/>
-      <c r="AW25" s="76"/>
-      <c r="AX25" s="76"/>
-      <c r="AY25" s="76"/>
-      <c r="AZ25" s="76"/>
-      <c r="BA25" s="76"/>
-      <c r="BB25" s="76"/>
-      <c r="BC25" s="76"/>
-      <c r="BD25" s="76"/>
-      <c r="BE25" s="76"/>
-      <c r="BF25" s="76"/>
-      <c r="BG25" s="76"/>
-      <c r="BH25" s="76"/>
-      <c r="BI25" s="76"/>
-      <c r="BJ25" s="76"/>
-      <c r="BK25" s="76"/>
-      <c r="BL25" s="76"/>
-      <c r="BM25" s="76"/>
-      <c r="BN25" s="76"/>
-      <c r="BO25" s="76"/>
-      <c r="BP25" s="76"/>
-      <c r="BQ25" s="76"/>
-      <c r="BR25" s="76"/>
-      <c r="BS25" s="76"/>
-      <c r="BT25" s="76"/>
-      <c r="BU25" s="76"/>
-      <c r="BV25" s="76"/>
-      <c r="BW25" s="76"/>
-      <c r="BX25" s="76"/>
-      <c r="BY25" s="76"/>
-      <c r="BZ25" s="76"/>
-      <c r="CA25" s="76"/>
-      <c r="CB25" s="76"/>
-      <c r="CC25" s="76"/>
-      <c r="CD25" s="76"/>
-      <c r="CE25" s="76"/>
-      <c r="CF25" s="76"/>
-      <c r="CG25" s="76"/>
-      <c r="CH25" s="76"/>
-      <c r="CI25" s="76"/>
-      <c r="CJ25" s="76"/>
-      <c r="CK25" s="76"/>
-      <c r="CL25" s="76"/>
-      <c r="CM25" s="76"/>
-      <c r="CN25" s="76"/>
-      <c r="CO25" s="76"/>
-      <c r="CP25" s="76"/>
-      <c r="CQ25" s="76"/>
-      <c r="CR25" s="76"/>
-      <c r="CS25" s="76"/>
-      <c r="CT25" s="76"/>
-      <c r="CU25" s="76"/>
-      <c r="CV25" s="76"/>
-      <c r="CW25" s="76"/>
-      <c r="CX25" s="76"/>
-      <c r="CY25" s="76"/>
-      <c r="CZ25" s="76"/>
-      <c r="DA25" s="76"/>
-      <c r="DB25" s="76"/>
-      <c r="DC25" s="76"/>
-      <c r="DD25" s="76"/>
-      <c r="DE25" s="76"/>
-      <c r="DF25" s="76"/>
-      <c r="DG25" s="76"/>
-      <c r="DH25" s="76"/>
-      <c r="DI25" s="76"/>
-      <c r="DJ25" s="76"/>
-      <c r="DK25" s="76"/>
-      <c r="DL25" s="76"/>
-      <c r="DM25" s="76"/>
-      <c r="DN25" s="76"/>
-      <c r="DO25" s="76"/>
-      <c r="DP25" s="76"/>
-      <c r="DQ25" s="76"/>
-      <c r="DR25" s="76"/>
-      <c r="DS25" s="76"/>
-      <c r="DT25" s="76"/>
-      <c r="DU25" s="76"/>
-      <c r="DV25" s="76"/>
-      <c r="DW25" s="76"/>
-      <c r="DX25" s="76"/>
-      <c r="DY25" s="76"/>
-      <c r="DZ25" s="76"/>
-      <c r="EA25" s="76"/>
-      <c r="EB25" s="76"/>
-      <c r="EC25" s="76"/>
-      <c r="ED25" s="76"/>
-      <c r="EE25" s="76"/>
-      <c r="EF25" s="76"/>
-      <c r="EG25" s="76"/>
-      <c r="EH25" s="76"/>
-      <c r="EI25" s="76"/>
-      <c r="EJ25" s="76"/>
-      <c r="EK25" s="76"/>
-      <c r="EL25" s="76"/>
-      <c r="EM25" s="76"/>
-      <c r="EN25" s="76"/>
-      <c r="EO25" s="76"/>
-      <c r="EP25" s="76"/>
-      <c r="EQ25" s="76"/>
-      <c r="ER25" s="76"/>
-      <c r="ES25" s="76"/>
-      <c r="ET25" s="76"/>
-      <c r="EU25" s="76"/>
-      <c r="EV25" s="76"/>
-      <c r="EW25" s="76"/>
-      <c r="EX25" s="76"/>
-      <c r="EY25" s="76"/>
-      <c r="EZ25" s="76"/>
-      <c r="FA25" s="76"/>
-      <c r="FB25" s="76"/>
-      <c r="FC25" s="76"/>
-      <c r="FD25" s="76"/>
-      <c r="FE25" s="76"/>
-      <c r="FF25" s="76"/>
-      <c r="FG25" s="76"/>
-      <c r="FH25" s="76"/>
-      <c r="FI25" s="76"/>
-      <c r="FJ25" s="76"/>
-      <c r="FK25" s="76"/>
-      <c r="FL25" s="76"/>
-      <c r="FM25" s="76"/>
-      <c r="FN25" s="76"/>
-      <c r="FO25" s="76"/>
-      <c r="FP25" s="76"/>
-      <c r="FQ25" s="76"/>
-      <c r="FR25" s="76"/>
-      <c r="FS25" s="76"/>
-      <c r="FT25" s="76"/>
-      <c r="FU25" s="76"/>
-      <c r="FV25" s="76"/>
-      <c r="FW25" s="76"/>
-      <c r="FX25" s="76"/>
-      <c r="FY25" s="76"/>
-      <c r="FZ25" s="76"/>
-      <c r="GA25" s="76"/>
-      <c r="GB25" s="76"/>
-      <c r="GC25" s="76"/>
-      <c r="GD25" s="76"/>
-      <c r="GE25" s="76"/>
-      <c r="GF25" s="76"/>
-      <c r="GG25" s="76"/>
-      <c r="GH25" s="76"/>
-      <c r="GI25" s="76"/>
-      <c r="GJ25" s="76"/>
-      <c r="GK25" s="76"/>
-      <c r="GL25" s="76"/>
-      <c r="GM25" s="76"/>
-      <c r="GN25" s="76"/>
-      <c r="GO25" s="76"/>
-      <c r="GP25" s="76"/>
-      <c r="GQ25" s="76"/>
-      <c r="GR25" s="76"/>
-      <c r="GS25" s="76"/>
-      <c r="GT25" s="76"/>
-      <c r="GU25" s="76"/>
-      <c r="GV25" s="76"/>
-      <c r="GW25" s="76"/>
-      <c r="GX25" s="76"/>
-      <c r="GY25" s="76"/>
-      <c r="GZ25" s="76"/>
-      <c r="HA25" s="76"/>
-      <c r="HB25" s="76"/>
-      <c r="HC25" s="76"/>
-      <c r="HD25" s="76"/>
-      <c r="HE25" s="76"/>
-      <c r="HF25" s="76"/>
-      <c r="HG25" s="76"/>
-      <c r="HH25" s="76"/>
-      <c r="HI25" s="76"/>
-      <c r="HJ25" s="76"/>
-      <c r="HK25" s="76"/>
-      <c r="HL25" s="76"/>
-      <c r="HM25" s="76"/>
-      <c r="HN25" s="76"/>
-      <c r="HO25" s="76"/>
-      <c r="HP25" s="76"/>
-      <c r="HQ25" s="76"/>
-      <c r="HR25" s="76"/>
-      <c r="HS25" s="76"/>
-      <c r="HT25" s="76"/>
-      <c r="HU25" s="76"/>
-      <c r="HV25" s="76"/>
-      <c r="HW25" s="76"/>
-      <c r="HX25" s="76"/>
-      <c r="HY25" s="76"/>
-      <c r="HZ25" s="76"/>
-      <c r="IA25" s="76"/>
-      <c r="IB25" s="76"/>
-      <c r="IC25" s="76"/>
-      <c r="ID25" s="76"/>
-      <c r="IE25" s="76"/>
-      <c r="IF25" s="76"/>
-      <c r="IG25" s="76"/>
-      <c r="IH25" s="76"/>
-      <c r="II25" s="76"/>
-      <c r="IJ25" s="76"/>
-      <c r="IK25" s="76"/>
-      <c r="IL25" s="76"/>
-      <c r="IM25" s="76"/>
-      <c r="IN25" s="76"/>
-      <c r="IO25" s="76"/>
-      <c r="IP25" s="76"/>
-      <c r="IQ25" s="76"/>
-      <c r="IR25" s="76"/>
-      <c r="IS25" s="76"/>
-      <c r="IT25" s="76"/>
-      <c r="IU25" s="76"/>
-      <c r="IV25" s="76"/>
-      <c r="IW25" s="76"/>
-      <c r="IX25" s="76"/>
-      <c r="IY25" s="76"/>
-      <c r="IZ25" s="76"/>
-      <c r="JA25" s="76"/>
-      <c r="JB25" s="76"/>
-      <c r="JC25" s="76"/>
-      <c r="JD25" s="76"/>
-      <c r="JE25" s="76"/>
-      <c r="JF25" s="76"/>
-      <c r="JG25" s="76"/>
-      <c r="JH25" s="76"/>
-      <c r="JI25" s="76"/>
-      <c r="JJ25" s="76"/>
-      <c r="JK25" s="76"/>
-      <c r="JL25" s="76"/>
-      <c r="JM25" s="76"/>
-      <c r="JN25" s="76"/>
-      <c r="JO25" s="76"/>
-      <c r="JP25" s="76"/>
-      <c r="JQ25" s="76"/>
-      <c r="JR25" s="76"/>
-      <c r="JS25" s="76"/>
-      <c r="JT25" s="76"/>
-      <c r="JU25" s="76"/>
-      <c r="JV25" s="76"/>
-      <c r="JW25" s="76"/>
-      <c r="JX25" s="76"/>
-      <c r="JY25" s="76"/>
-      <c r="JZ25" s="76"/>
-      <c r="KA25" s="76"/>
-      <c r="KB25" s="76"/>
-      <c r="KC25" s="76"/>
-      <c r="KD25" s="76"/>
-      <c r="KE25" s="76"/>
-      <c r="KF25" s="76"/>
-      <c r="KG25" s="76"/>
-      <c r="KH25" s="76"/>
-      <c r="KI25" s="76"/>
-      <c r="KJ25" s="76"/>
-      <c r="KK25" s="76"/>
-      <c r="KL25" s="76"/>
-      <c r="KM25" s="76"/>
-      <c r="KN25" s="76"/>
-      <c r="KO25" s="76"/>
-      <c r="KP25" s="76"/>
-      <c r="KQ25" s="76"/>
-      <c r="KR25" s="76"/>
-      <c r="KS25" s="76"/>
-      <c r="KT25" s="76"/>
-      <c r="KU25" s="76"/>
-      <c r="KV25" s="76"/>
-      <c r="KW25" s="76"/>
-      <c r="KX25" s="76"/>
-      <c r="KY25" s="76"/>
-      <c r="KZ25" s="76"/>
-      <c r="LA25" s="76"/>
-      <c r="LB25" s="76"/>
-      <c r="LC25" s="76"/>
-      <c r="LD25" s="76"/>
-      <c r="LE25" s="76"/>
-      <c r="LF25" s="76"/>
-      <c r="LG25" s="76"/>
-      <c r="LH25" s="76"/>
-      <c r="LI25" s="76"/>
-      <c r="LJ25" s="76"/>
-      <c r="LK25" s="76"/>
-      <c r="LL25" s="76"/>
-      <c r="LM25" s="76"/>
-      <c r="LN25" s="76"/>
-      <c r="LO25" s="76"/>
-      <c r="LP25" s="76"/>
-      <c r="LQ25" s="76"/>
-      <c r="LR25" s="76"/>
-      <c r="LS25" s="76"/>
-      <c r="LT25" s="76"/>
-      <c r="LU25" s="76"/>
-      <c r="LV25" s="76"/>
-      <c r="LW25" s="76"/>
-      <c r="LX25" s="76"/>
-      <c r="LY25" s="76"/>
-      <c r="LZ25" s="76"/>
-      <c r="MA25" s="76"/>
-      <c r="MB25" s="76"/>
-      <c r="MC25" s="76"/>
-      <c r="MD25" s="76"/>
-      <c r="ME25" s="76"/>
-      <c r="MF25" s="76"/>
-      <c r="MG25" s="76"/>
-      <c r="MH25" s="76"/>
-      <c r="MI25" s="76"/>
-      <c r="MJ25" s="76"/>
-      <c r="MK25" s="76"/>
-      <c r="ML25" s="76"/>
-      <c r="MM25" s="76"/>
-      <c r="MN25" s="76"/>
-      <c r="MO25" s="76"/>
-      <c r="MP25" s="76"/>
-      <c r="MQ25" s="76"/>
-      <c r="MR25" s="76"/>
-      <c r="MS25" s="76"/>
-      <c r="MT25" s="76"/>
-      <c r="MU25" s="76"/>
-      <c r="MV25" s="76"/>
-      <c r="MW25" s="76"/>
-      <c r="MX25" s="76"/>
-      <c r="MY25" s="76"/>
-      <c r="MZ25" s="76"/>
-      <c r="NA25" s="76"/>
-      <c r="NB25" s="76"/>
-      <c r="NC25" s="76"/>
-      <c r="ND25" s="76"/>
-      <c r="NE25" s="76"/>
-      <c r="NF25" s="76"/>
-      <c r="NG25" s="76"/>
-      <c r="NH25" s="76"/>
-      <c r="NI25" s="76"/>
-      <c r="NJ25" s="77"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="73"/>
+      <c r="AH25" s="73"/>
+      <c r="AI25" s="73"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="73"/>
+      <c r="AL25" s="73"/>
+      <c r="AM25" s="73"/>
+      <c r="AN25" s="73"/>
+      <c r="AO25" s="73"/>
+      <c r="AP25" s="73"/>
+      <c r="AQ25" s="73"/>
+      <c r="AR25" s="73"/>
+      <c r="AS25" s="73"/>
+      <c r="AT25" s="73"/>
+      <c r="AU25" s="73"/>
+      <c r="AV25" s="73"/>
+      <c r="AW25" s="73"/>
+      <c r="AX25" s="73"/>
+      <c r="AY25" s="73"/>
+      <c r="AZ25" s="73"/>
+      <c r="BA25" s="73"/>
+      <c r="BB25" s="73"/>
+      <c r="BC25" s="73"/>
+      <c r="BD25" s="73"/>
+      <c r="BE25" s="73"/>
+      <c r="BF25" s="73"/>
+      <c r="BG25" s="73"/>
+      <c r="BH25" s="73"/>
+      <c r="BI25" s="73"/>
+      <c r="BJ25" s="73"/>
+      <c r="BK25" s="73"/>
+      <c r="BL25" s="73"/>
+      <c r="BM25" s="73"/>
+      <c r="BN25" s="73"/>
+      <c r="BO25" s="73"/>
+      <c r="BP25" s="73"/>
+      <c r="BQ25" s="73"/>
+      <c r="BR25" s="73"/>
+      <c r="BS25" s="73"/>
+      <c r="BT25" s="73"/>
+      <c r="BU25" s="73"/>
+      <c r="BV25" s="73"/>
+      <c r="BW25" s="73"/>
+      <c r="BX25" s="73"/>
+      <c r="BY25" s="73"/>
+      <c r="BZ25" s="73"/>
+      <c r="CA25" s="73"/>
+      <c r="CB25" s="73"/>
+      <c r="CC25" s="73"/>
+      <c r="CD25" s="73"/>
+      <c r="CE25" s="73"/>
+      <c r="CF25" s="73"/>
+      <c r="CG25" s="73"/>
+      <c r="CH25" s="73"/>
+      <c r="CI25" s="73"/>
+      <c r="CJ25" s="73"/>
+      <c r="CK25" s="73"/>
+      <c r="CL25" s="73"/>
+      <c r="CM25" s="73"/>
+      <c r="CN25" s="73"/>
+      <c r="CO25" s="73"/>
+      <c r="CP25" s="73"/>
+      <c r="CQ25" s="73"/>
+      <c r="CR25" s="73"/>
+      <c r="CS25" s="73"/>
+      <c r="CT25" s="73"/>
+      <c r="CU25" s="73"/>
+      <c r="CV25" s="73"/>
+      <c r="CW25" s="73"/>
+      <c r="CX25" s="73"/>
+      <c r="CY25" s="73"/>
+      <c r="CZ25" s="73"/>
+      <c r="DA25" s="73"/>
+      <c r="DB25" s="73"/>
+      <c r="DC25" s="73"/>
+      <c r="DD25" s="73"/>
+      <c r="DE25" s="73"/>
+      <c r="DF25" s="73"/>
+      <c r="DG25" s="73"/>
+      <c r="DH25" s="73"/>
+      <c r="DI25" s="73"/>
+      <c r="DJ25" s="73"/>
+      <c r="DK25" s="73"/>
+      <c r="DL25" s="73"/>
+      <c r="DM25" s="73"/>
+      <c r="DN25" s="73"/>
+      <c r="DO25" s="73"/>
+      <c r="DP25" s="73"/>
+      <c r="DQ25" s="73"/>
+      <c r="DR25" s="73"/>
+      <c r="DS25" s="73"/>
+      <c r="DT25" s="73"/>
+      <c r="DU25" s="73"/>
+      <c r="DV25" s="73"/>
+      <c r="DW25" s="73"/>
+      <c r="DX25" s="73"/>
+      <c r="DY25" s="73"/>
+      <c r="DZ25" s="73"/>
+      <c r="EA25" s="73"/>
+      <c r="EB25" s="73"/>
+      <c r="EC25" s="73"/>
+      <c r="ED25" s="73"/>
+      <c r="EE25" s="73"/>
+      <c r="EF25" s="73"/>
+      <c r="EG25" s="73"/>
+      <c r="EH25" s="73"/>
+      <c r="EI25" s="73"/>
+      <c r="EJ25" s="73"/>
+      <c r="EK25" s="73"/>
+      <c r="EL25" s="73"/>
+      <c r="EM25" s="73"/>
+      <c r="EN25" s="73"/>
+      <c r="EO25" s="73"/>
+      <c r="EP25" s="73"/>
+      <c r="EQ25" s="73"/>
+      <c r="ER25" s="73"/>
+      <c r="ES25" s="73"/>
+      <c r="ET25" s="73"/>
+      <c r="EU25" s="73"/>
+      <c r="EV25" s="73"/>
+      <c r="EW25" s="73"/>
+      <c r="EX25" s="73"/>
+      <c r="EY25" s="73"/>
+      <c r="EZ25" s="73"/>
+      <c r="FA25" s="73"/>
+      <c r="FB25" s="73"/>
+      <c r="FC25" s="73"/>
+      <c r="FD25" s="73"/>
+      <c r="FE25" s="73"/>
+      <c r="FF25" s="73"/>
+      <c r="FG25" s="73"/>
+      <c r="FH25" s="73"/>
+      <c r="FI25" s="73"/>
+      <c r="FJ25" s="73"/>
+      <c r="FK25" s="73"/>
+      <c r="FL25" s="73"/>
+      <c r="FM25" s="73"/>
+      <c r="FN25" s="73"/>
+      <c r="FO25" s="73"/>
+      <c r="FP25" s="73"/>
+      <c r="FQ25" s="73"/>
+      <c r="FR25" s="73"/>
+      <c r="FS25" s="73"/>
+      <c r="FT25" s="73"/>
+      <c r="FU25" s="73"/>
+      <c r="FV25" s="73"/>
+      <c r="FW25" s="73"/>
+      <c r="FX25" s="73"/>
+      <c r="FY25" s="73"/>
+      <c r="FZ25" s="73"/>
+      <c r="GA25" s="73"/>
+      <c r="GB25" s="73"/>
+      <c r="GC25" s="73"/>
+      <c r="GD25" s="73"/>
+      <c r="GE25" s="73"/>
+      <c r="GF25" s="73"/>
+      <c r="GG25" s="73"/>
+      <c r="GH25" s="73"/>
+      <c r="GI25" s="73"/>
+      <c r="GJ25" s="73"/>
+      <c r="GK25" s="73"/>
+      <c r="GL25" s="73"/>
+      <c r="GM25" s="73"/>
+      <c r="GN25" s="73"/>
+      <c r="GO25" s="73"/>
+      <c r="GP25" s="73"/>
+      <c r="GQ25" s="73"/>
+      <c r="GR25" s="73"/>
+      <c r="GS25" s="73"/>
+      <c r="GT25" s="73"/>
+      <c r="GU25" s="73"/>
+      <c r="GV25" s="73"/>
+      <c r="GW25" s="73"/>
+      <c r="GX25" s="73"/>
+      <c r="GY25" s="73"/>
+      <c r="GZ25" s="73"/>
+      <c r="HA25" s="73"/>
+      <c r="HB25" s="73"/>
+      <c r="HC25" s="73"/>
+      <c r="HD25" s="73"/>
+      <c r="HE25" s="73"/>
+      <c r="HF25" s="73"/>
+      <c r="HG25" s="73"/>
+      <c r="HH25" s="73"/>
+      <c r="HI25" s="73"/>
+      <c r="HJ25" s="73"/>
+      <c r="HK25" s="73"/>
+      <c r="HL25" s="73"/>
+      <c r="HM25" s="73"/>
+      <c r="HN25" s="73"/>
+      <c r="HO25" s="73"/>
+      <c r="HP25" s="73"/>
+      <c r="HQ25" s="73"/>
+      <c r="HR25" s="73"/>
+      <c r="HS25" s="73"/>
+      <c r="HT25" s="73"/>
+      <c r="HU25" s="73"/>
+      <c r="HV25" s="73"/>
+      <c r="HW25" s="73"/>
+      <c r="HX25" s="73"/>
+      <c r="HY25" s="73"/>
+      <c r="HZ25" s="73"/>
+      <c r="IA25" s="73"/>
+      <c r="IB25" s="73"/>
+      <c r="IC25" s="73"/>
+      <c r="ID25" s="73"/>
+      <c r="IE25" s="73"/>
+      <c r="IF25" s="73"/>
+      <c r="IG25" s="73"/>
+      <c r="IH25" s="73"/>
+      <c r="II25" s="73"/>
+      <c r="IJ25" s="73"/>
+      <c r="IK25" s="73"/>
+      <c r="IL25" s="73"/>
+      <c r="IM25" s="73"/>
+      <c r="IN25" s="73"/>
+      <c r="IO25" s="73"/>
+      <c r="IP25" s="73"/>
+      <c r="IQ25" s="73"/>
+      <c r="IR25" s="73"/>
+      <c r="IS25" s="73"/>
+      <c r="IT25" s="73"/>
+      <c r="IU25" s="73"/>
+      <c r="IV25" s="73"/>
+      <c r="IW25" s="73"/>
+      <c r="IX25" s="73"/>
+      <c r="IY25" s="73"/>
+      <c r="IZ25" s="73"/>
+      <c r="JA25" s="73"/>
+      <c r="JB25" s="73"/>
+      <c r="JC25" s="73"/>
+      <c r="JD25" s="73"/>
+      <c r="JE25" s="73"/>
+      <c r="JF25" s="73"/>
+      <c r="JG25" s="73"/>
+      <c r="JH25" s="73"/>
+      <c r="JI25" s="73"/>
+      <c r="JJ25" s="73"/>
+      <c r="JK25" s="73"/>
+      <c r="JL25" s="73"/>
+      <c r="JM25" s="73"/>
+      <c r="JN25" s="73"/>
+      <c r="JO25" s="73"/>
+      <c r="JP25" s="73"/>
+      <c r="JQ25" s="73"/>
+      <c r="JR25" s="73"/>
+      <c r="JS25" s="73"/>
+      <c r="JT25" s="73"/>
+      <c r="JU25" s="73"/>
+      <c r="JV25" s="73"/>
+      <c r="JW25" s="73"/>
+      <c r="JX25" s="73"/>
+      <c r="JY25" s="73"/>
+      <c r="JZ25" s="73"/>
+      <c r="KA25" s="73"/>
+      <c r="KB25" s="73"/>
+      <c r="KC25" s="73"/>
+      <c r="KD25" s="73"/>
+      <c r="KE25" s="73"/>
+      <c r="KF25" s="73"/>
+      <c r="KG25" s="73"/>
+      <c r="KH25" s="73"/>
+      <c r="KI25" s="73"/>
+      <c r="KJ25" s="73"/>
+      <c r="KK25" s="73"/>
+      <c r="KL25" s="73"/>
+      <c r="KM25" s="73"/>
+      <c r="KN25" s="73"/>
+      <c r="KO25" s="73"/>
+      <c r="KP25" s="73"/>
+      <c r="KQ25" s="73"/>
+      <c r="KR25" s="73"/>
+      <c r="KS25" s="73"/>
+      <c r="KT25" s="73"/>
+      <c r="KU25" s="73"/>
+      <c r="KV25" s="73"/>
+      <c r="KW25" s="73"/>
+      <c r="KX25" s="73"/>
+      <c r="KY25" s="73"/>
+      <c r="KZ25" s="73"/>
+      <c r="LA25" s="73"/>
+      <c r="LB25" s="73"/>
+      <c r="LC25" s="73"/>
+      <c r="LD25" s="73"/>
+      <c r="LE25" s="73"/>
+      <c r="LF25" s="73"/>
+      <c r="LG25" s="73"/>
+      <c r="LH25" s="73"/>
+      <c r="LI25" s="73"/>
+      <c r="LJ25" s="73"/>
+      <c r="LK25" s="73"/>
+      <c r="LL25" s="73"/>
+      <c r="LM25" s="73"/>
+      <c r="LN25" s="73"/>
+      <c r="LO25" s="73"/>
+      <c r="LP25" s="73"/>
+      <c r="LQ25" s="73"/>
+      <c r="LR25" s="73"/>
+      <c r="LS25" s="73"/>
+      <c r="LT25" s="73"/>
+      <c r="LU25" s="73"/>
+      <c r="LV25" s="73"/>
+      <c r="LW25" s="73"/>
+      <c r="LX25" s="73"/>
+      <c r="LY25" s="73"/>
+      <c r="LZ25" s="73"/>
+      <c r="MA25" s="73"/>
+      <c r="MB25" s="73"/>
+      <c r="MC25" s="73"/>
+      <c r="MD25" s="73"/>
+      <c r="ME25" s="73"/>
+      <c r="MF25" s="73"/>
+      <c r="MG25" s="73"/>
+      <c r="MH25" s="73"/>
+      <c r="MI25" s="73"/>
+      <c r="MJ25" s="73"/>
+      <c r="MK25" s="73"/>
+      <c r="ML25" s="73"/>
+      <c r="MM25" s="73"/>
+      <c r="MN25" s="73"/>
+      <c r="MO25" s="73"/>
+      <c r="MP25" s="73"/>
+      <c r="MQ25" s="73"/>
+      <c r="MR25" s="73"/>
+      <c r="MS25" s="73"/>
+      <c r="MT25" s="73"/>
+      <c r="MU25" s="73"/>
+      <c r="MV25" s="73"/>
+      <c r="MW25" s="73"/>
+      <c r="MX25" s="73"/>
+      <c r="MY25" s="73"/>
+      <c r="MZ25" s="73"/>
+      <c r="NA25" s="73"/>
+      <c r="NB25" s="73"/>
+      <c r="NC25" s="73"/>
+      <c r="ND25" s="73"/>
+      <c r="NE25" s="73"/>
+      <c r="NF25" s="73"/>
+      <c r="NG25" s="73"/>
+      <c r="NH25" s="73"/>
+      <c r="NI25" s="73"/>
+      <c r="NJ25" s="74"/>
     </row>
     <row r="26" spans="1:375" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
-      <c r="B26" s="68"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="25"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -15043,27 +14841,27 @@
     </row>
     <row r="27" spans="1:375" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="22" t="str">
-        <f>IF(ISBLANK(A27),"",IF(OR(ISBLANK(D27),ISBLANK(E27)),0,NETWORKDAYS(D27,E27)))</f>
+        <f t="shared" ref="G27:G48" si="22">IF(ISBLANK(A27),"",IF(OR(ISBLANK(D27),ISBLANK(E27)),0,NETWORKDAYS(D27,E27)))</f>
         <v/>
       </c>
       <c r="H27" s="23" t="str">
-        <f>IF(ISBLANK(A27),"",IF(OR(ISBLANK(D27),ISBLANK(E27)),0,IF(Today&lt;D27,0,NETWORKDAYS(D27,IF(ISBLANK(F27),Today-1,F27)))))</f>
+        <f t="shared" ref="H27:H48" si="23">IF(ISBLANK(A27),"",IF(OR(ISBLANK(D27),ISBLANK(E27)),0,IF(Today&lt;D27,0,NETWORKDAYS(D27,IF(ISBLANK(F27),Today-1,F27)))))</f>
         <v/>
       </c>
       <c r="I27" s="23" t="str">
-        <f>IF(ISBLANK(A27),"",IF(OR(ISBLANK(D27),ISBLANK(E27)),0,IF(OR(Today&gt;E27,NOT(ISBLANK(F27))),0,IF(Today&lt;D27,NETWORKDAYS(D27,E27),NETWORKDAYS(Today,E27)))))</f>
+        <f t="shared" ref="I27:I48" si="24">IF(ISBLANK(A27),"",IF(OR(ISBLANK(D27),ISBLANK(E27)),0,IF(OR(Today&gt;E27,NOT(ISBLANK(F27))),0,IF(Today&lt;D27,NETWORKDAYS(D27,E27),NETWORKDAYS(Today,E27)))))</f>
         <v/>
       </c>
       <c r="J27" s="22" t="str">
-        <f>IF(ISBLANK(A27),"",IF(NOT(ISBLANK(F27)),IF(F27&gt;E27,F27-E27,0),0))</f>
+        <f t="shared" ref="J27:J48" si="25">IF(ISBLANK(A27),"",IF(NOT(ISBLANK(F27)),IF(F27&gt;E27,F27-E27,0),0))</f>
         <v/>
       </c>
       <c r="K27" s="21"/>
@@ -15434,27 +15232,27 @@
     </row>
     <row r="28" spans="1:375" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="22" t="str">
-        <f>IF(ISBLANK(A28),"",IF(OR(ISBLANK(D28),ISBLANK(E28)),0,NETWORKDAYS(D28,E28)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H28" s="23" t="str">
-        <f>IF(ISBLANK(A28),"",IF(OR(ISBLANK(D28),ISBLANK(E28)),0,IF(Today&lt;D28,0,NETWORKDAYS(D28,IF(ISBLANK(F28),Today-1,F28)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I28" s="23" t="str">
-        <f>IF(ISBLANK(A28),"",IF(OR(ISBLANK(D28),ISBLANK(E28)),0,IF(OR(Today&gt;E28,NOT(ISBLANK(F28))),0,IF(Today&lt;D28,NETWORKDAYS(D28,E28),NETWORKDAYS(Today,E28)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J28" s="22" t="str">
-        <f>IF(ISBLANK(A28),"",IF(NOT(ISBLANK(F28)),IF(F28&gt;E28,F28-E28,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K28" s="21"/>
@@ -15825,27 +15623,27 @@
     </row>
     <row r="29" spans="1:375" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="22" t="str">
-        <f>IF(ISBLANK(A29),"",IF(OR(ISBLANK(D29),ISBLANK(E29)),0,NETWORKDAYS(D29,E29)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H29" s="23" t="str">
-        <f>IF(ISBLANK(A29),"",IF(OR(ISBLANK(D29),ISBLANK(E29)),0,IF(Today&lt;D29,0,NETWORKDAYS(D29,IF(ISBLANK(F29),Today-1,F29)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I29" s="23" t="str">
-        <f>IF(ISBLANK(A29),"",IF(OR(ISBLANK(D29),ISBLANK(E29)),0,IF(OR(Today&gt;E29,NOT(ISBLANK(F29))),0,IF(Today&lt;D29,NETWORKDAYS(D29,E29),NETWORKDAYS(Today,E29)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J29" s="22" t="str">
-        <f>IF(ISBLANK(A29),"",IF(NOT(ISBLANK(F29)),IF(F29&gt;E29,F29-E29,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K29" s="21"/>
@@ -16216,25 +16014,25 @@
     </row>
     <row r="30" spans="1:375" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="22" t="str">
-        <f>IF(ISBLANK(A30),"",IF(OR(ISBLANK(D30),ISBLANK(E30)),0,NETWORKDAYS(D30,E30)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H30" s="23" t="str">
-        <f>IF(ISBLANK(A30),"",IF(OR(ISBLANK(D30),ISBLANK(E30)),0,IF(Today&lt;D30,0,NETWORKDAYS(D30,IF(ISBLANK(F30),Today-1,F30)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I30" s="23" t="str">
-        <f>IF(ISBLANK(A30),"",IF(OR(ISBLANK(D30),ISBLANK(E30)),0,IF(OR(Today&gt;E30,NOT(ISBLANK(F30))),0,IF(Today&lt;D30,NETWORKDAYS(D30,E30),NETWORKDAYS(Today,E30)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J30" s="22" t="str">
-        <f>IF(ISBLANK(A30),"",IF(NOT(ISBLANK(F30)),IF(F30&gt;E30,F30-E30,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K30" s="21"/>
@@ -16611,19 +16409,19 @@
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="22" t="str">
-        <f>IF(ISBLANK(A31),"",IF(OR(ISBLANK(D31),ISBLANK(E31)),0,NETWORKDAYS(D31,E31)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H31" s="23" t="str">
-        <f>IF(ISBLANK(A31),"",IF(OR(ISBLANK(D31),ISBLANK(E31)),0,IF(Today&lt;D31,0,NETWORKDAYS(D31,IF(ISBLANK(F31),Today-1,F31)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I31" s="23" t="str">
-        <f>IF(ISBLANK(A31),"",IF(OR(ISBLANK(D31),ISBLANK(E31)),0,IF(OR(Today&gt;E31,NOT(ISBLANK(F31))),0,IF(Today&lt;D31,NETWORKDAYS(D31,E31),NETWORKDAYS(Today,E31)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J31" s="22" t="str">
-        <f>IF(ISBLANK(A31),"",IF(NOT(ISBLANK(F31)),IF(F31&gt;E31,F31-E31,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K31" s="21"/>
@@ -17000,19 +16798,19 @@
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="22" t="str">
-        <f>IF(ISBLANK(A32),"",IF(OR(ISBLANK(D32),ISBLANK(E32)),0,NETWORKDAYS(D32,E32)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H32" s="23" t="str">
-        <f>IF(ISBLANK(A32),"",IF(OR(ISBLANK(D32),ISBLANK(E32)),0,IF(Today&lt;D32,0,NETWORKDAYS(D32,IF(ISBLANK(F32),Today-1,F32)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I32" s="23" t="str">
-        <f>IF(ISBLANK(A32),"",IF(OR(ISBLANK(D32),ISBLANK(E32)),0,IF(OR(Today&gt;E32,NOT(ISBLANK(F32))),0,IF(Today&lt;D32,NETWORKDAYS(D32,E32),NETWORKDAYS(Today,E32)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J32" s="22" t="str">
-        <f>IF(ISBLANK(A32),"",IF(NOT(ISBLANK(F32)),IF(F32&gt;E32,F32-E32,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K32" s="21"/>
@@ -17389,19 +17187,19 @@
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="22" t="str">
-        <f>IF(ISBLANK(A33),"",IF(OR(ISBLANK(D33),ISBLANK(E33)),0,NETWORKDAYS(D33,E33)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H33" s="23" t="str">
-        <f>IF(ISBLANK(A33),"",IF(OR(ISBLANK(D33),ISBLANK(E33)),0,IF(Today&lt;D33,0,NETWORKDAYS(D33,IF(ISBLANK(F33),Today-1,F33)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I33" s="23" t="str">
-        <f>IF(ISBLANK(A33),"",IF(OR(ISBLANK(D33),ISBLANK(E33)),0,IF(OR(Today&gt;E33,NOT(ISBLANK(F33))),0,IF(Today&lt;D33,NETWORKDAYS(D33,E33),NETWORKDAYS(Today,E33)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J33" s="22" t="str">
-        <f>IF(ISBLANK(A33),"",IF(NOT(ISBLANK(F33)),IF(F33&gt;E33,F33-E33,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K33" s="21"/>
@@ -17778,19 +17576,19 @@
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="22" t="str">
-        <f>IF(ISBLANK(A34),"",IF(OR(ISBLANK(D34),ISBLANK(E34)),0,NETWORKDAYS(D34,E34)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H34" s="23" t="str">
-        <f>IF(ISBLANK(A34),"",IF(OR(ISBLANK(D34),ISBLANK(E34)),0,IF(Today&lt;D34,0,NETWORKDAYS(D34,IF(ISBLANK(F34),Today-1,F34)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I34" s="23" t="str">
-        <f>IF(ISBLANK(A34),"",IF(OR(ISBLANK(D34),ISBLANK(E34)),0,IF(OR(Today&gt;E34,NOT(ISBLANK(F34))),0,IF(Today&lt;D34,NETWORKDAYS(D34,E34),NETWORKDAYS(Today,E34)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J34" s="22" t="str">
-        <f>IF(ISBLANK(A34),"",IF(NOT(ISBLANK(F34)),IF(F34&gt;E34,F34-E34,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K34" s="21"/>
@@ -18167,19 +17965,19 @@
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="22" t="str">
-        <f>IF(ISBLANK(A35),"",IF(OR(ISBLANK(D35),ISBLANK(E35)),0,NETWORKDAYS(D35,E35)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H35" s="23" t="str">
-        <f>IF(ISBLANK(A35),"",IF(OR(ISBLANK(D35),ISBLANK(E35)),0,IF(Today&lt;D35,0,NETWORKDAYS(D35,IF(ISBLANK(F35),Today-1,F35)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I35" s="23" t="str">
-        <f>IF(ISBLANK(A35),"",IF(OR(ISBLANK(D35),ISBLANK(E35)),0,IF(OR(Today&gt;E35,NOT(ISBLANK(F35))),0,IF(Today&lt;D35,NETWORKDAYS(D35,E35),NETWORKDAYS(Today,E35)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J35" s="22" t="str">
-        <f>IF(ISBLANK(A35),"",IF(NOT(ISBLANK(F35)),IF(F35&gt;E35,F35-E35,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K35" s="21"/>
@@ -18556,19 +18354,19 @@
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="22" t="str">
-        <f>IF(ISBLANK(A36),"",IF(OR(ISBLANK(D36),ISBLANK(E36)),0,NETWORKDAYS(D36,E36)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H36" s="23" t="str">
-        <f>IF(ISBLANK(A36),"",IF(OR(ISBLANK(D36),ISBLANK(E36)),0,IF(Today&lt;D36,0,NETWORKDAYS(D36,IF(ISBLANK(F36),Today-1,F36)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I36" s="23" t="str">
-        <f>IF(ISBLANK(A36),"",IF(OR(ISBLANK(D36),ISBLANK(E36)),0,IF(OR(Today&gt;E36,NOT(ISBLANK(F36))),0,IF(Today&lt;D36,NETWORKDAYS(D36,E36),NETWORKDAYS(Today,E36)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J36" s="22" t="str">
-        <f>IF(ISBLANK(A36),"",IF(NOT(ISBLANK(F36)),IF(F36&gt;E36,F36-E36,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K36" s="21"/>
@@ -18945,19 +18743,19 @@
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="22" t="str">
-        <f>IF(ISBLANK(A37),"",IF(OR(ISBLANK(D37),ISBLANK(E37)),0,NETWORKDAYS(D37,E37)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H37" s="23" t="str">
-        <f>IF(ISBLANK(A37),"",IF(OR(ISBLANK(D37),ISBLANK(E37)),0,IF(Today&lt;D37,0,NETWORKDAYS(D37,IF(ISBLANK(F37),Today-1,F37)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I37" s="23" t="str">
-        <f>IF(ISBLANK(A37),"",IF(OR(ISBLANK(D37),ISBLANK(E37)),0,IF(OR(Today&gt;E37,NOT(ISBLANK(F37))),0,IF(Today&lt;D37,NETWORKDAYS(D37,E37),NETWORKDAYS(Today,E37)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J37" s="22" t="str">
-        <f>IF(ISBLANK(A37),"",IF(NOT(ISBLANK(F37)),IF(F37&gt;E37,F37-E37,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K37" s="21"/>
@@ -19334,19 +19132,19 @@
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="22" t="str">
-        <f>IF(ISBLANK(A38),"",IF(OR(ISBLANK(D38),ISBLANK(E38)),0,NETWORKDAYS(D38,E38)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H38" s="23" t="str">
-        <f>IF(ISBLANK(A38),"",IF(OR(ISBLANK(D38),ISBLANK(E38)),0,IF(Today&lt;D38,0,NETWORKDAYS(D38,IF(ISBLANK(F38),Today-1,F38)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I38" s="23" t="str">
-        <f>IF(ISBLANK(A38),"",IF(OR(ISBLANK(D38),ISBLANK(E38)),0,IF(OR(Today&gt;E38,NOT(ISBLANK(F38))),0,IF(Today&lt;D38,NETWORKDAYS(D38,E38),NETWORKDAYS(Today,E38)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J38" s="22" t="str">
-        <f>IF(ISBLANK(A38),"",IF(NOT(ISBLANK(F38)),IF(F38&gt;E38,F38-E38,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K38" s="21"/>
@@ -19723,19 +19521,19 @@
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="22" t="str">
-        <f>IF(ISBLANK(A39),"",IF(OR(ISBLANK(D39),ISBLANK(E39)),0,NETWORKDAYS(D39,E39)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H39" s="23" t="str">
-        <f>IF(ISBLANK(A39),"",IF(OR(ISBLANK(D39),ISBLANK(E39)),0,IF(Today&lt;D39,0,NETWORKDAYS(D39,IF(ISBLANK(F39),Today-1,F39)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I39" s="23" t="str">
-        <f>IF(ISBLANK(A39),"",IF(OR(ISBLANK(D39),ISBLANK(E39)),0,IF(OR(Today&gt;E39,NOT(ISBLANK(F39))),0,IF(Today&lt;D39,NETWORKDAYS(D39,E39),NETWORKDAYS(Today,E39)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J39" s="22" t="str">
-        <f>IF(ISBLANK(A39),"",IF(NOT(ISBLANK(F39)),IF(F39&gt;E39,F39-E39,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K39" s="21"/>
@@ -20112,19 +19910,19 @@
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="22" t="str">
-        <f>IF(ISBLANK(A40),"",IF(OR(ISBLANK(D40),ISBLANK(E40)),0,NETWORKDAYS(D40,E40)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H40" s="23" t="str">
-        <f>IF(ISBLANK(A40),"",IF(OR(ISBLANK(D40),ISBLANK(E40)),0,IF(Today&lt;D40,0,NETWORKDAYS(D40,IF(ISBLANK(F40),Today-1,F40)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I40" s="23" t="str">
-        <f>IF(ISBLANK(A40),"",IF(OR(ISBLANK(D40),ISBLANK(E40)),0,IF(OR(Today&gt;E40,NOT(ISBLANK(F40))),0,IF(Today&lt;D40,NETWORKDAYS(D40,E40),NETWORKDAYS(Today,E40)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J40" s="22" t="str">
-        <f>IF(ISBLANK(A40),"",IF(NOT(ISBLANK(F40)),IF(F40&gt;E40,F40-E40,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K40" s="21"/>
@@ -20501,19 +20299,19 @@
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="22" t="str">
-        <f>IF(ISBLANK(A41),"",IF(OR(ISBLANK(D41),ISBLANK(E41)),0,NETWORKDAYS(D41,E41)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H41" s="23" t="str">
-        <f>IF(ISBLANK(A41),"",IF(OR(ISBLANK(D41),ISBLANK(E41)),0,IF(Today&lt;D41,0,NETWORKDAYS(D41,IF(ISBLANK(F41),Today-1,F41)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I41" s="23" t="str">
-        <f>IF(ISBLANK(A41),"",IF(OR(ISBLANK(D41),ISBLANK(E41)),0,IF(OR(Today&gt;E41,NOT(ISBLANK(F41))),0,IF(Today&lt;D41,NETWORKDAYS(D41,E41),NETWORKDAYS(Today,E41)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J41" s="22" t="str">
-        <f>IF(ISBLANK(A41),"",IF(NOT(ISBLANK(F41)),IF(F41&gt;E41,F41-E41,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K41" s="21"/>
@@ -20890,19 +20688,19 @@
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="22" t="str">
-        <f>IF(ISBLANK(A42),"",IF(OR(ISBLANK(D42),ISBLANK(E42)),0,NETWORKDAYS(D42,E42)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H42" s="23" t="str">
-        <f>IF(ISBLANK(A42),"",IF(OR(ISBLANK(D42),ISBLANK(E42)),0,IF(Today&lt;D42,0,NETWORKDAYS(D42,IF(ISBLANK(F42),Today-1,F42)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I42" s="23" t="str">
-        <f>IF(ISBLANK(A42),"",IF(OR(ISBLANK(D42),ISBLANK(E42)),0,IF(OR(Today&gt;E42,NOT(ISBLANK(F42))),0,IF(Today&lt;D42,NETWORKDAYS(D42,E42),NETWORKDAYS(Today,E42)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J42" s="22" t="str">
-        <f>IF(ISBLANK(A42),"",IF(NOT(ISBLANK(F42)),IF(F42&gt;E42,F42-E42,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K42" s="21"/>
@@ -21279,19 +21077,19 @@
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="22" t="str">
-        <f>IF(ISBLANK(A43),"",IF(OR(ISBLANK(D43),ISBLANK(E43)),0,NETWORKDAYS(D43,E43)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H43" s="23" t="str">
-        <f>IF(ISBLANK(A43),"",IF(OR(ISBLANK(D43),ISBLANK(E43)),0,IF(Today&lt;D43,0,NETWORKDAYS(D43,IF(ISBLANK(F43),Today-1,F43)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I43" s="23" t="str">
-        <f>IF(ISBLANK(A43),"",IF(OR(ISBLANK(D43),ISBLANK(E43)),0,IF(OR(Today&gt;E43,NOT(ISBLANK(F43))),0,IF(Today&lt;D43,NETWORKDAYS(D43,E43),NETWORKDAYS(Today,E43)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J43" s="22" t="str">
-        <f>IF(ISBLANK(A43),"",IF(NOT(ISBLANK(F43)),IF(F43&gt;E43,F43-E43,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K43" s="21"/>
@@ -21668,19 +21466,19 @@
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="22" t="str">
-        <f>IF(ISBLANK(A44),"",IF(OR(ISBLANK(D44),ISBLANK(E44)),0,NETWORKDAYS(D44,E44)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H44" s="23" t="str">
-        <f>IF(ISBLANK(A44),"",IF(OR(ISBLANK(D44),ISBLANK(E44)),0,IF(Today&lt;D44,0,NETWORKDAYS(D44,IF(ISBLANK(F44),Today-1,F44)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I44" s="23" t="str">
-        <f>IF(ISBLANK(A44),"",IF(OR(ISBLANK(D44),ISBLANK(E44)),0,IF(OR(Today&gt;E44,NOT(ISBLANK(F44))),0,IF(Today&lt;D44,NETWORKDAYS(D44,E44),NETWORKDAYS(Today,E44)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J44" s="22" t="str">
-        <f>IF(ISBLANK(A44),"",IF(NOT(ISBLANK(F44)),IF(F44&gt;E44,F44-E44,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K44" s="21"/>
@@ -22057,19 +21855,19 @@
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
       <c r="G45" s="22" t="str">
-        <f>IF(ISBLANK(A45),"",IF(OR(ISBLANK(D45),ISBLANK(E45)),0,NETWORKDAYS(D45,E45)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H45" s="23" t="str">
-        <f>IF(ISBLANK(A45),"",IF(OR(ISBLANK(D45),ISBLANK(E45)),0,IF(Today&lt;D45,0,NETWORKDAYS(D45,IF(ISBLANK(F45),Today-1,F45)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I45" s="23" t="str">
-        <f>IF(ISBLANK(A45),"",IF(OR(ISBLANK(D45),ISBLANK(E45)),0,IF(OR(Today&gt;E45,NOT(ISBLANK(F45))),0,IF(Today&lt;D45,NETWORKDAYS(D45,E45),NETWORKDAYS(Today,E45)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J45" s="22" t="str">
-        <f>IF(ISBLANK(A45),"",IF(NOT(ISBLANK(F45)),IF(F45&gt;E45,F45-E45,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K45" s="21"/>
@@ -22446,19 +22244,19 @@
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
       <c r="G46" s="22" t="str">
-        <f>IF(ISBLANK(A46),"",IF(OR(ISBLANK(D46),ISBLANK(E46)),0,NETWORKDAYS(D46,E46)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H46" s="23" t="str">
-        <f>IF(ISBLANK(A46),"",IF(OR(ISBLANK(D46),ISBLANK(E46)),0,IF(Today&lt;D46,0,NETWORKDAYS(D46,IF(ISBLANK(F46),Today-1,F46)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I46" s="23" t="str">
-        <f>IF(ISBLANK(A46),"",IF(OR(ISBLANK(D46),ISBLANK(E46)),0,IF(OR(Today&gt;E46,NOT(ISBLANK(F46))),0,IF(Today&lt;D46,NETWORKDAYS(D46,E46),NETWORKDAYS(Today,E46)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J46" s="22" t="str">
-        <f>IF(ISBLANK(A46),"",IF(NOT(ISBLANK(F46)),IF(F46&gt;E46,F46-E46,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K46" s="21"/>
@@ -22835,19 +22633,19 @@
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
       <c r="G47" s="22" t="str">
-        <f>IF(ISBLANK(A47),"",IF(OR(ISBLANK(D47),ISBLANK(E47)),0,NETWORKDAYS(D47,E47)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H47" s="23" t="str">
-        <f>IF(ISBLANK(A47),"",IF(OR(ISBLANK(D47),ISBLANK(E47)),0,IF(Today&lt;D47,0,NETWORKDAYS(D47,IF(ISBLANK(F47),Today-1,F47)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I47" s="23" t="str">
-        <f>IF(ISBLANK(A47),"",IF(OR(ISBLANK(D47),ISBLANK(E47)),0,IF(OR(Today&gt;E47,NOT(ISBLANK(F47))),0,IF(Today&lt;D47,NETWORKDAYS(D47,E47),NETWORKDAYS(Today,E47)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J47" s="22" t="str">
-        <f>IF(ISBLANK(A47),"",IF(NOT(ISBLANK(F47)),IF(F47&gt;E47,F47-E47,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K47" s="21"/>
@@ -23224,19 +23022,19 @@
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
       <c r="G48" s="22" t="str">
-        <f>IF(ISBLANK(A48),"",IF(OR(ISBLANK(D48),ISBLANK(E48)),0,NETWORKDAYS(D48,E48)))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H48" s="23" t="str">
-        <f>IF(ISBLANK(A48),"",IF(OR(ISBLANK(D48),ISBLANK(E48)),0,IF(Today&lt;D48,0,NETWORKDAYS(D48,IF(ISBLANK(F48),Today-1,F48)))))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I48" s="23" t="str">
-        <f>IF(ISBLANK(A48),"",IF(OR(ISBLANK(D48),ISBLANK(E48)),0,IF(OR(Today&gt;E48,NOT(ISBLANK(F48))),0,IF(Today&lt;D48,NETWORKDAYS(D48,E48),NETWORKDAYS(Today,E48)))))</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J48" s="22" t="str">
-        <f>IF(ISBLANK(A48),"",IF(NOT(ISBLANK(F48)),IF(F48&gt;E48,F48-E48,0),0))</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K48" s="21"/>
@@ -23989,24 +23787,25 @@
   <autoFilter ref="A5:A48"/>
   <dataConsolidate/>
   <mergeCells count="53">
-    <mergeCell ref="MI2:MO4"/>
-    <mergeCell ref="MP2:MV4"/>
-    <mergeCell ref="MW2:NC4"/>
-    <mergeCell ref="ND2:NJ4"/>
-    <mergeCell ref="JX2:KD4"/>
-    <mergeCell ref="KE2:KK4"/>
-    <mergeCell ref="KL2:KR4"/>
-    <mergeCell ref="KS2:KY4"/>
-    <mergeCell ref="KZ2:LF4"/>
-    <mergeCell ref="LG2:LM4"/>
-    <mergeCell ref="LN2:LT4"/>
-    <mergeCell ref="LU2:MA4"/>
-    <mergeCell ref="MB2:MH4"/>
-    <mergeCell ref="HM2:HS4"/>
-    <mergeCell ref="HT2:HZ4"/>
-    <mergeCell ref="IA2:IG4"/>
-    <mergeCell ref="IH2:IN4"/>
-    <mergeCell ref="IO2:IU4"/>
+    <mergeCell ref="AM2:AS4"/>
+    <mergeCell ref="DZ2:EF4"/>
+    <mergeCell ref="BO2:BU4"/>
+    <mergeCell ref="BV2:CB4"/>
+    <mergeCell ref="CC2:CI4"/>
+    <mergeCell ref="CJ2:CP4"/>
+    <mergeCell ref="CQ2:CW4"/>
+    <mergeCell ref="CX2:DD4"/>
+    <mergeCell ref="DE2:DK4"/>
+    <mergeCell ref="DL2:DR4"/>
+    <mergeCell ref="DS2:DY4"/>
+    <mergeCell ref="AT2:AZ4"/>
+    <mergeCell ref="BA2:BG4"/>
+    <mergeCell ref="BH2:BN4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="K2:Q4"/>
+    <mergeCell ref="R2:X4"/>
+    <mergeCell ref="Y2:AE4"/>
+    <mergeCell ref="AF2:AL4"/>
     <mergeCell ref="IV2:JB4"/>
     <mergeCell ref="JC2:JI4"/>
     <mergeCell ref="JJ2:JP4"/>
@@ -24023,103 +23822,102 @@
     <mergeCell ref="GR2:GX4"/>
     <mergeCell ref="GY2:HE4"/>
     <mergeCell ref="HF2:HL4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="K2:Q4"/>
-    <mergeCell ref="R2:X4"/>
-    <mergeCell ref="Y2:AE4"/>
-    <mergeCell ref="AF2:AL4"/>
-    <mergeCell ref="AM2:AS4"/>
-    <mergeCell ref="DZ2:EF4"/>
-    <mergeCell ref="BO2:BU4"/>
-    <mergeCell ref="BV2:CB4"/>
-    <mergeCell ref="CC2:CI4"/>
-    <mergeCell ref="CJ2:CP4"/>
-    <mergeCell ref="CQ2:CW4"/>
-    <mergeCell ref="CX2:DD4"/>
-    <mergeCell ref="DE2:DK4"/>
-    <mergeCell ref="DL2:DR4"/>
-    <mergeCell ref="DS2:DY4"/>
-    <mergeCell ref="AT2:AZ4"/>
-    <mergeCell ref="BA2:BG4"/>
-    <mergeCell ref="BH2:BN4"/>
+    <mergeCell ref="HM2:HS4"/>
+    <mergeCell ref="HT2:HZ4"/>
+    <mergeCell ref="IA2:IG4"/>
+    <mergeCell ref="IH2:IN4"/>
+    <mergeCell ref="IO2:IU4"/>
+    <mergeCell ref="MI2:MO4"/>
+    <mergeCell ref="MP2:MV4"/>
+    <mergeCell ref="MW2:NC4"/>
+    <mergeCell ref="ND2:NJ4"/>
+    <mergeCell ref="JX2:KD4"/>
+    <mergeCell ref="KE2:KK4"/>
+    <mergeCell ref="KL2:KR4"/>
+    <mergeCell ref="KS2:KY4"/>
+    <mergeCell ref="KZ2:LF4"/>
+    <mergeCell ref="LG2:LM4"/>
+    <mergeCell ref="LN2:LT4"/>
+    <mergeCell ref="LU2:MA4"/>
+    <mergeCell ref="MB2:MH4"/>
   </mergeCells>
   <conditionalFormatting sqref="A25:NJ48 A6:NJ16">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>AND(ISERROR(SEARCH(".",$A6)),LEN($A6)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:F48 A6:F16">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>NOT(ISERROR(SEARCH(".",$A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:NJ4 K6:NJ16 K25:NJ48">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>K$2&lt;&gt;D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:NJ16 K25:NJ48">
-    <cfRule type="expression" dxfId="18" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
       <formula>K$1=Today</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>AND(LEN($A6)=1,K$1&gt;=$D6,K$1&lt;=$E6,K$1&gt;Today,IF(ISBLANK($F6),TRUE,K$1&lt;=$F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
       <formula>AND(LEN($A6)=1,K$1&lt;Today,K$1&gt;$D6,NOT(ISBLANK($D6)),$E6&lt;Today,IF(ISBLANK($F6),K$1&gt;$E6,K$1&lt;$F6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:NJ16 K25:NJ48">
-    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
       <formula>AND(LEN($A6)&gt;1,K$1&gt;=$D6,K$1&lt;=$E6,K$1&gt;Today,IF(ISBLANK($F6),TRUE,K$1&lt;=$F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>AND(LEN($A6)&gt;1,K$1&gt;=$D6,K$1&lt;=$E6,IF(ISBLANK($F6),TRUE,K$1&lt;=$F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
       <formula>AND(LEN($A6)=1,K$1&gt;=$D6,K$1&lt;=$E6,IF(ISBLANK($F6),TRUE,K$1&lt;=$F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="16" stopIfTrue="1">
       <formula>AND(LEN($A6)&gt;1,K$1&lt;Today,K$1&gt;$D6,NOT(ISBLANK($D6)),$E6&lt;Today,IF(ISBLANK($F6),K$1&gt;$E6,K$1&lt;$F6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:NJ24">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>AND(ISERROR(SEARCH(".",$A17)),LEN($A17)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F24">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>NOT(ISERROR(SEARCH(".",$A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:NJ24">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>K$2&lt;&gt;D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:NJ24">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>K$1=Today</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>AND(LEN($A17)=1,K$1&gt;=$D17,K$1&lt;=$E17,K$1&gt;Today,IF(ISBLANK($F17),TRUE,K$1&lt;=$F17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>AND(LEN($A17)=1,K$1&lt;Today,K$1&gt;$D17,NOT(ISBLANK($D17)),$E17&lt;Today,IF(ISBLANK($F17),K$1&gt;$E17,K$1&lt;$F17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:NJ24">
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>AND(LEN($A17)&gt;1,K$1&gt;=$D17,K$1&lt;=$E17,K$1&gt;Today,IF(ISBLANK($F17),TRUE,K$1&lt;=$F17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>AND(LEN($A17)&gt;1,K$1&gt;=$D17,K$1&lt;=$E17,IF(ISBLANK($F17),TRUE,K$1&lt;=$F17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>AND(LEN($A17)=1,K$1&gt;=$D17,K$1&lt;=$E17,IF(ISBLANK($F17),TRUE,K$1&lt;=$F17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>AND(LEN($A17)&gt;1,K$1&lt;Today,K$1&gt;$D17,NOT(ISBLANK($D17)),$E17&lt;Today,IF(ISBLANK($F17),K$1&gt;$E17,K$1&lt;$F17))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/time_sheet.xlsx
+++ b/time_sheet.xlsx
@@ -146,7 +146,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mô hình máy bay trên máy tinh. Hiểu các thông số điều khiển. Khả năng của Matlab</t>
+Mô hình máy bay trên máy tính. Hiểu các thông số điều khiển. Xuất code nhúng cho các module</t>
         </r>
       </text>
     </comment>
@@ -2260,9 +2260,9 @@
   </sheetPr>
   <dimension ref="A1:NK52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:H1"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/time_sheet.xlsx
+++ b/time_sheet.xlsx
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Toggles between splitting years into Financial Years (e.g. 2009/10) or Calendar Years (e.g. 2009). Set to TRUE if you want to display Financial Years.</t>
   </si>
@@ -349,9 +349,6 @@
   </si>
   <si>
     <t>Linh</t>
-  </si>
-  <si>
-    <t>Code PID, Matlab + simulink</t>
   </si>
   <si>
     <t xml:space="preserve">Debug bằng máy tính. Giao diện </t>
@@ -1180,12 +1177,12 @@
     <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="15" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="15" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1211,7 +1208,25 @@
     <cellStyle name="Project Headers" xfId="12"/>
     <cellStyle name="Title 2" xfId="7"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1889,39 +1904,39 @@
   </dxfs>
   <tableStyles count="6" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Project Timeline" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="42"/>
-      <tableStyleElement type="headerRow" dxfId="41"/>
-      <tableStyleElement type="firstRowStripe" dxfId="40"/>
-      <tableStyleElement type="secondRowStripe" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="secondRowStripe" dxfId="41"/>
     </tableStyle>
     <tableStyle name="Project Timeline 2" pivot="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="40"/>
+      <tableStyleElement type="headerRow" dxfId="39"/>
+    </tableStyle>
+    <tableStyle name="Project Timeline 3" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="38"/>
       <tableStyleElement type="headerRow" dxfId="37"/>
     </tableStyle>
-    <tableStyle name="Project Timeline 3" pivot="0" count="2">
+    <tableStyle name="Project Timeline 4" pivot="0" count="4">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
-    </tableStyle>
-    <tableStyle name="Project Timeline 4" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="34"/>
-      <tableStyleElement type="headerRow" dxfId="33"/>
-      <tableStyleElement type="firstRowStripe" dxfId="32"/>
-      <tableStyleElement type="secondRowStripe" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="34"/>
+      <tableStyleElement type="secondRowStripe" dxfId="33"/>
     </tableStyle>
     <tableStyle name="TableStyleLight7 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="30"/>
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="totalRow" dxfId="28"/>
-      <tableStyleElement type="firstColumn" dxfId="27"/>
-      <tableStyleElement type="lastColumn" dxfId="26"/>
-      <tableStyleElement type="firstRowStripe" dxfId="25"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="24"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="totalRow" dxfId="30"/>
+      <tableStyleElement type="firstColumn" dxfId="29"/>
+      <tableStyleElement type="lastColumn" dxfId="28"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="26"/>
     </tableStyle>
     <tableStyle name="TableStyleLight9 2" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="firstColumn" dxfId="20"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="totalRow" dxfId="23"/>
+      <tableStyleElement type="firstColumn" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2278,16 +2293,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:375" s="55" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="59"/>
       <c r="J1" s="58" t="s">
         <v>22</v>
@@ -4280,7 +4295,7 @@
       <c r="NG2" s="76"/>
       <c r="NH2" s="76"/>
       <c r="NI2" s="76"/>
-      <c r="NJ2" s="77"/>
+      <c r="NJ2" s="78"/>
     </row>
     <row r="3" spans="1:375" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
@@ -4660,7 +4675,7 @@
       <c r="NG3" s="76"/>
       <c r="NH3" s="76"/>
       <c r="NI3" s="76"/>
-      <c r="NJ3" s="77"/>
+      <c r="NJ3" s="78"/>
     </row>
     <row r="4" spans="1:375" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
@@ -5041,7 +5056,7 @@
       <c r="NG4" s="76"/>
       <c r="NH4" s="76"/>
       <c r="NI4" s="76"/>
-      <c r="NJ4" s="77"/>
+      <c r="NJ4" s="78"/>
     </row>
     <row r="5" spans="1:375" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
@@ -10122,8 +10137,8 @@
       <c r="A15" s="26">
         <v>2.4</v>
       </c>
-      <c r="B15" s="60" t="s">
-        <v>47</v>
+      <c r="B15" s="26">
+        <v>2.4</v>
       </c>
       <c r="C15" s="60" t="s">
         <v>46</v>
@@ -11713,7 +11728,7 @@
     <row r="19" spans="1:375" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="24"/>
@@ -23787,25 +23802,24 @@
   <autoFilter ref="A5:A48"/>
   <dataConsolidate/>
   <mergeCells count="53">
-    <mergeCell ref="AM2:AS4"/>
-    <mergeCell ref="DZ2:EF4"/>
-    <mergeCell ref="BO2:BU4"/>
-    <mergeCell ref="BV2:CB4"/>
-    <mergeCell ref="CC2:CI4"/>
-    <mergeCell ref="CJ2:CP4"/>
-    <mergeCell ref="CQ2:CW4"/>
-    <mergeCell ref="CX2:DD4"/>
-    <mergeCell ref="DE2:DK4"/>
-    <mergeCell ref="DL2:DR4"/>
-    <mergeCell ref="DS2:DY4"/>
-    <mergeCell ref="AT2:AZ4"/>
-    <mergeCell ref="BA2:BG4"/>
-    <mergeCell ref="BH2:BN4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="K2:Q4"/>
-    <mergeCell ref="R2:X4"/>
-    <mergeCell ref="Y2:AE4"/>
-    <mergeCell ref="AF2:AL4"/>
+    <mergeCell ref="MI2:MO4"/>
+    <mergeCell ref="MP2:MV4"/>
+    <mergeCell ref="MW2:NC4"/>
+    <mergeCell ref="ND2:NJ4"/>
+    <mergeCell ref="JX2:KD4"/>
+    <mergeCell ref="KE2:KK4"/>
+    <mergeCell ref="KL2:KR4"/>
+    <mergeCell ref="KS2:KY4"/>
+    <mergeCell ref="KZ2:LF4"/>
+    <mergeCell ref="LG2:LM4"/>
+    <mergeCell ref="LN2:LT4"/>
+    <mergeCell ref="LU2:MA4"/>
+    <mergeCell ref="MB2:MH4"/>
+    <mergeCell ref="HM2:HS4"/>
+    <mergeCell ref="HT2:HZ4"/>
+    <mergeCell ref="IA2:IG4"/>
+    <mergeCell ref="IH2:IN4"/>
+    <mergeCell ref="IO2:IU4"/>
     <mergeCell ref="IV2:JB4"/>
     <mergeCell ref="JC2:JI4"/>
     <mergeCell ref="JJ2:JP4"/>
@@ -23822,102 +23836,103 @@
     <mergeCell ref="GR2:GX4"/>
     <mergeCell ref="GY2:HE4"/>
     <mergeCell ref="HF2:HL4"/>
-    <mergeCell ref="HM2:HS4"/>
-    <mergeCell ref="HT2:HZ4"/>
-    <mergeCell ref="IA2:IG4"/>
-    <mergeCell ref="IH2:IN4"/>
-    <mergeCell ref="IO2:IU4"/>
-    <mergeCell ref="MI2:MO4"/>
-    <mergeCell ref="MP2:MV4"/>
-    <mergeCell ref="MW2:NC4"/>
-    <mergeCell ref="ND2:NJ4"/>
-    <mergeCell ref="JX2:KD4"/>
-    <mergeCell ref="KE2:KK4"/>
-    <mergeCell ref="KL2:KR4"/>
-    <mergeCell ref="KS2:KY4"/>
-    <mergeCell ref="KZ2:LF4"/>
-    <mergeCell ref="LG2:LM4"/>
-    <mergeCell ref="LN2:LT4"/>
-    <mergeCell ref="LU2:MA4"/>
-    <mergeCell ref="MB2:MH4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="K2:Q4"/>
+    <mergeCell ref="R2:X4"/>
+    <mergeCell ref="Y2:AE4"/>
+    <mergeCell ref="AF2:AL4"/>
+    <mergeCell ref="AM2:AS4"/>
+    <mergeCell ref="DZ2:EF4"/>
+    <mergeCell ref="BO2:BU4"/>
+    <mergeCell ref="BV2:CB4"/>
+    <mergeCell ref="CC2:CI4"/>
+    <mergeCell ref="CJ2:CP4"/>
+    <mergeCell ref="CQ2:CW4"/>
+    <mergeCell ref="CX2:DD4"/>
+    <mergeCell ref="DE2:DK4"/>
+    <mergeCell ref="DL2:DR4"/>
+    <mergeCell ref="DS2:DY4"/>
+    <mergeCell ref="AT2:AZ4"/>
+    <mergeCell ref="BA2:BG4"/>
+    <mergeCell ref="BH2:BN4"/>
   </mergeCells>
   <conditionalFormatting sqref="A25:NJ48 A6:NJ16">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>AND(ISERROR(SEARCH(".",$A6)),LEN($A6)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:F48 A6:F16">
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>NOT(ISERROR(SEARCH(".",$A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:NJ4 K6:NJ16 K25:NJ48">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>K$2&lt;&gt;D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:NJ16 K25:NJ48">
-    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="11" stopIfTrue="1">
       <formula>K$1=Today</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
       <formula>AND(LEN($A6)=1,K$1&gt;=$D6,K$1&lt;=$E6,K$1&gt;Today,IF(ISBLANK($F6),TRUE,K$1&lt;=$F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>AND(LEN($A6)=1,K$1&lt;Today,K$1&gt;$D6,NOT(ISBLANK($D6)),$E6&lt;Today,IF(ISBLANK($F6),K$1&gt;$E6,K$1&lt;$F6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:NJ16 K25:NJ48">
-    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>AND(LEN($A6)&gt;1,K$1&gt;=$D6,K$1&lt;=$E6,K$1&gt;Today,IF(ISBLANK($F6),TRUE,K$1&lt;=$F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
       <formula>AND(LEN($A6)&gt;1,K$1&gt;=$D6,K$1&lt;=$E6,IF(ISBLANK($F6),TRUE,K$1&lt;=$F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
       <formula>AND(LEN($A6)=1,K$1&gt;=$D6,K$1&lt;=$E6,IF(ISBLANK($F6),TRUE,K$1&lt;=$F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
       <formula>AND(LEN($A6)&gt;1,K$1&lt;Today,K$1&gt;$D6,NOT(ISBLANK($D6)),$E6&lt;Today,IF(ISBLANK($F6),K$1&gt;$E6,K$1&lt;$F6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:NJ24">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>AND(ISERROR(SEARCH(".",$A17)),LEN($A17)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F24">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>NOT(ISERROR(SEARCH(".",$A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:NJ24">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>K$2&lt;&gt;D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:NJ24">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>K$1=Today</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>AND(LEN($A17)=1,K$1&gt;=$D17,K$1&lt;=$E17,K$1&gt;Today,IF(ISBLANK($F17),TRUE,K$1&lt;=$F17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>AND(LEN($A17)=1,K$1&lt;Today,K$1&gt;$D17,NOT(ISBLANK($D17)),$E17&lt;Today,IF(ISBLANK($F17),K$1&gt;$E17,K$1&lt;$F17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:NJ24">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>AND(LEN($A17)&gt;1,K$1&gt;=$D17,K$1&lt;=$E17,K$1&gt;Today,IF(ISBLANK($F17),TRUE,K$1&lt;=$F17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>AND(LEN($A17)&gt;1,K$1&gt;=$D17,K$1&lt;=$E17,IF(ISBLANK($F17),TRUE,K$1&lt;=$F17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>AND(LEN($A17)=1,K$1&gt;=$D17,K$1&lt;=$E17,IF(ISBLANK($F17),TRUE,K$1&lt;=$F17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>AND(LEN($A17)&gt;1,K$1&lt;Today,K$1&gt;$D17,NOT(ISBLANK($D17)),$E17&lt;Today,IF(ISBLANK($F17),K$1&gt;$E17,K$1&lt;$F17))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23926,7 +23941,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start" prompt="The start date of the project." sqref="B3:C3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="PM" prompt="Project manager's name" sqref="B2:C2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start and Planned end dates" prompt="For main tasks that have multiple sub-tasks, you can utilise the MAX(range) funtion, where the range covers all sub-task dates." sqref="D6:E48"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task ID" prompt="For main tasks, enter any number of characters making sure none of them are dots &quot;.&quot;, e.g. &quot;1&quot; or &quot;A&quot; or &quot;12&quot;_x000a__x000a_For sub-tasks, just include a dot &quot;.&quot; along with any number of characters, e.g. &quot;1.1&quot; or &quot;A.1&quot; or &quot;12.67&quot;." sqref="A6:A48"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task ID" prompt="For main tasks, enter any number of characters making sure none of them are dots &quot;.&quot;, e.g. &quot;1&quot; or &quot;A&quot; or &quot;12&quot;_x000a__x000a_For sub-tasks, just include a dot &quot;.&quot; along with any number of characters, e.g. &quot;1.1&quot; or &quot;A.1&quot; or &quot;12.67&quot;." sqref="A6:A48 B15"/>
   </dataValidations>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="18" orientation="landscape" r:id="rId1"/>

--- a/time_sheet.xlsx
+++ b/time_sheet.xlsx
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Toggles between splitting years into Financial Years (e.g. 2009/10) or Calendar Years (e.g. 2009). Set to TRUE if you want to display Financial Years.</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t xml:space="preserve">Debug bằng máy tính. Giao diện </t>
+  </si>
+  <si>
+    <t>Code PID, mô phỏng điều khiển mô hình Quad bằng Mablab</t>
   </si>
 </sst>
 </file>
@@ -1177,12 +1180,12 @@
     <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="15" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="15" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1208,25 +1211,7 @@
     <cellStyle name="Project Headers" xfId="12"/>
     <cellStyle name="Title 2" xfId="7"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <fill>
         <patternFill>
@@ -1904,39 +1889,39 @@
   </dxfs>
   <tableStyles count="6" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Project Timeline" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
-      <tableStyleElement type="headerRow" dxfId="43"/>
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+      <tableStyleElement type="wholeTable" dxfId="42"/>
+      <tableStyleElement type="headerRow" dxfId="41"/>
+      <tableStyleElement type="firstRowStripe" dxfId="40"/>
+      <tableStyleElement type="secondRowStripe" dxfId="39"/>
     </tableStyle>
     <tableStyle name="Project Timeline 2" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="40"/>
-      <tableStyleElement type="headerRow" dxfId="39"/>
-    </tableStyle>
-    <tableStyle name="Project Timeline 3" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="38"/>
       <tableStyleElement type="headerRow" dxfId="37"/>
     </tableStyle>
-    <tableStyle name="Project Timeline 4" pivot="0" count="4">
+    <tableStyle name="Project Timeline 3" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
-      <tableStyleElement type="firstRowStripe" dxfId="34"/>
-      <tableStyleElement type="secondRowStripe" dxfId="33"/>
+    </tableStyle>
+    <tableStyle name="Project Timeline 4" pivot="0" count="4">
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="firstRowStripe" dxfId="32"/>
+      <tableStyleElement type="secondRowStripe" dxfId="31"/>
     </tableStyle>
     <tableStyle name="TableStyleLight7 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="totalRow" dxfId="30"/>
-      <tableStyleElement type="firstColumn" dxfId="29"/>
-      <tableStyleElement type="lastColumn" dxfId="28"/>
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="26"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="totalRow" dxfId="28"/>
+      <tableStyleElement type="firstColumn" dxfId="27"/>
+      <tableStyleElement type="lastColumn" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="24"/>
     </tableStyle>
     <tableStyle name="TableStyleLight9 2" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="totalRow" dxfId="23"/>
-      <tableStyleElement type="firstColumn" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2275,7 +2260,7 @@
   </sheetPr>
   <dimension ref="A1:NK52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
@@ -2293,16 +2278,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:375" s="55" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
       <c r="I1" s="59"/>
       <c r="J1" s="58" t="s">
         <v>22</v>
@@ -4295,7 +4280,7 @@
       <c r="NG2" s="76"/>
       <c r="NH2" s="76"/>
       <c r="NI2" s="76"/>
-      <c r="NJ2" s="78"/>
+      <c r="NJ2" s="77"/>
     </row>
     <row r="3" spans="1:375" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
@@ -4675,7 +4660,7 @@
       <c r="NG3" s="76"/>
       <c r="NH3" s="76"/>
       <c r="NI3" s="76"/>
-      <c r="NJ3" s="78"/>
+      <c r="NJ3" s="77"/>
     </row>
     <row r="4" spans="1:375" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
@@ -4683,7 +4668,7 @@
       </c>
       <c r="B4" s="47">
         <f ca="1">TODAY()</f>
-        <v>42197</v>
+        <v>42198</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="46"/>
@@ -5056,7 +5041,7 @@
       <c r="NG4" s="76"/>
       <c r="NH4" s="76"/>
       <c r="NI4" s="76"/>
-      <c r="NJ4" s="78"/>
+      <c r="NJ4" s="77"/>
     </row>
     <row r="5" spans="1:375" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
@@ -10137,8 +10122,8 @@
       <c r="A15" s="26">
         <v>2.4</v>
       </c>
-      <c r="B15" s="26">
-        <v>2.4</v>
+      <c r="B15" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="C15" s="60" t="s">
         <v>46</v>
@@ -23802,24 +23787,25 @@
   <autoFilter ref="A5:A48"/>
   <dataConsolidate/>
   <mergeCells count="53">
-    <mergeCell ref="MI2:MO4"/>
-    <mergeCell ref="MP2:MV4"/>
-    <mergeCell ref="MW2:NC4"/>
-    <mergeCell ref="ND2:NJ4"/>
-    <mergeCell ref="JX2:KD4"/>
-    <mergeCell ref="KE2:KK4"/>
-    <mergeCell ref="KL2:KR4"/>
-    <mergeCell ref="KS2:KY4"/>
-    <mergeCell ref="KZ2:LF4"/>
-    <mergeCell ref="LG2:LM4"/>
-    <mergeCell ref="LN2:LT4"/>
-    <mergeCell ref="LU2:MA4"/>
-    <mergeCell ref="MB2:MH4"/>
-    <mergeCell ref="HM2:HS4"/>
-    <mergeCell ref="HT2:HZ4"/>
-    <mergeCell ref="IA2:IG4"/>
-    <mergeCell ref="IH2:IN4"/>
-    <mergeCell ref="IO2:IU4"/>
+    <mergeCell ref="AM2:AS4"/>
+    <mergeCell ref="DZ2:EF4"/>
+    <mergeCell ref="BO2:BU4"/>
+    <mergeCell ref="BV2:CB4"/>
+    <mergeCell ref="CC2:CI4"/>
+    <mergeCell ref="CJ2:CP4"/>
+    <mergeCell ref="CQ2:CW4"/>
+    <mergeCell ref="CX2:DD4"/>
+    <mergeCell ref="DE2:DK4"/>
+    <mergeCell ref="DL2:DR4"/>
+    <mergeCell ref="DS2:DY4"/>
+    <mergeCell ref="AT2:AZ4"/>
+    <mergeCell ref="BA2:BG4"/>
+    <mergeCell ref="BH2:BN4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="K2:Q4"/>
+    <mergeCell ref="R2:X4"/>
+    <mergeCell ref="Y2:AE4"/>
+    <mergeCell ref="AF2:AL4"/>
     <mergeCell ref="IV2:JB4"/>
     <mergeCell ref="JC2:JI4"/>
     <mergeCell ref="JJ2:JP4"/>
@@ -23836,103 +23822,102 @@
     <mergeCell ref="GR2:GX4"/>
     <mergeCell ref="GY2:HE4"/>
     <mergeCell ref="HF2:HL4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="K2:Q4"/>
-    <mergeCell ref="R2:X4"/>
-    <mergeCell ref="Y2:AE4"/>
-    <mergeCell ref="AF2:AL4"/>
-    <mergeCell ref="AM2:AS4"/>
-    <mergeCell ref="DZ2:EF4"/>
-    <mergeCell ref="BO2:BU4"/>
-    <mergeCell ref="BV2:CB4"/>
-    <mergeCell ref="CC2:CI4"/>
-    <mergeCell ref="CJ2:CP4"/>
-    <mergeCell ref="CQ2:CW4"/>
-    <mergeCell ref="CX2:DD4"/>
-    <mergeCell ref="DE2:DK4"/>
-    <mergeCell ref="DL2:DR4"/>
-    <mergeCell ref="DS2:DY4"/>
-    <mergeCell ref="AT2:AZ4"/>
-    <mergeCell ref="BA2:BG4"/>
-    <mergeCell ref="BH2:BN4"/>
+    <mergeCell ref="HM2:HS4"/>
+    <mergeCell ref="HT2:HZ4"/>
+    <mergeCell ref="IA2:IG4"/>
+    <mergeCell ref="IH2:IN4"/>
+    <mergeCell ref="IO2:IU4"/>
+    <mergeCell ref="MI2:MO4"/>
+    <mergeCell ref="MP2:MV4"/>
+    <mergeCell ref="MW2:NC4"/>
+    <mergeCell ref="ND2:NJ4"/>
+    <mergeCell ref="JX2:KD4"/>
+    <mergeCell ref="KE2:KK4"/>
+    <mergeCell ref="KL2:KR4"/>
+    <mergeCell ref="KS2:KY4"/>
+    <mergeCell ref="KZ2:LF4"/>
+    <mergeCell ref="LG2:LM4"/>
+    <mergeCell ref="LN2:LT4"/>
+    <mergeCell ref="LU2:MA4"/>
+    <mergeCell ref="MB2:MH4"/>
   </mergeCells>
   <conditionalFormatting sqref="A25:NJ48 A6:NJ16">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>AND(ISERROR(SEARCH(".",$A6)),LEN($A6)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:F48 A6:F16">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>NOT(ISERROR(SEARCH(".",$A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:NJ4 K6:NJ16 K25:NJ48">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>K$2&lt;&gt;D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:NJ16 K25:NJ48">
-    <cfRule type="expression" dxfId="18" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
       <formula>K$1=Today</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>AND(LEN($A6)=1,K$1&gt;=$D6,K$1&lt;=$E6,K$1&gt;Today,IF(ISBLANK($F6),TRUE,K$1&lt;=$F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
       <formula>AND(LEN($A6)=1,K$1&lt;Today,K$1&gt;$D6,NOT(ISBLANK($D6)),$E6&lt;Today,IF(ISBLANK($F6),K$1&gt;$E6,K$1&lt;$F6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:NJ16 K25:NJ48">
-    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
       <formula>AND(LEN($A6)&gt;1,K$1&gt;=$D6,K$1&lt;=$E6,K$1&gt;Today,IF(ISBLANK($F6),TRUE,K$1&lt;=$F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>AND(LEN($A6)&gt;1,K$1&gt;=$D6,K$1&lt;=$E6,IF(ISBLANK($F6),TRUE,K$1&lt;=$F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
       <formula>AND(LEN($A6)=1,K$1&gt;=$D6,K$1&lt;=$E6,IF(ISBLANK($F6),TRUE,K$1&lt;=$F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="16" stopIfTrue="1">
       <formula>AND(LEN($A6)&gt;1,K$1&lt;Today,K$1&gt;$D6,NOT(ISBLANK($D6)),$E6&lt;Today,IF(ISBLANK($F6),K$1&gt;$E6,K$1&lt;$F6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:NJ24">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>AND(ISERROR(SEARCH(".",$A17)),LEN($A17)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F24">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>NOT(ISERROR(SEARCH(".",$A17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:NJ24">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>K$2&lt;&gt;D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:NJ24">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>K$1=Today</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>AND(LEN($A17)=1,K$1&gt;=$D17,K$1&lt;=$E17,K$1&gt;Today,IF(ISBLANK($F17),TRUE,K$1&lt;=$F17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>AND(LEN($A17)=1,K$1&lt;Today,K$1&gt;$D17,NOT(ISBLANK($D17)),$E17&lt;Today,IF(ISBLANK($F17),K$1&gt;$E17,K$1&lt;$F17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:NJ24">
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>AND(LEN($A17)&gt;1,K$1&gt;=$D17,K$1&lt;=$E17,K$1&gt;Today,IF(ISBLANK($F17),TRUE,K$1&lt;=$F17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>AND(LEN($A17)&gt;1,K$1&gt;=$D17,K$1&lt;=$E17,IF(ISBLANK($F17),TRUE,K$1&lt;=$F17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>AND(LEN($A17)=1,K$1&gt;=$D17,K$1&lt;=$E17,IF(ISBLANK($F17),TRUE,K$1&lt;=$F17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>AND(LEN($A17)&gt;1,K$1&lt;Today,K$1&gt;$D17,NOT(ISBLANK($D17)),$E17&lt;Today,IF(ISBLANK($F17),K$1&gt;$E17,K$1&lt;$F17))</formula>
     </cfRule>
   </conditionalFormatting>
